--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3648EA04-34FA-4B16-8FCD-6C49C27D9F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F615DA-E10B-4C47-8046-46D74E2163D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Andoroidアプリ作成" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -422,6 +422,10 @@
     <t>Unnity</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +438,7 @@
     <numFmt numFmtId="179" formatCode="0.0#\ &quot;h&quot;"/>
     <numFmt numFmtId="180" formatCode="m&quot;月&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,8 +506,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +595,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -941,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,6 +1107,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1819,24 +1839,24 @@
   <dimension ref="A1:BS96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="M47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="1.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="1.88671875" style="8" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.875" style="8" customWidth="1"/>
-    <col min="8" max="71" width="3.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.88671875" style="8" customWidth="1"/>
+    <col min="8" max="71" width="3.109375" style="8" customWidth="1"/>
     <col min="72" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="70" t="s">
         <v>11</v>
       </c>
@@ -1846,7 +1866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:71" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:71" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" s="71" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2130,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H3" s="11">
         <f>Config!B3</f>
         <v>44083</v>
@@ -2368,7 +2388,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="4" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
       <c r="B4" s="67" t="s">
         <v>0</v>
@@ -2641,7 +2661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +2744,7 @@
       <c r="BR5" s="32"/>
       <c r="BS5" s="33"/>
     </row>
-    <row r="6" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="23"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
@@ -2805,7 +2825,7 @@
       <c r="BR6" s="14"/>
       <c r="BS6" s="34"/>
     </row>
-    <row r="7" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="23"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2886,7 +2906,7 @@
       <c r="BR7" s="14"/>
       <c r="BS7" s="34"/>
     </row>
-    <row r="8" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="23"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
@@ -2967,7 +2987,7 @@
       <c r="BR8" s="14"/>
       <c r="BS8" s="34"/>
     </row>
-    <row r="9" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="23"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3048,7 +3068,7 @@
       <c r="BR9" s="14"/>
       <c r="BS9" s="34"/>
     </row>
-    <row r="10" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="23"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
@@ -3125,7 +3145,7 @@
       <c r="BR10" s="14"/>
       <c r="BS10" s="34"/>
     </row>
-    <row r="11" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="23"/>
       <c r="B11" s="41"/>
       <c r="C11" s="53" t="s">
@@ -3206,7 +3226,7 @@
       <c r="BR11" s="14"/>
       <c r="BS11" s="34"/>
     </row>
-    <row r="12" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -3283,7 +3303,7 @@
       <c r="BR12" s="14"/>
       <c r="BS12" s="34"/>
     </row>
-    <row r="13" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -3360,7 +3380,7 @@
       <c r="BR13" s="14"/>
       <c r="BS13" s="34"/>
     </row>
-    <row r="14" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -3437,7 +3457,7 @@
       <c r="BR14" s="14"/>
       <c r="BS14" s="34"/>
     </row>
-    <row r="15" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -3514,7 +3534,7 @@
       <c r="BR15" s="14"/>
       <c r="BS15" s="34"/>
     </row>
-    <row r="16" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
       <c r="B16" s="12"/>
       <c r="C16" s="55" t="s">
@@ -3595,7 +3615,7 @@
       <c r="BR16" s="14"/>
       <c r="BS16" s="34"/>
     </row>
-    <row r="17" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="23"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -3672,7 +3692,7 @@
       <c r="BR17" s="51"/>
       <c r="BS17" s="52"/>
     </row>
-    <row r="18" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -3749,7 +3769,7 @@
       <c r="BR18" s="51"/>
       <c r="BS18" s="52"/>
     </row>
-    <row r="19" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -3826,7 +3846,7 @@
       <c r="BR19" s="51"/>
       <c r="BS19" s="52"/>
     </row>
-    <row r="20" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="23"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -3903,7 +3923,7 @@
       <c r="BR20" s="51"/>
       <c r="BS20" s="52"/>
     </row>
-    <row r="21" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -3980,7 +4000,7 @@
       <c r="BR21" s="51"/>
       <c r="BS21" s="52"/>
     </row>
-    <row r="22" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -4057,7 +4077,7 @@
       <c r="BR22" s="51"/>
       <c r="BS22" s="52"/>
     </row>
-    <row r="23" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -4134,7 +4154,7 @@
       <c r="BR23" s="51"/>
       <c r="BS23" s="52"/>
     </row>
-    <row r="24" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="46"/>
       <c r="C24" s="57" t="s">
@@ -4215,7 +4235,7 @@
       <c r="BR24" s="51"/>
       <c r="BS24" s="52"/>
     </row>
-    <row r="25" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -4292,7 +4312,7 @@
       <c r="BR25" s="51"/>
       <c r="BS25" s="52"/>
     </row>
-    <row r="26" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" s="23"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -4369,7 +4389,7 @@
       <c r="BR26" s="51"/>
       <c r="BS26" s="52"/>
     </row>
-    <row r="27" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -4446,7 +4466,7 @@
       <c r="BR27" s="51"/>
       <c r="BS27" s="52"/>
     </row>
-    <row r="28" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="46"/>
       <c r="C28" s="57" t="s">
@@ -4527,7 +4547,7 @@
       <c r="BR28" s="51"/>
       <c r="BS28" s="52"/>
     </row>
-    <row r="29" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A29" s="23"/>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -4604,7 +4624,7 @@
       <c r="BR29" s="51"/>
       <c r="BS29" s="52"/>
     </row>
-    <row r="30" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -4681,7 +4701,7 @@
       <c r="BR30" s="51"/>
       <c r="BS30" s="52"/>
     </row>
-    <row r="31" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" s="23"/>
       <c r="B31" s="46"/>
       <c r="C31" s="57" t="s">
@@ -4762,7 +4782,7 @@
       <c r="BR31" s="51"/>
       <c r="BS31" s="52"/>
     </row>
-    <row r="32" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A32" s="23"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -4839,7 +4859,7 @@
       <c r="BR32" s="51"/>
       <c r="BS32" s="52"/>
     </row>
-    <row r="33" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A33" s="23"/>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
@@ -4916,7 +4936,7 @@
       <c r="BR33" s="51"/>
       <c r="BS33" s="52"/>
     </row>
-    <row r="34" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A34" s="23"/>
       <c r="B34" s="46"/>
       <c r="C34" s="57" t="s">
@@ -4997,7 +5017,7 @@
       <c r="BR34" s="51"/>
       <c r="BS34" s="52"/>
     </row>
-    <row r="35" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
@@ -5074,7 +5094,7 @@
       <c r="BR35" s="51"/>
       <c r="BS35" s="52"/>
     </row>
-    <row r="36" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A36" s="23"/>
       <c r="B36" s="46"/>
       <c r="C36" s="46"/>
@@ -5151,7 +5171,7 @@
       <c r="BR36" s="51"/>
       <c r="BS36" s="52"/>
     </row>
-    <row r="37" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A37" s="23"/>
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
@@ -5228,7 +5248,7 @@
       <c r="BR37" s="51"/>
       <c r="BS37" s="52"/>
     </row>
-    <row r="38" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A38" s="23"/>
       <c r="B38" s="46"/>
       <c r="C38" s="57" t="s">
@@ -5309,7 +5329,7 @@
       <c r="BR38" s="51"/>
       <c r="BS38" s="52"/>
     </row>
-    <row r="39" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A39" s="23"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -5386,7 +5406,7 @@
       <c r="BR39" s="51"/>
       <c r="BS39" s="52"/>
     </row>
-    <row r="40" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A40" s="23"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -5463,7 +5483,7 @@
       <c r="BR40" s="51"/>
       <c r="BS40" s="52"/>
     </row>
-    <row r="41" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A41" s="23"/>
       <c r="B41" s="46"/>
       <c r="C41" s="57" t="s">
@@ -5544,7 +5564,7 @@
       <c r="BR41" s="51"/>
       <c r="BS41" s="52"/>
     </row>
-    <row r="42" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A42" s="23"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -5621,7 +5641,7 @@
       <c r="BR42" s="51"/>
       <c r="BS42" s="52"/>
     </row>
-    <row r="43" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -5698,7 +5718,7 @@
       <c r="BR43" s="51"/>
       <c r="BS43" s="52"/>
     </row>
-    <row r="44" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A44" s="23"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -5775,7 +5795,7 @@
       <c r="BR44" s="51"/>
       <c r="BS44" s="52"/>
     </row>
-    <row r="45" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A45" s="23"/>
       <c r="B45" s="46"/>
       <c r="C45" s="57" t="s">
@@ -5856,7 +5876,7 @@
       <c r="BR45" s="51"/>
       <c r="BS45" s="52"/>
     </row>
-    <row r="46" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A46" s="23"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
@@ -5933,7 +5953,7 @@
       <c r="BR46" s="51"/>
       <c r="BS46" s="52"/>
     </row>
-    <row r="47" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A47" s="23"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
@@ -6010,7 +6030,7 @@
       <c r="BR47" s="51"/>
       <c r="BS47" s="52"/>
     </row>
-    <row r="48" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A48" s="23"/>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
@@ -6087,7 +6107,7 @@
       <c r="BR48" s="51"/>
       <c r="BS48" s="52"/>
     </row>
-    <row r="49" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A49" s="23"/>
       <c r="B49" s="46"/>
       <c r="C49" s="57" t="s">
@@ -6168,7 +6188,7 @@
       <c r="BR49" s="51"/>
       <c r="BS49" s="52"/>
     </row>
-    <row r="50" spans="1:71" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A50" s="23"/>
       <c r="B50" s="46"/>
       <c r="C50" s="57" t="s">
@@ -6249,7 +6269,7 @@
       <c r="BR50" s="51"/>
       <c r="BS50" s="52"/>
     </row>
-    <row r="51" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="36" t="s">
         <v>9</v>
       </c>
@@ -6326,7 +6346,7 @@
       <c r="BR51" s="32"/>
       <c r="BS51" s="33"/>
     </row>
-    <row r="52" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="37"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18" t="s">
@@ -6401,16 +6421,22 @@
       <c r="BR52" s="14"/>
       <c r="BS52" s="34"/>
     </row>
-    <row r="53" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="37"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="16"/>
+      <c r="E53" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="15">
+        <v>44093</v>
+      </c>
+      <c r="G53" s="16">
+        <v>44093</v>
+      </c>
       <c r="H53" s="45"/>
       <c r="I53" s="45"/>
       <c r="J53" s="45"/>
@@ -6421,7 +6447,7 @@
       <c r="O53" s="45"/>
       <c r="P53" s="45"/>
       <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
+      <c r="R53" s="76"/>
       <c r="S53" s="45"/>
       <c r="T53" s="45"/>
       <c r="U53" s="45"/>
@@ -6476,7 +6502,7 @@
       <c r="BR53" s="14"/>
       <c r="BS53" s="34"/>
     </row>
-    <row r="54" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="37"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39" t="s">
@@ -6551,7 +6577,7 @@
       <c r="BR54" s="14"/>
       <c r="BS54" s="34"/>
     </row>
-    <row r="55" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="37"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -6626,7 +6652,7 @@
       <c r="BR55" s="14"/>
       <c r="BS55" s="34"/>
     </row>
-    <row r="56" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="37"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18" t="s">
@@ -6701,7 +6727,7 @@
       <c r="BR56" s="14"/>
       <c r="BS56" s="34"/>
     </row>
-    <row r="57" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="37"/>
       <c r="B57" s="12"/>
       <c r="C57" s="53" t="s">
@@ -6776,7 +6802,7 @@
       <c r="BR57" s="14"/>
       <c r="BS57" s="34"/>
     </row>
-    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="37"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -6851,7 +6877,7 @@
       <c r="BR58" s="14"/>
       <c r="BS58" s="34"/>
     </row>
-    <row r="59" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="37"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -6926,7 +6952,7 @@
       <c r="BR59" s="14"/>
       <c r="BS59" s="34"/>
     </row>
-    <row r="60" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="37"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -7001,7 +7027,7 @@
       <c r="BR60" s="14"/>
       <c r="BS60" s="34"/>
     </row>
-    <row r="61" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="37"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -7076,7 +7102,7 @@
       <c r="BR61" s="14"/>
       <c r="BS61" s="34"/>
     </row>
-    <row r="62" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="37"/>
       <c r="B62" s="12"/>
       <c r="C62" s="55" t="s">
@@ -7151,7 +7177,7 @@
       <c r="BR62" s="14"/>
       <c r="BS62" s="34"/>
     </row>
-    <row r="63" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="37"/>
       <c r="B63" s="12"/>
       <c r="C63" s="46"/>
@@ -7226,7 +7252,7 @@
       <c r="BR63" s="14"/>
       <c r="BS63" s="34"/>
     </row>
-    <row r="64" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="37"/>
       <c r="B64" s="12"/>
       <c r="C64" s="46"/>
@@ -7301,7 +7327,7 @@
       <c r="BR64" s="14"/>
       <c r="BS64" s="34"/>
     </row>
-    <row r="65" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="37"/>
       <c r="B65" s="12"/>
       <c r="C65" s="46"/>
@@ -7376,7 +7402,7 @@
       <c r="BR65" s="14"/>
       <c r="BS65" s="34"/>
     </row>
-    <row r="66" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="37"/>
       <c r="B66" s="12"/>
       <c r="C66" s="46"/>
@@ -7451,7 +7477,7 @@
       <c r="BR66" s="14"/>
       <c r="BS66" s="34"/>
     </row>
-    <row r="67" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="37"/>
       <c r="B67" s="12"/>
       <c r="C67" s="46"/>
@@ -7526,7 +7552,7 @@
       <c r="BR67" s="14"/>
       <c r="BS67" s="34"/>
     </row>
-    <row r="68" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="37"/>
       <c r="B68" s="12"/>
       <c r="C68" s="46"/>
@@ -7601,7 +7627,7 @@
       <c r="BR68" s="14"/>
       <c r="BS68" s="34"/>
     </row>
-    <row r="69" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="37"/>
       <c r="B69" s="12"/>
       <c r="C69" s="46"/>
@@ -7676,7 +7702,7 @@
       <c r="BR69" s="14"/>
       <c r="BS69" s="34"/>
     </row>
-    <row r="70" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="37"/>
       <c r="B70" s="12"/>
       <c r="C70" s="57" t="s">
@@ -7751,7 +7777,7 @@
       <c r="BR70" s="14"/>
       <c r="BS70" s="34"/>
     </row>
-    <row r="71" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="37"/>
       <c r="B71" s="12"/>
       <c r="C71" s="46"/>
@@ -7826,7 +7852,7 @@
       <c r="BR71" s="14"/>
       <c r="BS71" s="34"/>
     </row>
-    <row r="72" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="61"/>
       <c r="B72" s="12"/>
       <c r="C72" s="46"/>
@@ -7901,7 +7927,7 @@
       <c r="BR72" s="14"/>
       <c r="BS72" s="34"/>
     </row>
-    <row r="73" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="61"/>
       <c r="B73" s="12"/>
       <c r="C73" s="46"/>
@@ -7976,7 +8002,7 @@
       <c r="BR73" s="14"/>
       <c r="BS73" s="34"/>
     </row>
-    <row r="74" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="61"/>
       <c r="B74" s="12"/>
       <c r="C74" s="57" t="s">
@@ -8051,7 +8077,7 @@
       <c r="BR74" s="14"/>
       <c r="BS74" s="34"/>
     </row>
-    <row r="75" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="61"/>
       <c r="B75" s="12"/>
       <c r="C75" s="46"/>
@@ -8126,7 +8152,7 @@
       <c r="BR75" s="14"/>
       <c r="BS75" s="34"/>
     </row>
-    <row r="76" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="61"/>
       <c r="B76" s="12"/>
       <c r="C76" s="46"/>
@@ -8201,7 +8227,7 @@
       <c r="BR76" s="14"/>
       <c r="BS76" s="34"/>
     </row>
-    <row r="77" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="62"/>
       <c r="B77" s="64"/>
       <c r="C77" s="57" t="s">
@@ -8276,7 +8302,7 @@
       <c r="BR77" s="14"/>
       <c r="BS77" s="34"/>
     </row>
-    <row r="78" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="61"/>
       <c r="B78" s="12"/>
       <c r="C78" s="46"/>
@@ -8351,7 +8377,7 @@
       <c r="BR78" s="14"/>
       <c r="BS78" s="34"/>
     </row>
-    <row r="79" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="37"/>
       <c r="B79" s="12"/>
       <c r="C79" s="46"/>
@@ -8426,7 +8452,7 @@
       <c r="BR79" s="14"/>
       <c r="BS79" s="34"/>
     </row>
-    <row r="80" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="63"/>
       <c r="B80" s="66"/>
       <c r="C80" s="57" t="s">
@@ -8501,7 +8527,7 @@
       <c r="BR80" s="14"/>
       <c r="BS80" s="34"/>
     </row>
-    <row r="81" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="63"/>
       <c r="B81" s="65"/>
       <c r="C81" s="46"/>
@@ -8576,7 +8602,7 @@
       <c r="BR81" s="14"/>
       <c r="BS81" s="34"/>
     </row>
-    <row r="82" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="62"/>
       <c r="B82" s="64"/>
       <c r="C82" s="46"/>
@@ -8651,7 +8677,7 @@
       <c r="BR82" s="14"/>
       <c r="BS82" s="34"/>
     </row>
-    <row r="83" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="61"/>
       <c r="B83" s="12"/>
       <c r="C83" s="46"/>
@@ -8726,7 +8752,7 @@
       <c r="BR83" s="14"/>
       <c r="BS83" s="34"/>
     </row>
-    <row r="84" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="61"/>
       <c r="B84" s="12"/>
       <c r="C84" s="57" t="s">
@@ -8801,7 +8827,7 @@
       <c r="BR84" s="14"/>
       <c r="BS84" s="34"/>
     </row>
-    <row r="85" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="61"/>
       <c r="B85" s="12"/>
       <c r="C85" s="46"/>
@@ -8876,7 +8902,7 @@
       <c r="BR85" s="14"/>
       <c r="BS85" s="34"/>
     </row>
-    <row r="86" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="37"/>
       <c r="B86" s="12"/>
       <c r="C86" s="46"/>
@@ -8951,7 +8977,7 @@
       <c r="BR86" s="14"/>
       <c r="BS86" s="34"/>
     </row>
-    <row r="87" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="37"/>
       <c r="B87" s="12"/>
       <c r="C87" s="57" t="s">
@@ -9026,7 +9052,7 @@
       <c r="BR87" s="14"/>
       <c r="BS87" s="34"/>
     </row>
-    <row r="88" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="61"/>
       <c r="B88" s="12"/>
       <c r="C88" s="46"/>
@@ -9101,7 +9127,7 @@
       <c r="BR88" s="14"/>
       <c r="BS88" s="34"/>
     </row>
-    <row r="89" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="37"/>
       <c r="B89" s="12"/>
       <c r="C89" s="46"/>
@@ -9176,7 +9202,7 @@
       <c r="BR89" s="14"/>
       <c r="BS89" s="34"/>
     </row>
-    <row r="90" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="37"/>
       <c r="B90" s="12"/>
       <c r="C90" s="46"/>
@@ -9251,7 +9277,7 @@
       <c r="BR90" s="14"/>
       <c r="BS90" s="34"/>
     </row>
-    <row r="91" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="37"/>
       <c r="B91" s="12"/>
       <c r="C91" s="57" t="s">
@@ -9326,7 +9352,7 @@
       <c r="BR91" s="14"/>
       <c r="BS91" s="34"/>
     </row>
-    <row r="92" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="37"/>
       <c r="B92" s="12"/>
       <c r="C92" s="46"/>
@@ -9401,7 +9427,7 @@
       <c r="BR92" s="14"/>
       <c r="BS92" s="34"/>
     </row>
-    <row r="93" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="37"/>
       <c r="B93" s="12"/>
       <c r="C93" s="46"/>
@@ -9476,7 +9502,7 @@
       <c r="BR93" s="14"/>
       <c r="BS93" s="34"/>
     </row>
-    <row r="94" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="37"/>
       <c r="B94" s="12"/>
       <c r="C94" s="46"/>
@@ -9551,7 +9577,7 @@
       <c r="BR94" s="14"/>
       <c r="BS94" s="34"/>
     </row>
-    <row r="95" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="37"/>
       <c r="B95" s="12"/>
       <c r="C95" s="57" t="s">
@@ -9626,7 +9652,7 @@
       <c r="BR95" s="14"/>
       <c r="BS95" s="34"/>
     </row>
-    <row r="96" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="38"/>
       <c r="B96" s="12"/>
       <c r="C96" s="57" t="s">
@@ -9860,16 +9886,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="5.21875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -9880,7 +9906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6">
         <v>44083</v>
       </c>
@@ -9893,7 +9919,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="72"/>
       <c r="C4" s="4">
         <v>41434</v>
@@ -9904,7 +9930,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="73"/>
       <c r="C5" s="4">
         <v>41440</v>
@@ -9915,7 +9941,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="73"/>
       <c r="C6" s="4">
         <v>41441</v>
@@ -9926,7 +9952,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="73"/>
       <c r="C7" s="4">
         <v>41447</v>
@@ -9937,7 +9963,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="73"/>
       <c r="C8" s="4">
         <v>41448</v>
@@ -9948,7 +9974,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="73"/>
       <c r="C9" s="4">
         <v>41454</v>
@@ -9959,7 +9985,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="73"/>
       <c r="C10" s="4">
         <v>41455</v>
@@ -9970,7 +9996,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="73"/>
       <c r="C11" s="4">
         <v>41461</v>
@@ -9981,7 +10007,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="73"/>
       <c r="C12" s="4">
         <v>41462</v>
@@ -9992,7 +10018,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="73"/>
       <c r="C13" s="4">
         <v>41468</v>
@@ -10003,7 +10029,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
       <c r="C14" s="4">
         <v>41469</v>
@@ -10014,7 +10040,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="73"/>
       <c r="C15" s="4">
         <v>41475</v>
@@ -10025,7 +10051,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="73"/>
       <c r="C16" s="4">
         <v>41476</v>
@@ -10036,7 +10062,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="C17" s="4">
         <v>41482</v>
@@ -10047,7 +10073,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="C18" s="4">
         <v>41483</v>
@@ -10058,7 +10084,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="73"/>
       <c r="C19" s="4">
         <v>41489</v>
@@ -10069,7 +10095,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
       <c r="C20" s="4">
         <v>41490</v>
@@ -10080,7 +10106,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
       <c r="C21" s="4">
         <v>41496</v>
@@ -10091,7 +10117,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="73"/>
       <c r="C22" s="4">
         <v>41497</v>
@@ -10102,7 +10128,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="74"/>
       <c r="C23" s="4">
         <v>41499</v>
@@ -10113,28 +10139,28 @@
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
     </row>
   </sheetData>

--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F615DA-E10B-4C47-8046-46D74E2163D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6DFFF3-88EF-42BE-A16A-245C418D2579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -424,6 +424,10 @@
   </si>
   <si>
     <t>2h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プルリクテスト</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1089,6 +1093,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1107,10 +1115,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1836,13 +1840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS96"/>
+  <dimension ref="A1:BS101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="M47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="M86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1857,22 +1861,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
       <c r="H2" s="25">
         <f>H3</f>
         <v>44083</v>
@@ -2390,11 +2394,11 @@
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
@@ -6428,7 +6432,7 @@
       <c r="D53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="75" t="s">
+      <c r="E53" s="67" t="s">
         <v>44</v>
       </c>
       <c r="F53" s="15">
@@ -6447,7 +6451,7 @@
       <c r="O53" s="45"/>
       <c r="P53" s="45"/>
       <c r="Q53" s="45"/>
-      <c r="R53" s="76"/>
+      <c r="R53" s="68"/>
       <c r="S53" s="45"/>
       <c r="T53" s="45"/>
       <c r="U53" s="45"/>
@@ -9726,6 +9730,11 @@
       <c r="BQ96" s="14"/>
       <c r="BR96" s="14"/>
       <c r="BS96" s="34"/>
+    </row>
+    <row r="101" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D101" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9920,7 +9929,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="72"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="4">
         <v>41434</v>
       </c>
@@ -9931,7 +9940,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="73"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="4">
         <v>41440</v>
       </c>
@@ -9942,7 +9951,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="73"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="4">
         <v>41441</v>
       </c>
@@ -9953,7 +9962,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="73"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="4">
         <v>41447</v>
       </c>
@@ -9964,7 +9973,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="73"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="4">
         <v>41448</v>
       </c>
@@ -9975,7 +9984,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="73"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="4">
         <v>41454</v>
       </c>
@@ -9986,7 +9995,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="4">
         <v>41455</v>
       </c>
@@ -9997,7 +10006,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="73"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="4">
         <v>41461</v>
       </c>
@@ -10008,7 +10017,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="73"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="4">
         <v>41462</v>
       </c>
@@ -10019,7 +10028,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="73"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="4">
         <v>41468</v>
       </c>
@@ -10030,7 +10039,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="73"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="4">
         <v>41469</v>
       </c>
@@ -10041,7 +10050,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="73"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="4">
         <v>41475</v>
       </c>
@@ -10052,7 +10061,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="73"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="4">
         <v>41476</v>
       </c>
@@ -10063,7 +10072,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="73"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="4">
         <v>41482</v>
       </c>
@@ -10074,7 +10083,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="73"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="4">
         <v>41483</v>
       </c>
@@ -10085,7 +10094,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="73"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="4">
         <v>41489</v>
       </c>
@@ -10096,7 +10105,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="73"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="4">
         <v>41490</v>
       </c>
@@ -10107,7 +10116,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="73"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="4">
         <v>41496</v>
       </c>
@@ -10118,7 +10127,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="73"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="4">
         <v>41497</v>
       </c>
@@ -10129,7 +10138,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="74"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="4">
         <v>41499</v>
       </c>

--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50662219-4F10-4715-BA54-0B062D0FA042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4BA9B8-E497-4128-8891-CB76D91B5A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -163,16 +163,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>不明点調査</t>
-    <rPh sb="0" eb="3">
-      <t>フメイテン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>パーティ編成シーン作成</t>
     <rPh sb="4" eb="6">
       <t>ヘンセイ</t>
@@ -336,16 +326,6 @@
   </si>
   <si>
     <t>1.5h</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>実作業</t>
-    <rPh sb="0" eb="1">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サギョウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -414,19 +394,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>その他不明点調査</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>フメイテン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>作成キャラのステータス表示</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -673,19 +640,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>その他不明点学習</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>フメイテン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガクシュウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1363,6 +1317,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1381,12 +1341,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2112,13 +2066,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS136"/>
+  <dimension ref="A1:BS115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V83" sqref="V83"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2133,22 +2087,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="H2" s="25">
         <f>H3</f>
         <v>44083</v>
@@ -2666,11 +2620,11 @@
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
@@ -2947,7 +2901,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="28"/>
       <c r="E5" s="29">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F5" s="30">
         <v>44092</v>
@@ -3271,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="15">
         <v>44093</v>
@@ -3352,7 +3306,7 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
@@ -3507,7 +3461,7 @@
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="57">
         <v>2</v>
@@ -3659,15 +3613,19 @@
     <row r="14" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="57">
-        <v>5</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="20">
+        <v>9</v>
+      </c>
+      <c r="F14" s="15">
+        <v>44094</v>
+      </c>
+      <c r="G14" s="16">
+        <v>44102</v>
+      </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -3736,171 +3694,173 @@
     <row r="15" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="57">
-        <v>3</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="14"/>
-      <c r="BL15" s="14"/>
-      <c r="BM15" s="14"/>
-      <c r="BN15" s="14"/>
-      <c r="BO15" s="14"/>
-      <c r="BP15" s="14"/>
-      <c r="BQ15" s="14"/>
-      <c r="BR15" s="14"/>
-      <c r="BS15" s="34"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="58">
+        <v>4</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="49"/>
+      <c r="AV15" s="49"/>
+      <c r="AW15" s="49"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="49"/>
+      <c r="AZ15" s="49"/>
+      <c r="BA15" s="49"/>
+      <c r="BB15" s="49"/>
+      <c r="BC15" s="49"/>
+      <c r="BD15" s="49"/>
+      <c r="BE15" s="49"/>
+      <c r="BF15" s="49"/>
+      <c r="BG15" s="49"/>
+      <c r="BH15" s="49"/>
+      <c r="BI15" s="49"/>
+      <c r="BJ15" s="49"/>
+      <c r="BK15" s="49"/>
+      <c r="BL15" s="49"/>
+      <c r="BM15" s="49"/>
+      <c r="BN15" s="49"/>
+      <c r="BO15" s="49"/>
+      <c r="BP15" s="49"/>
+      <c r="BQ15" s="49"/>
+      <c r="BR15" s="49"/>
+      <c r="BS15" s="50"/>
     </row>
     <row r="16" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="15">
-        <v>44094</v>
-      </c>
-      <c r="G16" s="16">
-        <v>44102</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="14"/>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
-      <c r="BM16" s="14"/>
-      <c r="BN16" s="14"/>
-      <c r="BO16" s="14"/>
-      <c r="BP16" s="14"/>
-      <c r="BQ16" s="14"/>
-      <c r="BR16" s="14"/>
-      <c r="BS16" s="34"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="58">
+        <v>5</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="49"/>
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="49"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="49"/>
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="49"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="49"/>
+      <c r="AZ16" s="49"/>
+      <c r="BA16" s="49"/>
+      <c r="BB16" s="49"/>
+      <c r="BC16" s="49"/>
+      <c r="BD16" s="49"/>
+      <c r="BE16" s="49"/>
+      <c r="BF16" s="49"/>
+      <c r="BG16" s="49"/>
+      <c r="BH16" s="49"/>
+      <c r="BI16" s="49"/>
+      <c r="BJ16" s="49"/>
+      <c r="BK16" s="49"/>
+      <c r="BL16" s="49"/>
+      <c r="BM16" s="49"/>
+      <c r="BN16" s="49"/>
+      <c r="BO16" s="49"/>
+      <c r="BP16" s="49"/>
+      <c r="BQ16" s="49"/>
+      <c r="BR16" s="49"/>
+      <c r="BS16" s="50"/>
     </row>
     <row r="17" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="23"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="58">
-        <v>4</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="C17" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="46">
+        <v>9</v>
+      </c>
+      <c r="F17" s="47">
+        <v>44097</v>
+      </c>
+      <c r="G17" s="48">
+        <v>44098</v>
+      </c>
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
@@ -3971,10 +3931,10 @@
       <c r="B18" s="12"/>
       <c r="C18" s="44"/>
       <c r="D18" s="45" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E18" s="58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="48"/>
@@ -4048,7 +4008,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="44"/>
       <c r="D19" s="45" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E19" s="58">
         <v>2</v>
@@ -4123,19 +4083,15 @@
     <row r="20" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="23"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="46">
-        <v>11</v>
-      </c>
-      <c r="F20" s="47">
-        <v>44097</v>
-      </c>
-      <c r="G20" s="48">
-        <v>44098</v>
-      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="58">
+        <v>3</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
@@ -4206,10 +4162,10 @@
       <c r="B21" s="12"/>
       <c r="C21" s="44"/>
       <c r="D21" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="E21" s="46">
+        <v>1</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="48"/>
@@ -4286,7 +4242,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="48"/>
@@ -4358,15 +4314,19 @@
     <row r="23" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" s="23"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="58">
-        <v>3</v>
-      </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="C23" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="46">
+        <v>11</v>
+      </c>
+      <c r="F23" s="47">
+        <v>44099</v>
+      </c>
+      <c r="G23" s="48">
+        <v>44100</v>
+      </c>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
@@ -4435,12 +4395,12 @@
     <row r="24" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="44"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="46">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E24" s="58">
+        <v>4</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="48"/>
@@ -4512,12 +4472,12 @@
     <row r="25" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="44"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="48"/>
@@ -4589,12 +4549,12 @@
     <row r="26" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" s="23"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="44"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="58">
-        <v>2</v>
+      <c r="E26" s="46">
+        <v>1</v>
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="48"/>
@@ -4666,19 +4626,15 @@
     <row r="27" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="46">
-        <v>13</v>
-      </c>
-      <c r="F27" s="47">
-        <v>44099</v>
-      </c>
-      <c r="G27" s="48">
-        <v>44100</v>
-      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="58">
+        <v>1</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="49"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
@@ -4747,12 +4703,12 @@
     <row r="28" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="75"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="45" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E28" s="58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="48"/>
@@ -4824,12 +4780,12 @@
     <row r="29" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A29" s="23"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="75"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="48"/>
@@ -4901,12 +4857,12 @@
     <row r="30" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="75"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="45" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="47"/>
       <c r="G30" s="48"/>
@@ -4978,12 +4934,12 @@
     <row r="31" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" s="23"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="75"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="45" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="47"/>
       <c r="G31" s="48"/>
@@ -5054,16 +5010,20 @@
     </row>
     <row r="32" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A32" s="23"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="58">
-        <v>1</v>
-      </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="46">
+        <v>7</v>
+      </c>
+      <c r="F32" s="47">
+        <v>44102</v>
+      </c>
+      <c r="G32" s="48">
+        <v>44103</v>
+      </c>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
@@ -5131,13 +5091,13 @@
     </row>
     <row r="33" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A33" s="23"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="45" t="s">
-        <v>46</v>
+      <c r="B33" s="69"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68" t="s">
+        <v>49</v>
       </c>
       <c r="E33" s="58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="47"/>
       <c r="G33" s="48"/>
@@ -5208,13 +5168,13 @@
     </row>
     <row r="34" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A34" s="23"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="45" t="s">
+      <c r="B34" s="69"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="46">
-        <v>0.5</v>
+      <c r="E34" s="58">
+        <v>1</v>
       </c>
       <c r="F34" s="47"/>
       <c r="G34" s="48"/>
@@ -5285,13 +5245,13 @@
     </row>
     <row r="35" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="45" t="s">
+      <c r="B35" s="69"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="58">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F35" s="47"/>
       <c r="G35" s="48"/>
@@ -5362,13 +5322,13 @@
     </row>
     <row r="36" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A36" s="23"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="58">
-        <v>2</v>
+      <c r="B36" s="69"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="46">
+        <v>1</v>
       </c>
       <c r="F36" s="47"/>
       <c r="G36" s="48"/>
@@ -5439,16 +5399,16 @@
     </row>
     <row r="37" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A37" s="23"/>
-      <c r="B37" s="62"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="55" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D37" s="56"/>
-      <c r="E37" s="46">
-        <v>9</v>
+      <c r="E37" s="58">
+        <v>7</v>
       </c>
       <c r="F37" s="47">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="G37" s="48">
         <v>44103</v>
@@ -5520,10 +5480,10 @@
     </row>
     <row r="38" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A38" s="23"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="76" t="s">
-        <v>52</v>
+      <c r="B38" s="63"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45" t="s">
+        <v>53</v>
       </c>
       <c r="E38" s="58">
         <v>3</v>
@@ -5597,13 +5557,13 @@
     </row>
     <row r="39" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A39" s="23"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="58">
-        <v>1</v>
+      <c r="B39" s="70"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="46">
+        <v>2</v>
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="48"/>
@@ -5674,12 +5634,12 @@
     </row>
     <row r="40" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A40" s="23"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76" t="s">
+      <c r="B40" s="70"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="58">
+      <c r="E40" s="46">
         <v>2</v>
       </c>
       <c r="F40" s="47"/>
@@ -5751,16 +5711,20 @@
     </row>
     <row r="41" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A41" s="23"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76" t="s">
-        <v>58</v>
-      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="56"/>
       <c r="E41" s="46">
-        <v>1</v>
-      </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
+        <v>7</v>
+      </c>
+      <c r="F41" s="47">
+        <v>44104</v>
+      </c>
+      <c r="G41" s="48">
+        <v>44104</v>
+      </c>
       <c r="H41" s="49"/>
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
@@ -5829,12 +5793,12 @@
     <row r="42" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A42" s="23"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="58">
-        <v>2</v>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="46">
+        <v>3</v>
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="48"/>
@@ -5905,20 +5869,16 @@
     </row>
     <row r="43" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="58">
-        <v>9</v>
-      </c>
-      <c r="F43" s="47">
-        <v>44103</v>
-      </c>
-      <c r="G43" s="48">
-        <v>44103</v>
-      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="46">
+        <v>3</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
       <c r="H43" s="49"/>
       <c r="I43" s="49"/>
       <c r="J43" s="49"/>
@@ -5986,13 +5946,13 @@
     </row>
     <row r="44" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A44" s="23"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="58">
-        <v>3</v>
+      <c r="B44" s="12"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="46">
+        <v>1</v>
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="48"/>
@@ -6063,16 +6023,20 @@
     </row>
     <row r="45" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A45" s="23"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45" t="s">
-        <v>55</v>
-      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="56"/>
       <c r="E45" s="46">
-        <v>2</v>
-      </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
+        <v>14</v>
+      </c>
+      <c r="F45" s="47">
+        <v>44105</v>
+      </c>
+      <c r="G45" s="48">
+        <v>44108</v>
+      </c>
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
       <c r="J45" s="49"/>
@@ -6140,13 +6104,13 @@
     </row>
     <row r="46" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A46" s="23"/>
-      <c r="B46" s="78"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="44"/>
       <c r="D46" s="45" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E46" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="47"/>
       <c r="G46" s="48"/>
@@ -6217,13 +6181,13 @@
     </row>
     <row r="47" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A47" s="23"/>
-      <c r="B47" s="62"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="44"/>
       <c r="D47" s="45" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E47" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" s="47"/>
       <c r="G47" s="48"/>
@@ -6295,19 +6259,15 @@
     <row r="48" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A48" s="23"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="56"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45" t="s">
+        <v>60</v>
+      </c>
       <c r="E48" s="46">
-        <v>9</v>
-      </c>
-      <c r="F48" s="47">
-        <v>44104</v>
-      </c>
-      <c r="G48" s="48">
-        <v>44104</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="49"/>
@@ -6376,8 +6336,8 @@
     <row r="49" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A49" s="23"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="76" t="s">
+      <c r="C49" s="44"/>
+      <c r="D49" s="45" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="46">
@@ -6453,15 +6413,19 @@
     <row r="50" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A50" s="23"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="76" t="s">
-        <v>60</v>
-      </c>
+      <c r="C50" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="56"/>
       <c r="E50" s="46">
-        <v>3</v>
-      </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
+        <v>13</v>
+      </c>
+      <c r="F50" s="47">
+        <v>44109</v>
+      </c>
+      <c r="G50" s="48">
+        <v>44111</v>
+      </c>
       <c r="H50" s="49"/>
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
@@ -6530,12 +6494,12 @@
     <row r="51" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A51" s="23"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="76" t="s">
-        <v>50</v>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68" t="s">
+        <v>59</v>
       </c>
       <c r="E51" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="48"/>
@@ -6607,9 +6571,9 @@
     <row r="52" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A52" s="23"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="45" t="s">
-        <v>44</v>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68" t="s">
+        <v>62</v>
       </c>
       <c r="E52" s="46">
         <v>2</v>
@@ -6684,19 +6648,15 @@
     <row r="53" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A53" s="23"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="56"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68" t="s">
+        <v>61</v>
+      </c>
       <c r="E53" s="46">
-        <v>17</v>
-      </c>
-      <c r="F53" s="47">
-        <v>44105</v>
-      </c>
-      <c r="G53" s="48">
-        <v>44108</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F53" s="47"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="49"/>
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
@@ -6765,12 +6725,12 @@
     <row r="54" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A54" s="23"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45" t="s">
-        <v>29</v>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68" t="s">
+        <v>63</v>
       </c>
       <c r="E54" s="46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="47"/>
       <c r="G54" s="48"/>
@@ -6842,12 +6802,12 @@
     <row r="55" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A55" s="23"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="45" t="s">
-        <v>61</v>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68" t="s">
+        <v>64</v>
       </c>
       <c r="E55" s="46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" s="47"/>
       <c r="G55" s="48"/>
@@ -6921,10 +6881,10 @@
       <c r="B56" s="12"/>
       <c r="C56" s="44"/>
       <c r="D56" s="45" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E56" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="48"/>
@@ -6996,15 +6956,17 @@
     <row r="57" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A57" s="23"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="46">
-        <v>3</v>
-      </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
+      <c r="C57" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="56"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="47">
+        <v>44111</v>
+      </c>
+      <c r="G57" s="48">
+        <v>44111</v>
+      </c>
       <c r="H57" s="49"/>
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
@@ -7073,15 +7035,17 @@
     <row r="58" spans="1:71" ht="15" x14ac:dyDescent="0.45">
       <c r="A58" s="23"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="46">
-        <v>3</v>
-      </c>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
+      <c r="C58" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="56"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="47">
+        <v>44111</v>
+      </c>
+      <c r="G58" s="48">
+        <v>44111</v>
+      </c>
       <c r="H58" s="49"/>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
@@ -7147,792 +7111,790 @@
       <c r="BR58" s="49"/>
       <c r="BS58" s="50"/>
     </row>
-    <row r="59" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A59" s="23"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="55" t="s">
+    <row r="59" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="35"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="14"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="14"/>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="14"/>
+      <c r="AK59" s="14"/>
+      <c r="AL59" s="14"/>
+      <c r="AM59" s="14"/>
+      <c r="AN59" s="14"/>
+      <c r="AO59" s="14"/>
+      <c r="AP59" s="14"/>
+      <c r="AQ59" s="14"/>
+      <c r="AR59" s="14"/>
+      <c r="AS59" s="14"/>
+      <c r="AT59" s="14"/>
+      <c r="AU59" s="14"/>
+      <c r="AV59" s="14"/>
+      <c r="AW59" s="14"/>
+      <c r="AX59" s="14"/>
+      <c r="AY59" s="14"/>
+      <c r="AZ59" s="14"/>
+      <c r="BA59" s="14"/>
+      <c r="BB59" s="14"/>
+      <c r="BC59" s="14"/>
+      <c r="BD59" s="14"/>
+      <c r="BE59" s="14"/>
+      <c r="BF59" s="14"/>
+      <c r="BG59" s="14"/>
+      <c r="BH59" s="14"/>
+      <c r="BI59" s="14"/>
+      <c r="BJ59" s="14"/>
+      <c r="BK59" s="14"/>
+      <c r="BL59" s="14"/>
+      <c r="BM59" s="14"/>
+      <c r="BN59" s="14"/>
+      <c r="BO59" s="14"/>
+      <c r="BP59" s="14"/>
+      <c r="BQ59" s="14"/>
+      <c r="BR59" s="14"/>
+      <c r="BS59" s="34"/>
+    </row>
+    <row r="60" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="35"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="46">
+      <c r="F60" s="15">
+        <v>44093</v>
+      </c>
+      <c r="G60" s="16">
+        <v>44093</v>
+      </c>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14"/>
+      <c r="AC60" s="14"/>
+      <c r="AD60" s="14"/>
+      <c r="AE60" s="14"/>
+      <c r="AF60" s="14"/>
+      <c r="AG60" s="14"/>
+      <c r="AH60" s="14"/>
+      <c r="AI60" s="14"/>
+      <c r="AJ60" s="14"/>
+      <c r="AK60" s="14"/>
+      <c r="AL60" s="14"/>
+      <c r="AM60" s="14"/>
+      <c r="AN60" s="14"/>
+      <c r="AO60" s="14"/>
+      <c r="AP60" s="14"/>
+      <c r="AQ60" s="14"/>
+      <c r="AR60" s="14"/>
+      <c r="AS60" s="14"/>
+      <c r="AT60" s="14"/>
+      <c r="AU60" s="14"/>
+      <c r="AV60" s="14"/>
+      <c r="AW60" s="14"/>
+      <c r="AX60" s="14"/>
+      <c r="AY60" s="14"/>
+      <c r="AZ60" s="14"/>
+      <c r="BA60" s="14"/>
+      <c r="BB60" s="14"/>
+      <c r="BC60" s="14"/>
+      <c r="BD60" s="14"/>
+      <c r="BE60" s="14"/>
+      <c r="BF60" s="14"/>
+      <c r="BG60" s="14"/>
+      <c r="BH60" s="14"/>
+      <c r="BI60" s="14"/>
+      <c r="BJ60" s="14"/>
+      <c r="BK60" s="14"/>
+      <c r="BL60" s="14"/>
+      <c r="BM60" s="14"/>
+      <c r="BN60" s="14"/>
+      <c r="BO60" s="14"/>
+      <c r="BP60" s="14"/>
+      <c r="BQ60" s="14"/>
+      <c r="BR60" s="14"/>
+      <c r="BS60" s="34"/>
+    </row>
+    <row r="61" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="35"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="38"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="14"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="14"/>
+      <c r="AJ61" s="14"/>
+      <c r="AK61" s="14"/>
+      <c r="AL61" s="14"/>
+      <c r="AM61" s="14"/>
+      <c r="AN61" s="14"/>
+      <c r="AO61" s="14"/>
+      <c r="AP61" s="14"/>
+      <c r="AQ61" s="14"/>
+      <c r="AR61" s="14"/>
+      <c r="AS61" s="14"/>
+      <c r="AT61" s="14"/>
+      <c r="AU61" s="14"/>
+      <c r="AV61" s="14"/>
+      <c r="AW61" s="14"/>
+      <c r="AX61" s="14"/>
+      <c r="AY61" s="14"/>
+      <c r="AZ61" s="14"/>
+      <c r="BA61" s="14"/>
+      <c r="BB61" s="14"/>
+      <c r="BC61" s="14"/>
+      <c r="BD61" s="14"/>
+      <c r="BE61" s="14"/>
+      <c r="BF61" s="14"/>
+      <c r="BG61" s="14"/>
+      <c r="BH61" s="14"/>
+      <c r="BI61" s="14"/>
+      <c r="BJ61" s="14"/>
+      <c r="BK61" s="14"/>
+      <c r="BL61" s="14"/>
+      <c r="BM61" s="14"/>
+      <c r="BN61" s="14"/>
+      <c r="BO61" s="14"/>
+      <c r="BP61" s="14"/>
+      <c r="BQ61" s="14"/>
+      <c r="BR61" s="14"/>
+      <c r="BS61" s="34"/>
+    </row>
+    <row r="62" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="35"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="15">
+        <v>44094</v>
+      </c>
+      <c r="G62" s="16">
+        <v>44094</v>
+      </c>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="66"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="14"/>
+      <c r="AK62" s="14"/>
+      <c r="AL62" s="14"/>
+      <c r="AM62" s="14"/>
+      <c r="AN62" s="14"/>
+      <c r="AO62" s="14"/>
+      <c r="AP62" s="14"/>
+      <c r="AQ62" s="14"/>
+      <c r="AR62" s="14"/>
+      <c r="AS62" s="14"/>
+      <c r="AT62" s="14"/>
+      <c r="AU62" s="14"/>
+      <c r="AV62" s="14"/>
+      <c r="AW62" s="14"/>
+      <c r="AX62" s="14"/>
+      <c r="AY62" s="14"/>
+      <c r="AZ62" s="14"/>
+      <c r="BA62" s="14"/>
+      <c r="BB62" s="14"/>
+      <c r="BC62" s="14"/>
+      <c r="BD62" s="14"/>
+      <c r="BE62" s="14"/>
+      <c r="BF62" s="14"/>
+      <c r="BG62" s="14"/>
+      <c r="BH62" s="14"/>
+      <c r="BI62" s="14"/>
+      <c r="BJ62" s="14"/>
+      <c r="BK62" s="14"/>
+      <c r="BL62" s="14"/>
+      <c r="BM62" s="14"/>
+      <c r="BN62" s="14"/>
+      <c r="BO62" s="14"/>
+      <c r="BP62" s="14"/>
+      <c r="BQ62" s="14"/>
+      <c r="BR62" s="14"/>
+      <c r="BS62" s="34"/>
+    </row>
+    <row r="63" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="35"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="14"/>
+      <c r="AK63" s="14"/>
+      <c r="AL63" s="14"/>
+      <c r="AM63" s="14"/>
+      <c r="AN63" s="14"/>
+      <c r="AO63" s="14"/>
+      <c r="AP63" s="14"/>
+      <c r="AQ63" s="14"/>
+      <c r="AR63" s="14"/>
+      <c r="AS63" s="14"/>
+      <c r="AT63" s="14"/>
+      <c r="AU63" s="14"/>
+      <c r="AV63" s="14"/>
+      <c r="AW63" s="14"/>
+      <c r="AX63" s="14"/>
+      <c r="AY63" s="14"/>
+      <c r="AZ63" s="14"/>
+      <c r="BA63" s="14"/>
+      <c r="BB63" s="14"/>
+      <c r="BC63" s="14"/>
+      <c r="BD63" s="14"/>
+      <c r="BE63" s="14"/>
+      <c r="BF63" s="14"/>
+      <c r="BG63" s="14"/>
+      <c r="BH63" s="14"/>
+      <c r="BI63" s="14"/>
+      <c r="BJ63" s="14"/>
+      <c r="BK63" s="14"/>
+      <c r="BL63" s="14"/>
+      <c r="BM63" s="14"/>
+      <c r="BN63" s="14"/>
+      <c r="BO63" s="14"/>
+      <c r="BP63" s="14"/>
+      <c r="BQ63" s="14"/>
+      <c r="BR63" s="14"/>
+      <c r="BS63" s="34"/>
+    </row>
+    <row r="64" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="35"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="47">
-        <v>44109</v>
-      </c>
-      <c r="G59" s="48">
-        <v>44111</v>
-      </c>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="49"/>
-      <c r="W59" s="49"/>
-      <c r="X59" s="49"/>
-      <c r="Y59" s="49"/>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="49"/>
-      <c r="AC59" s="49"/>
-      <c r="AD59" s="49"/>
-      <c r="AE59" s="49"/>
-      <c r="AF59" s="49"/>
-      <c r="AG59" s="49"/>
-      <c r="AH59" s="49"/>
-      <c r="AI59" s="49"/>
-      <c r="AJ59" s="49"/>
-      <c r="AK59" s="49"/>
-      <c r="AL59" s="49"/>
-      <c r="AM59" s="49"/>
-      <c r="AN59" s="49"/>
-      <c r="AO59" s="49"/>
-      <c r="AP59" s="49"/>
-      <c r="AQ59" s="49"/>
-      <c r="AR59" s="49"/>
-      <c r="AS59" s="49"/>
-      <c r="AT59" s="49"/>
-      <c r="AU59" s="49"/>
-      <c r="AV59" s="49"/>
-      <c r="AW59" s="49"/>
-      <c r="AX59" s="49"/>
-      <c r="AY59" s="49"/>
-      <c r="AZ59" s="49"/>
-      <c r="BA59" s="49"/>
-      <c r="BB59" s="49"/>
-      <c r="BC59" s="49"/>
-      <c r="BD59" s="49"/>
-      <c r="BE59" s="49"/>
-      <c r="BF59" s="49"/>
-      <c r="BG59" s="49"/>
-      <c r="BH59" s="49"/>
-      <c r="BI59" s="49"/>
-      <c r="BJ59" s="49"/>
-      <c r="BK59" s="49"/>
-      <c r="BL59" s="49"/>
-      <c r="BM59" s="49"/>
-      <c r="BN59" s="49"/>
-      <c r="BO59" s="49"/>
-      <c r="BP59" s="49"/>
-      <c r="BQ59" s="49"/>
-      <c r="BR59" s="49"/>
-      <c r="BS59" s="50"/>
-    </row>
-    <row r="60" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A60" s="23"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="46">
+      <c r="D64" s="52"/>
+      <c r="E64" s="65">
+        <v>7</v>
+      </c>
+      <c r="F64" s="15">
+        <v>44095</v>
+      </c>
+      <c r="G64" s="16">
+        <v>44096</v>
+      </c>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14"/>
+      <c r="AD64" s="14"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
+      <c r="AI64" s="14"/>
+      <c r="AJ64" s="14"/>
+      <c r="AK64" s="14"/>
+      <c r="AL64" s="14"/>
+      <c r="AM64" s="14"/>
+      <c r="AN64" s="14"/>
+      <c r="AO64" s="14"/>
+      <c r="AP64" s="14"/>
+      <c r="AQ64" s="14"/>
+      <c r="AR64" s="14"/>
+      <c r="AS64" s="14"/>
+      <c r="AT64" s="14"/>
+      <c r="AU64" s="14"/>
+      <c r="AV64" s="14"/>
+      <c r="AW64" s="14"/>
+      <c r="AX64" s="14"/>
+      <c r="AY64" s="14"/>
+      <c r="AZ64" s="14"/>
+      <c r="BA64" s="14"/>
+      <c r="BB64" s="14"/>
+      <c r="BC64" s="14"/>
+      <c r="BD64" s="14"/>
+      <c r="BE64" s="14"/>
+      <c r="BF64" s="14"/>
+      <c r="BG64" s="14"/>
+      <c r="BH64" s="14"/>
+      <c r="BI64" s="14"/>
+      <c r="BJ64" s="14"/>
+      <c r="BK64" s="14"/>
+      <c r="BL64" s="14"/>
+      <c r="BM64" s="14"/>
+      <c r="BN64" s="14"/>
+      <c r="BO64" s="14"/>
+      <c r="BP64" s="14"/>
+      <c r="BQ64" s="14"/>
+      <c r="BR64" s="14"/>
+      <c r="BS64" s="34"/>
+    </row>
+    <row r="65" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="35"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="14"/>
+      <c r="AD65" s="14"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="14"/>
+      <c r="AH65" s="14"/>
+      <c r="AI65" s="14"/>
+      <c r="AJ65" s="14"/>
+      <c r="AK65" s="14"/>
+      <c r="AL65" s="14"/>
+      <c r="AM65" s="14"/>
+      <c r="AN65" s="14"/>
+      <c r="AO65" s="14"/>
+      <c r="AP65" s="14"/>
+      <c r="AQ65" s="14"/>
+      <c r="AR65" s="14"/>
+      <c r="AS65" s="14"/>
+      <c r="AT65" s="14"/>
+      <c r="AU65" s="14"/>
+      <c r="AV65" s="14"/>
+      <c r="AW65" s="14"/>
+      <c r="AX65" s="14"/>
+      <c r="AY65" s="14"/>
+      <c r="AZ65" s="14"/>
+      <c r="BA65" s="14"/>
+      <c r="BB65" s="14"/>
+      <c r="BC65" s="14"/>
+      <c r="BD65" s="14"/>
+      <c r="BE65" s="14"/>
+      <c r="BF65" s="14"/>
+      <c r="BG65" s="14"/>
+      <c r="BH65" s="14"/>
+      <c r="BI65" s="14"/>
+      <c r="BJ65" s="14"/>
+      <c r="BK65" s="14"/>
+      <c r="BL65" s="14"/>
+      <c r="BM65" s="14"/>
+      <c r="BN65" s="14"/>
+      <c r="BO65" s="14"/>
+      <c r="BP65" s="14"/>
+      <c r="BQ65" s="14"/>
+      <c r="BR65" s="14"/>
+      <c r="BS65" s="34"/>
+    </row>
+    <row r="66" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="35"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="65">
         <v>2</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="49"/>
-      <c r="U60" s="49"/>
-      <c r="V60" s="49"/>
-      <c r="W60" s="49"/>
-      <c r="X60" s="49"/>
-      <c r="Y60" s="49"/>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="49"/>
-      <c r="AB60" s="49"/>
-      <c r="AC60" s="49"/>
-      <c r="AD60" s="49"/>
-      <c r="AE60" s="49"/>
-      <c r="AF60" s="49"/>
-      <c r="AG60" s="49"/>
-      <c r="AH60" s="49"/>
-      <c r="AI60" s="49"/>
-      <c r="AJ60" s="49"/>
-      <c r="AK60" s="49"/>
-      <c r="AL60" s="49"/>
-      <c r="AM60" s="49"/>
-      <c r="AN60" s="49"/>
-      <c r="AO60" s="49"/>
-      <c r="AP60" s="49"/>
-      <c r="AQ60" s="49"/>
-      <c r="AR60" s="49"/>
-      <c r="AS60" s="49"/>
-      <c r="AT60" s="49"/>
-      <c r="AU60" s="49"/>
-      <c r="AV60" s="49"/>
-      <c r="AW60" s="49"/>
-      <c r="AX60" s="49"/>
-      <c r="AY60" s="49"/>
-      <c r="AZ60" s="49"/>
-      <c r="BA60" s="49"/>
-      <c r="BB60" s="49"/>
-      <c r="BC60" s="49"/>
-      <c r="BD60" s="49"/>
-      <c r="BE60" s="49"/>
-      <c r="BF60" s="49"/>
-      <c r="BG60" s="49"/>
-      <c r="BH60" s="49"/>
-      <c r="BI60" s="49"/>
-      <c r="BJ60" s="49"/>
-      <c r="BK60" s="49"/>
-      <c r="BL60" s="49"/>
-      <c r="BM60" s="49"/>
-      <c r="BN60" s="49"/>
-      <c r="BO60" s="49"/>
-      <c r="BP60" s="49"/>
-      <c r="BQ60" s="49"/>
-      <c r="BR60" s="49"/>
-      <c r="BS60" s="50"/>
-    </row>
-    <row r="61" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A61" s="23"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E61" s="46">
-        <v>2</v>
-      </c>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="49"/>
-      <c r="W61" s="49"/>
-      <c r="X61" s="49"/>
-      <c r="Y61" s="49"/>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="49"/>
-      <c r="AB61" s="49"/>
-      <c r="AC61" s="49"/>
-      <c r="AD61" s="49"/>
-      <c r="AE61" s="49"/>
-      <c r="AF61" s="49"/>
-      <c r="AG61" s="49"/>
-      <c r="AH61" s="49"/>
-      <c r="AI61" s="49"/>
-      <c r="AJ61" s="49"/>
-      <c r="AK61" s="49"/>
-      <c r="AL61" s="49"/>
-      <c r="AM61" s="49"/>
-      <c r="AN61" s="49"/>
-      <c r="AO61" s="49"/>
-      <c r="AP61" s="49"/>
-      <c r="AQ61" s="49"/>
-      <c r="AR61" s="49"/>
-      <c r="AS61" s="49"/>
-      <c r="AT61" s="49"/>
-      <c r="AU61" s="49"/>
-      <c r="AV61" s="49"/>
-      <c r="AW61" s="49"/>
-      <c r="AX61" s="49"/>
-      <c r="AY61" s="49"/>
-      <c r="AZ61" s="49"/>
-      <c r="BA61" s="49"/>
-      <c r="BB61" s="49"/>
-      <c r="BC61" s="49"/>
-      <c r="BD61" s="49"/>
-      <c r="BE61" s="49"/>
-      <c r="BF61" s="49"/>
-      <c r="BG61" s="49"/>
-      <c r="BH61" s="49"/>
-      <c r="BI61" s="49"/>
-      <c r="BJ61" s="49"/>
-      <c r="BK61" s="49"/>
-      <c r="BL61" s="49"/>
-      <c r="BM61" s="49"/>
-      <c r="BN61" s="49"/>
-      <c r="BO61" s="49"/>
-      <c r="BP61" s="49"/>
-      <c r="BQ61" s="49"/>
-      <c r="BR61" s="49"/>
-      <c r="BS61" s="50"/>
-    </row>
-    <row r="62" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A62" s="23"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="46">
-        <v>2</v>
-      </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="49"/>
-      <c r="W62" s="49"/>
-      <c r="X62" s="49"/>
-      <c r="Y62" s="49"/>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="49"/>
-      <c r="AB62" s="49"/>
-      <c r="AC62" s="49"/>
-      <c r="AD62" s="49"/>
-      <c r="AE62" s="49"/>
-      <c r="AF62" s="49"/>
-      <c r="AG62" s="49"/>
-      <c r="AH62" s="49"/>
-      <c r="AI62" s="49"/>
-      <c r="AJ62" s="49"/>
-      <c r="AK62" s="49"/>
-      <c r="AL62" s="49"/>
-      <c r="AM62" s="49"/>
-      <c r="AN62" s="49"/>
-      <c r="AO62" s="49"/>
-      <c r="AP62" s="49"/>
-      <c r="AQ62" s="49"/>
-      <c r="AR62" s="49"/>
-      <c r="AS62" s="49"/>
-      <c r="AT62" s="49"/>
-      <c r="AU62" s="49"/>
-      <c r="AV62" s="49"/>
-      <c r="AW62" s="49"/>
-      <c r="AX62" s="49"/>
-      <c r="AY62" s="49"/>
-      <c r="AZ62" s="49"/>
-      <c r="BA62" s="49"/>
-      <c r="BB62" s="49"/>
-      <c r="BC62" s="49"/>
-      <c r="BD62" s="49"/>
-      <c r="BE62" s="49"/>
-      <c r="BF62" s="49"/>
-      <c r="BG62" s="49"/>
-      <c r="BH62" s="49"/>
-      <c r="BI62" s="49"/>
-      <c r="BJ62" s="49"/>
-      <c r="BK62" s="49"/>
-      <c r="BL62" s="49"/>
-      <c r="BM62" s="49"/>
-      <c r="BN62" s="49"/>
-      <c r="BO62" s="49"/>
-      <c r="BP62" s="49"/>
-      <c r="BQ62" s="49"/>
-      <c r="BR62" s="49"/>
-      <c r="BS62" s="50"/>
-    </row>
-    <row r="63" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A63" s="23"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="46">
-        <v>2</v>
-      </c>
-      <c r="F63" s="47"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="49"/>
-      <c r="W63" s="49"/>
-      <c r="X63" s="49"/>
-      <c r="Y63" s="49"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="49"/>
-      <c r="AC63" s="49"/>
-      <c r="AD63" s="49"/>
-      <c r="AE63" s="49"/>
-      <c r="AF63" s="49"/>
-      <c r="AG63" s="49"/>
-      <c r="AH63" s="49"/>
-      <c r="AI63" s="49"/>
-      <c r="AJ63" s="49"/>
-      <c r="AK63" s="49"/>
-      <c r="AL63" s="49"/>
-      <c r="AM63" s="49"/>
-      <c r="AN63" s="49"/>
-      <c r="AO63" s="49"/>
-      <c r="AP63" s="49"/>
-      <c r="AQ63" s="49"/>
-      <c r="AR63" s="49"/>
-      <c r="AS63" s="49"/>
-      <c r="AT63" s="49"/>
-      <c r="AU63" s="49"/>
-      <c r="AV63" s="49"/>
-      <c r="AW63" s="49"/>
-      <c r="AX63" s="49"/>
-      <c r="AY63" s="49"/>
-      <c r="AZ63" s="49"/>
-      <c r="BA63" s="49"/>
-      <c r="BB63" s="49"/>
-      <c r="BC63" s="49"/>
-      <c r="BD63" s="49"/>
-      <c r="BE63" s="49"/>
-      <c r="BF63" s="49"/>
-      <c r="BG63" s="49"/>
-      <c r="BH63" s="49"/>
-      <c r="BI63" s="49"/>
-      <c r="BJ63" s="49"/>
-      <c r="BK63" s="49"/>
-      <c r="BL63" s="49"/>
-      <c r="BM63" s="49"/>
-      <c r="BN63" s="49"/>
-      <c r="BO63" s="49"/>
-      <c r="BP63" s="49"/>
-      <c r="BQ63" s="49"/>
-      <c r="BR63" s="49"/>
-      <c r="BS63" s="50"/>
-    </row>
-    <row r="64" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A64" s="23"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="46">
-        <v>1</v>
-      </c>
-      <c r="F64" s="47"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="49"/>
-      <c r="W64" s="49"/>
-      <c r="X64" s="49"/>
-      <c r="Y64" s="49"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="49"/>
-      <c r="AD64" s="49"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="49"/>
-      <c r="AI64" s="49"/>
-      <c r="AJ64" s="49"/>
-      <c r="AK64" s="49"/>
-      <c r="AL64" s="49"/>
-      <c r="AM64" s="49"/>
-      <c r="AN64" s="49"/>
-      <c r="AO64" s="49"/>
-      <c r="AP64" s="49"/>
-      <c r="AQ64" s="49"/>
-      <c r="AR64" s="49"/>
-      <c r="AS64" s="49"/>
-      <c r="AT64" s="49"/>
-      <c r="AU64" s="49"/>
-      <c r="AV64" s="49"/>
-      <c r="AW64" s="49"/>
-      <c r="AX64" s="49"/>
-      <c r="AY64" s="49"/>
-      <c r="AZ64" s="49"/>
-      <c r="BA64" s="49"/>
-      <c r="BB64" s="49"/>
-      <c r="BC64" s="49"/>
-      <c r="BD64" s="49"/>
-      <c r="BE64" s="49"/>
-      <c r="BF64" s="49"/>
-      <c r="BG64" s="49"/>
-      <c r="BH64" s="49"/>
-      <c r="BI64" s="49"/>
-      <c r="BJ64" s="49"/>
-      <c r="BK64" s="49"/>
-      <c r="BL64" s="49"/>
-      <c r="BM64" s="49"/>
-      <c r="BN64" s="49"/>
-      <c r="BO64" s="49"/>
-      <c r="BP64" s="49"/>
-      <c r="BQ64" s="49"/>
-      <c r="BR64" s="49"/>
-      <c r="BS64" s="50"/>
-    </row>
-    <row r="65" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A65" s="23"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" s="46">
-        <v>3</v>
-      </c>
-      <c r="F65" s="47"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="49"/>
-      <c r="W65" s="49"/>
-      <c r="X65" s="49"/>
-      <c r="Y65" s="49"/>
-      <c r="Z65" s="49"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="49"/>
-      <c r="AD65" s="49"/>
-      <c r="AE65" s="49"/>
-      <c r="AF65" s="49"/>
-      <c r="AG65" s="49"/>
-      <c r="AH65" s="49"/>
-      <c r="AI65" s="49"/>
-      <c r="AJ65" s="49"/>
-      <c r="AK65" s="49"/>
-      <c r="AL65" s="49"/>
-      <c r="AM65" s="49"/>
-      <c r="AN65" s="49"/>
-      <c r="AO65" s="49"/>
-      <c r="AP65" s="49"/>
-      <c r="AQ65" s="49"/>
-      <c r="AR65" s="49"/>
-      <c r="AS65" s="49"/>
-      <c r="AT65" s="49"/>
-      <c r="AU65" s="49"/>
-      <c r="AV65" s="49"/>
-      <c r="AW65" s="49"/>
-      <c r="AX65" s="49"/>
-      <c r="AY65" s="49"/>
-      <c r="AZ65" s="49"/>
-      <c r="BA65" s="49"/>
-      <c r="BB65" s="49"/>
-      <c r="BC65" s="49"/>
-      <c r="BD65" s="49"/>
-      <c r="BE65" s="49"/>
-      <c r="BF65" s="49"/>
-      <c r="BG65" s="49"/>
-      <c r="BH65" s="49"/>
-      <c r="BI65" s="49"/>
-      <c r="BJ65" s="49"/>
-      <c r="BK65" s="49"/>
-      <c r="BL65" s="49"/>
-      <c r="BM65" s="49"/>
-      <c r="BN65" s="49"/>
-      <c r="BO65" s="49"/>
-      <c r="BP65" s="49"/>
-      <c r="BQ65" s="49"/>
-      <c r="BR65" s="49"/>
-      <c r="BS65" s="50"/>
-    </row>
-    <row r="66" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A66" s="23"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="46">
-        <v>4</v>
-      </c>
-      <c r="F66" s="47"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="49"/>
-      <c r="V66" s="49"/>
-      <c r="W66" s="49"/>
-      <c r="X66" s="49"/>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="49"/>
-      <c r="AC66" s="49"/>
-      <c r="AD66" s="49"/>
-      <c r="AE66" s="49"/>
-      <c r="AF66" s="49"/>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="49"/>
-      <c r="AI66" s="49"/>
-      <c r="AJ66" s="49"/>
-      <c r="AK66" s="49"/>
-      <c r="AL66" s="49"/>
-      <c r="AM66" s="49"/>
-      <c r="AN66" s="49"/>
-      <c r="AO66" s="49"/>
-      <c r="AP66" s="49"/>
-      <c r="AQ66" s="49"/>
-      <c r="AR66" s="49"/>
-      <c r="AS66" s="49"/>
-      <c r="AT66" s="49"/>
-      <c r="AU66" s="49"/>
-      <c r="AV66" s="49"/>
-      <c r="AW66" s="49"/>
-      <c r="AX66" s="49"/>
-      <c r="AY66" s="49"/>
-      <c r="AZ66" s="49"/>
-      <c r="BA66" s="49"/>
-      <c r="BB66" s="49"/>
-      <c r="BC66" s="49"/>
-      <c r="BD66" s="49"/>
-      <c r="BE66" s="49"/>
-      <c r="BF66" s="49"/>
-      <c r="BG66" s="49"/>
-      <c r="BH66" s="49"/>
-      <c r="BI66" s="49"/>
-      <c r="BJ66" s="49"/>
-      <c r="BK66" s="49"/>
-      <c r="BL66" s="49"/>
-      <c r="BM66" s="49"/>
-      <c r="BN66" s="49"/>
-      <c r="BO66" s="49"/>
-      <c r="BP66" s="49"/>
-      <c r="BQ66" s="49"/>
-      <c r="BR66" s="49"/>
-      <c r="BS66" s="50"/>
-    </row>
-    <row r="67" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A67" s="23"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="43"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
+      <c r="AH66" s="14"/>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="14"/>
+      <c r="AK66" s="14"/>
+      <c r="AL66" s="14"/>
+      <c r="AM66" s="14"/>
+      <c r="AN66" s="14"/>
+      <c r="AO66" s="14"/>
+      <c r="AP66" s="14"/>
+      <c r="AQ66" s="14"/>
+      <c r="AR66" s="14"/>
+      <c r="AS66" s="14"/>
+      <c r="AT66" s="14"/>
+      <c r="AU66" s="14"/>
+      <c r="AV66" s="14"/>
+      <c r="AW66" s="14"/>
+      <c r="AX66" s="14"/>
+      <c r="AY66" s="14"/>
+      <c r="AZ66" s="14"/>
+      <c r="BA66" s="14"/>
+      <c r="BB66" s="14"/>
+      <c r="BC66" s="14"/>
+      <c r="BD66" s="14"/>
+      <c r="BE66" s="14"/>
+      <c r="BF66" s="14"/>
+      <c r="BG66" s="14"/>
+      <c r="BH66" s="14"/>
+      <c r="BI66" s="14"/>
+      <c r="BJ66" s="14"/>
+      <c r="BK66" s="14"/>
+      <c r="BL66" s="14"/>
+      <c r="BM66" s="14"/>
+      <c r="BN66" s="14"/>
+      <c r="BO66" s="14"/>
+      <c r="BP66" s="14"/>
+      <c r="BQ66" s="14"/>
+      <c r="BR66" s="14"/>
+      <c r="BS66" s="34"/>
+    </row>
+    <row r="67" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="35"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="47">
-        <v>44111</v>
-      </c>
-      <c r="G67" s="48">
-        <v>44111</v>
-      </c>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="49"/>
-      <c r="U67" s="49"/>
-      <c r="V67" s="49"/>
-      <c r="W67" s="49"/>
-      <c r="X67" s="49"/>
-      <c r="Y67" s="49"/>
-      <c r="Z67" s="49"/>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="49"/>
-      <c r="AC67" s="49"/>
-      <c r="AD67" s="49"/>
-      <c r="AE67" s="49"/>
-      <c r="AF67" s="49"/>
-      <c r="AG67" s="49"/>
-      <c r="AH67" s="49"/>
-      <c r="AI67" s="49"/>
-      <c r="AJ67" s="49"/>
-      <c r="AK67" s="49"/>
-      <c r="AL67" s="49"/>
-      <c r="AM67" s="49"/>
-      <c r="AN67" s="49"/>
-      <c r="AO67" s="49"/>
-      <c r="AP67" s="49"/>
-      <c r="AQ67" s="49"/>
-      <c r="AR67" s="49"/>
-      <c r="AS67" s="49"/>
-      <c r="AT67" s="49"/>
-      <c r="AU67" s="49"/>
-      <c r="AV67" s="49"/>
-      <c r="AW67" s="49"/>
-      <c r="AX67" s="49"/>
-      <c r="AY67" s="49"/>
-      <c r="AZ67" s="49"/>
-      <c r="BA67" s="49"/>
-      <c r="BB67" s="49"/>
-      <c r="BC67" s="49"/>
-      <c r="BD67" s="49"/>
-      <c r="BE67" s="49"/>
-      <c r="BF67" s="49"/>
-      <c r="BG67" s="49"/>
-      <c r="BH67" s="49"/>
-      <c r="BI67" s="49"/>
-      <c r="BJ67" s="49"/>
-      <c r="BK67" s="49"/>
-      <c r="BL67" s="49"/>
-      <c r="BM67" s="49"/>
-      <c r="BN67" s="49"/>
-      <c r="BO67" s="49"/>
-      <c r="BP67" s="49"/>
-      <c r="BQ67" s="49"/>
-      <c r="BR67" s="49"/>
-      <c r="BS67" s="50"/>
-    </row>
-    <row r="68" spans="1:71" ht="15" x14ac:dyDescent="0.45">
-      <c r="A68" s="23"/>
+      <c r="C67" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="54"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="15">
+        <v>44096</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="66"/>
+      <c r="V67" s="43"/>
+      <c r="W67" s="43"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="14"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="14"/>
+      <c r="AI67" s="14"/>
+      <c r="AJ67" s="14"/>
+      <c r="AK67" s="14"/>
+      <c r="AL67" s="14"/>
+      <c r="AM67" s="14"/>
+      <c r="AN67" s="14"/>
+      <c r="AO67" s="14"/>
+      <c r="AP67" s="14"/>
+      <c r="AQ67" s="14"/>
+      <c r="AR67" s="14"/>
+      <c r="AS67" s="14"/>
+      <c r="AT67" s="14"/>
+      <c r="AU67" s="14"/>
+      <c r="AV67" s="14"/>
+      <c r="AW67" s="14"/>
+      <c r="AX67" s="14"/>
+      <c r="AY67" s="14"/>
+      <c r="AZ67" s="14"/>
+      <c r="BA67" s="14"/>
+      <c r="BB67" s="14"/>
+      <c r="BC67" s="14"/>
+      <c r="BD67" s="14"/>
+      <c r="BE67" s="14"/>
+      <c r="BF67" s="14"/>
+      <c r="BG67" s="14"/>
+      <c r="BH67" s="14"/>
+      <c r="BI67" s="14"/>
+      <c r="BJ67" s="14"/>
+      <c r="BK67" s="14"/>
+      <c r="BL67" s="14"/>
+      <c r="BM67" s="14"/>
+      <c r="BN67" s="14"/>
+      <c r="BO67" s="14"/>
+      <c r="BP67" s="14"/>
+      <c r="BQ67" s="14"/>
+      <c r="BR67" s="14"/>
+      <c r="BS67" s="34"/>
+    </row>
+    <row r="68" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="35"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="47">
-        <v>44111</v>
-      </c>
-      <c r="G68" s="48">
-        <v>44111</v>
-      </c>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="49"/>
-      <c r="U68" s="49"/>
-      <c r="V68" s="49"/>
-      <c r="W68" s="49"/>
-      <c r="X68" s="49"/>
-      <c r="Y68" s="49"/>
-      <c r="Z68" s="49"/>
-      <c r="AA68" s="49"/>
-      <c r="AB68" s="49"/>
-      <c r="AC68" s="49"/>
-      <c r="AD68" s="49"/>
-      <c r="AE68" s="49"/>
-      <c r="AF68" s="49"/>
-      <c r="AG68" s="49"/>
-      <c r="AH68" s="49"/>
-      <c r="AI68" s="49"/>
-      <c r="AJ68" s="49"/>
-      <c r="AK68" s="49"/>
-      <c r="AL68" s="49"/>
-      <c r="AM68" s="49"/>
-      <c r="AN68" s="49"/>
-      <c r="AO68" s="49"/>
-      <c r="AP68" s="49"/>
-      <c r="AQ68" s="49"/>
-      <c r="AR68" s="49"/>
-      <c r="AS68" s="49"/>
-      <c r="AT68" s="49"/>
-      <c r="AU68" s="49"/>
-      <c r="AV68" s="49"/>
-      <c r="AW68" s="49"/>
-      <c r="AX68" s="49"/>
-      <c r="AY68" s="49"/>
-      <c r="AZ68" s="49"/>
-      <c r="BA68" s="49"/>
-      <c r="BB68" s="49"/>
-      <c r="BC68" s="49"/>
-      <c r="BD68" s="49"/>
-      <c r="BE68" s="49"/>
-      <c r="BF68" s="49"/>
-      <c r="BG68" s="49"/>
-      <c r="BH68" s="49"/>
-      <c r="BI68" s="49"/>
-      <c r="BJ68" s="49"/>
-      <c r="BK68" s="49"/>
-      <c r="BL68" s="49"/>
-      <c r="BM68" s="49"/>
-      <c r="BN68" s="49"/>
-      <c r="BO68" s="49"/>
-      <c r="BP68" s="49"/>
-      <c r="BQ68" s="49"/>
-      <c r="BR68" s="49"/>
-      <c r="BS68" s="50"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
+      <c r="AH68" s="14"/>
+      <c r="AI68" s="14"/>
+      <c r="AJ68" s="14"/>
+      <c r="AK68" s="14"/>
+      <c r="AL68" s="14"/>
+      <c r="AM68" s="14"/>
+      <c r="AN68" s="14"/>
+      <c r="AO68" s="14"/>
+      <c r="AP68" s="14"/>
+      <c r="AQ68" s="14"/>
+      <c r="AR68" s="14"/>
+      <c r="AS68" s="14"/>
+      <c r="AT68" s="14"/>
+      <c r="AU68" s="14"/>
+      <c r="AV68" s="14"/>
+      <c r="AW68" s="14"/>
+      <c r="AX68" s="14"/>
+      <c r="AY68" s="14"/>
+      <c r="AZ68" s="14"/>
+      <c r="BA68" s="14"/>
+      <c r="BB68" s="14"/>
+      <c r="BC68" s="14"/>
+      <c r="BD68" s="14"/>
+      <c r="BE68" s="14"/>
+      <c r="BF68" s="14"/>
+      <c r="BG68" s="14"/>
+      <c r="BH68" s="14"/>
+      <c r="BI68" s="14"/>
+      <c r="BJ68" s="14"/>
+      <c r="BK68" s="14"/>
+      <c r="BL68" s="14"/>
+      <c r="BM68" s="14"/>
+      <c r="BN68" s="14"/>
+      <c r="BO68" s="14"/>
+      <c r="BP68" s="14"/>
+      <c r="BQ68" s="14"/>
+      <c r="BR68" s="14"/>
+      <c r="BS68" s="34"/>
     </row>
     <row r="69" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="35"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="24"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="65" t="s">
+        <v>37</v>
+      </c>
       <c r="F69" s="15"/>
       <c r="G69" s="16"/>
       <c r="H69" s="43"/>
@@ -8003,19 +7965,15 @@
     <row r="70" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="35"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="65" t="s">
-        <v>38</v>
-      </c>
+      <c r="C70" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="56"/>
+      <c r="E70" s="65"/>
       <c r="F70" s="15">
-        <v>44093</v>
-      </c>
-      <c r="G70" s="16">
-        <v>44093</v>
-      </c>
+        <v>44097</v>
+      </c>
+      <c r="G70" s="16"/>
       <c r="H70" s="43"/>
       <c r="I70" s="43"/>
       <c r="J70" s="43"/>
@@ -8026,11 +7984,11 @@
       <c r="O70" s="43"/>
       <c r="P70" s="43"/>
       <c r="Q70" s="43"/>
-      <c r="R70" s="66"/>
+      <c r="R70" s="43"/>
       <c r="S70" s="43"/>
       <c r="T70" s="43"/>
       <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
+      <c r="V70" s="66"/>
       <c r="W70" s="43"/>
       <c r="X70" s="14"/>
       <c r="Y70" s="14"/>
@@ -8083,12 +8041,14 @@
     </row>
     <row r="71" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="35"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="24"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="65">
+        <v>2</v>
+      </c>
       <c r="F71" s="15"/>
       <c r="G71" s="16"/>
       <c r="H71" s="43"/>
@@ -8159,17 +8119,15 @@
     <row r="72" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="35"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="15">
-        <v>44094</v>
-      </c>
-      <c r="G72" s="16">
-        <v>44094</v>
-      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="65">
+        <v>6</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="16"/>
       <c r="H72" s="43"/>
       <c r="I72" s="43"/>
       <c r="J72" s="43"/>
@@ -8181,7 +8139,7 @@
       <c r="P72" s="43"/>
       <c r="Q72" s="43"/>
       <c r="R72" s="43"/>
-      <c r="S72" s="66"/>
+      <c r="S72" s="43"/>
       <c r="T72" s="43"/>
       <c r="U72" s="43"/>
       <c r="V72" s="43"/>
@@ -8237,12 +8195,14 @@
     </row>
     <row r="73" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="35"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="24"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="65">
+        <v>3</v>
+      </c>
       <c r="F73" s="15"/>
       <c r="G73" s="16"/>
       <c r="H73" s="43"/>
@@ -8313,19 +8273,15 @@
     <row r="74" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="35"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="52"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45" t="s">
+        <v>40</v>
+      </c>
       <c r="E74" s="65">
-        <v>7</v>
-      </c>
-      <c r="F74" s="15">
-        <v>44095</v>
-      </c>
-      <c r="G74" s="16">
-        <v>44096</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="16"/>
       <c r="H74" s="43"/>
       <c r="I74" s="43"/>
       <c r="J74" s="43"/>
@@ -8338,8 +8294,8 @@
       <c r="Q74" s="43"/>
       <c r="R74" s="43"/>
       <c r="S74" s="43"/>
-      <c r="T74" s="66"/>
-      <c r="U74" s="66"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
       <c r="V74" s="43"/>
       <c r="W74" s="43"/>
       <c r="X74" s="14"/>
@@ -8394,13 +8350,11 @@
     <row r="75" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="35"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="65">
-        <v>1</v>
-      </c>
+      <c r="C75" s="44"/>
+      <c r="D75" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="24"/>
       <c r="F75" s="15"/>
       <c r="G75" s="16"/>
       <c r="H75" s="43"/>
@@ -8469,15 +8423,13 @@
       <c r="BS75" s="34"/>
     </row>
     <row r="76" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="35"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="65">
-        <v>2</v>
-      </c>
+      <c r="C76" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="56"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="15"/>
       <c r="G76" s="16"/>
       <c r="H76" s="43"/>
@@ -8546,15 +8498,13 @@
       <c r="BS76" s="34"/>
     </row>
     <row r="77" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="35"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="65">
-        <v>2</v>
-      </c>
+      <c r="C77" s="67"/>
+      <c r="D77" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="24"/>
       <c r="F77" s="15"/>
       <c r="G77" s="16"/>
       <c r="H77" s="43"/>
@@ -8623,15 +8573,13 @@
       <c r="BS77" s="34"/>
     </row>
     <row r="78" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="35"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="65">
-        <v>2</v>
-      </c>
+      <c r="C78" s="67"/>
+      <c r="D78" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="24"/>
       <c r="F78" s="15"/>
       <c r="G78" s="16"/>
       <c r="H78" s="43"/>
@@ -8700,16 +8648,14 @@
       <c r="BS78" s="34"/>
     </row>
     <row r="79" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="35"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="15">
-        <v>44096</v>
-      </c>
+      <c r="C79" s="67"/>
+      <c r="D79" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="15"/>
       <c r="G79" s="16"/>
       <c r="H79" s="43"/>
       <c r="I79" s="43"/>
@@ -8724,7 +8670,7 @@
       <c r="R79" s="43"/>
       <c r="S79" s="43"/>
       <c r="T79" s="43"/>
-      <c r="U79" s="66"/>
+      <c r="U79" s="43"/>
       <c r="V79" s="43"/>
       <c r="W79" s="43"/>
       <c r="X79" s="14"/>
@@ -8777,15 +8723,13 @@
       <c r="BS79" s="34"/>
     </row>
     <row r="80" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="35"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="44"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="65" t="s">
-        <v>39</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E80" s="24"/>
       <c r="F80" s="15"/>
       <c r="G80" s="16"/>
       <c r="H80" s="43"/>
@@ -8854,15 +8798,13 @@
       <c r="BS80" s="34"/>
     </row>
     <row r="81" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="35"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="44"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" s="65" t="s">
-        <v>39</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E81" s="24"/>
       <c r="F81" s="15"/>
       <c r="G81" s="16"/>
       <c r="H81" s="43"/>
@@ -8931,13 +8873,13 @@
       <c r="BS81" s="34"/>
     </row>
     <row r="82" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="35"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="44"/>
+      <c r="C82" s="67"/>
       <c r="D82" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="65"/>
+        <v>43</v>
+      </c>
+      <c r="E82" s="24"/>
       <c r="F82" s="15"/>
       <c r="G82" s="16"/>
       <c r="H82" s="43"/>
@@ -9006,16 +8948,14 @@
       <c r="BS82" s="34"/>
     </row>
     <row r="83" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="35"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="56"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="15">
-        <v>44097</v>
-      </c>
+      <c r="C83" s="67"/>
+      <c r="D83" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="15"/>
       <c r="G83" s="16"/>
       <c r="H83" s="43"/>
       <c r="I83" s="43"/>
@@ -9031,7 +8971,7 @@
       <c r="S83" s="43"/>
       <c r="T83" s="43"/>
       <c r="U83" s="43"/>
-      <c r="V83" s="66"/>
+      <c r="V83" s="43"/>
       <c r="W83" s="43"/>
       <c r="X83" s="14"/>
       <c r="Y83" s="14"/>
@@ -9083,15 +9023,13 @@
       <c r="BS83" s="34"/>
     </row>
     <row r="84" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="35"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="44"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="65">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E84" s="24"/>
       <c r="F84" s="15"/>
       <c r="G84" s="16"/>
       <c r="H84" s="43"/>
@@ -9160,15 +9098,13 @@
       <c r="BS84" s="34"/>
     </row>
     <row r="85" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="35"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" s="65">
-        <v>6</v>
-      </c>
+      <c r="A85" s="59"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="56"/>
+      <c r="E85" s="24"/>
       <c r="F85" s="15"/>
       <c r="G85" s="16"/>
       <c r="H85" s="43"/>
@@ -9237,15 +9173,13 @@
       <c r="BS85" s="34"/>
     </row>
     <row r="86" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="35"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E86" s="65">
-        <v>3</v>
-      </c>
+      <c r="A86" s="59"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="24"/>
       <c r="F86" s="15"/>
       <c r="G86" s="16"/>
       <c r="H86" s="43"/>
@@ -9314,15 +9248,13 @@
       <c r="BS86" s="34"/>
     </row>
     <row r="87" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="35"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" s="65">
-        <v>2</v>
-      </c>
+      <c r="A87" s="59"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="24"/>
       <c r="F87" s="15"/>
       <c r="G87" s="16"/>
       <c r="H87" s="43"/>
@@ -9391,11 +9323,11 @@
       <c r="BS87" s="34"/>
     </row>
     <row r="88" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="35"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="45" t="s">
-        <v>43</v>
+      <c r="A88" s="59"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="68" t="s">
+        <v>51</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="15"/>
@@ -9466,11 +9398,11 @@
       <c r="BS88" s="34"/>
     </row>
     <row r="89" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="59"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="45" t="s">
-        <v>44</v>
+      <c r="A89" s="60"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68" t="s">
+        <v>55</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="15"/>
@@ -9541,10 +9473,10 @@
       <c r="BS89" s="34"/>
     </row>
     <row r="90" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="59"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="64"/>
       <c r="C90" s="55" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D90" s="56"/>
       <c r="E90" s="24"/>
@@ -9616,11 +9548,11 @@
       <c r="BS90" s="34"/>
     </row>
     <row r="91" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="59"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="75"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="44"/>
       <c r="D91" s="45" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="15"/>
@@ -9691,11 +9623,11 @@
       <c r="BS91" s="34"/>
     </row>
     <row r="92" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="59"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="75"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="45" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="15"/>
@@ -9767,10 +9699,10 @@
     </row>
     <row r="93" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="59"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="75"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="45" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="15"/>
@@ -9841,12 +9773,12 @@
       <c r="BS93" s="34"/>
     </row>
     <row r="94" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="59"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="12"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="45" t="s">
-        <v>48</v>
-      </c>
+      <c r="C94" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="56"/>
       <c r="E94" s="24"/>
       <c r="F94" s="15"/>
       <c r="G94" s="16"/>
@@ -9916,11 +9848,11 @@
       <c r="BS94" s="34"/>
     </row>
     <row r="95" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="59"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="45" t="s">
-        <v>49</v>
+      <c r="C95" s="67"/>
+      <c r="D95" s="68" t="s">
+        <v>56</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="15"/>
@@ -9991,11 +9923,11 @@
       <c r="BS95" s="34"/>
     </row>
     <row r="96" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="59"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="12"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="45" t="s">
-        <v>46</v>
+      <c r="C96" s="67"/>
+      <c r="D96" s="68" t="s">
+        <v>57</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="15"/>
@@ -10066,11 +9998,11 @@
       <c r="BS96" s="34"/>
     </row>
     <row r="97" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="59"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="12"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="45" t="s">
-        <v>50</v>
+      <c r="C97" s="67"/>
+      <c r="D97" s="68" t="s">
+        <v>47</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="15"/>
@@ -10143,10 +10075,10 @@
     <row r="98" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="59"/>
       <c r="B98" s="12"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="45" t="s">
-        <v>51</v>
-      </c>
+      <c r="C98" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="56"/>
       <c r="E98" s="24"/>
       <c r="F98" s="15"/>
       <c r="G98" s="16"/>
@@ -10220,7 +10152,7 @@
       <c r="B99" s="12"/>
       <c r="C99" s="44"/>
       <c r="D99" s="45" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="15"/>
@@ -10292,11 +10224,11 @@
     </row>
     <row r="100" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="59"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" s="56"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="45" t="s">
+        <v>58</v>
+      </c>
       <c r="E100" s="24"/>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
@@ -10367,10 +10299,10 @@
     </row>
     <row r="101" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="59"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="76" t="s">
-        <v>52</v>
+      <c r="B101" s="12"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="15"/>
@@ -10442,10 +10374,10 @@
     </row>
     <row r="102" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="59"/>
-      <c r="B102" s="77"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="76" t="s">
-        <v>53</v>
+      <c r="B102" s="12"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="45" t="s">
+        <v>59</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="15"/>
@@ -10517,11 +10449,11 @@
     </row>
     <row r="103" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="59"/>
-      <c r="B103" s="77"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="76" t="s">
-        <v>54</v>
-      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="56"/>
       <c r="E103" s="24"/>
       <c r="F103" s="15"/>
       <c r="G103" s="16"/>
@@ -10591,11 +10523,11 @@
       <c r="BS103" s="34"/>
     </row>
     <row r="104" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="60"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="76" t="s">
-        <v>58</v>
+      <c r="A104" s="59"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="68" t="s">
+        <v>59</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="15"/>
@@ -10666,11 +10598,11 @@
       <c r="BS104" s="34"/>
     </row>
     <row r="105" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="60"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="12"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="45" t="s">
-        <v>44</v>
+      <c r="C105" s="67"/>
+      <c r="D105" s="68" t="s">
+        <v>62</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="15"/>
@@ -10741,12 +10673,12 @@
       <c r="BS105" s="34"/>
     </row>
     <row r="106" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="60"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="56"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="68" t="s">
+        <v>61</v>
+      </c>
       <c r="E106" s="24"/>
       <c r="F106" s="15"/>
       <c r="G106" s="16"/>
@@ -10816,11 +10748,11 @@
       <c r="BS106" s="34"/>
     </row>
     <row r="107" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="60"/>
-      <c r="B107" s="63"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="45" t="s">
-        <v>56</v>
+      <c r="A107" s="35"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="68" t="s">
+        <v>63</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="15"/>
@@ -10891,11 +10823,11 @@
       <c r="BS107" s="34"/>
     </row>
     <row r="108" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="60"/>
-      <c r="B108" s="78"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="45" t="s">
-        <v>55</v>
+      <c r="A108" s="35"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="68" t="s">
+        <v>64</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="15"/>
@@ -10966,11 +10898,11 @@
       <c r="BS108" s="34"/>
     </row>
     <row r="109" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="59"/>
-      <c r="B109" s="78"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="44"/>
       <c r="D109" s="45" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="15"/>
@@ -11041,12 +10973,12 @@
       <c r="BS109" s="34"/>
     </row>
     <row r="110" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="61"/>
-      <c r="B110" s="62"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="45" t="s">
-        <v>44</v>
-      </c>
+      <c r="A110" s="35"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="56"/>
       <c r="E110" s="24"/>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
@@ -11116,10 +11048,10 @@
       <c r="BS110" s="34"/>
     </row>
     <row r="111" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="61"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="12"/>
       <c r="C111" s="55" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D111" s="56"/>
       <c r="E111" s="24"/>
@@ -11191,11 +11123,11 @@
       <c r="BS111" s="34"/>
     </row>
     <row r="112" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="60"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="12"/>
-      <c r="C112" s="75"/>
-      <c r="D112" s="76" t="s">
-        <v>59</v>
+      <c r="C112" s="67"/>
+      <c r="D112" s="68" t="s">
+        <v>64</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="15"/>
@@ -11266,11 +11198,11 @@
       <c r="BS112" s="34"/>
     </row>
     <row r="113" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="60"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="12"/>
-      <c r="C113" s="75"/>
-      <c r="D113" s="76" t="s">
-        <v>60</v>
+      <c r="C113" s="44"/>
+      <c r="D113" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="15"/>
@@ -11341,12 +11273,12 @@
       <c r="BS113" s="34"/>
     </row>
     <row r="114" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="60"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="12"/>
-      <c r="C114" s="75"/>
-      <c r="D114" s="76" t="s">
-        <v>50</v>
-      </c>
+      <c r="C114" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="56"/>
       <c r="E114" s="24"/>
       <c r="F114" s="15"/>
       <c r="G114" s="16"/>
@@ -11416,12 +11348,12 @@
       <c r="BS114" s="34"/>
     </row>
     <row r="115" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="59"/>
+      <c r="A115" s="36"/>
       <c r="B115" s="12"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="45" t="s">
-        <v>44</v>
-      </c>
+      <c r="C115" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="56"/>
       <c r="E115" s="24"/>
       <c r="F115" s="15"/>
       <c r="G115" s="16"/>
@@ -11490,1581 +11422,6 @@
       <c r="BR115" s="14"/>
       <c r="BS115" s="34"/>
     </row>
-    <row r="116" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="59"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="56"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="43"/>
-      <c r="K116" s="43"/>
-      <c r="L116" s="43"/>
-      <c r="M116" s="43"/>
-      <c r="N116" s="43"/>
-      <c r="O116" s="43"/>
-      <c r="P116" s="43"/>
-      <c r="Q116" s="43"/>
-      <c r="R116" s="43"/>
-      <c r="S116" s="43"/>
-      <c r="T116" s="43"/>
-      <c r="U116" s="43"/>
-      <c r="V116" s="43"/>
-      <c r="W116" s="43"/>
-      <c r="X116" s="14"/>
-      <c r="Y116" s="14"/>
-      <c r="Z116" s="14"/>
-      <c r="AA116" s="14"/>
-      <c r="AB116" s="14"/>
-      <c r="AC116" s="14"/>
-      <c r="AD116" s="14"/>
-      <c r="AE116" s="14"/>
-      <c r="AF116" s="14"/>
-      <c r="AG116" s="14"/>
-      <c r="AH116" s="14"/>
-      <c r="AI116" s="14"/>
-      <c r="AJ116" s="14"/>
-      <c r="AK116" s="14"/>
-      <c r="AL116" s="14"/>
-      <c r="AM116" s="14"/>
-      <c r="AN116" s="14"/>
-      <c r="AO116" s="14"/>
-      <c r="AP116" s="14"/>
-      <c r="AQ116" s="14"/>
-      <c r="AR116" s="14"/>
-      <c r="AS116" s="14"/>
-      <c r="AT116" s="14"/>
-      <c r="AU116" s="14"/>
-      <c r="AV116" s="14"/>
-      <c r="AW116" s="14"/>
-      <c r="AX116" s="14"/>
-      <c r="AY116" s="14"/>
-      <c r="AZ116" s="14"/>
-      <c r="BA116" s="14"/>
-      <c r="BB116" s="14"/>
-      <c r="BC116" s="14"/>
-      <c r="BD116" s="14"/>
-      <c r="BE116" s="14"/>
-      <c r="BF116" s="14"/>
-      <c r="BG116" s="14"/>
-      <c r="BH116" s="14"/>
-      <c r="BI116" s="14"/>
-      <c r="BJ116" s="14"/>
-      <c r="BK116" s="14"/>
-      <c r="BL116" s="14"/>
-      <c r="BM116" s="14"/>
-      <c r="BN116" s="14"/>
-      <c r="BO116" s="14"/>
-      <c r="BP116" s="14"/>
-      <c r="BQ116" s="14"/>
-      <c r="BR116" s="14"/>
-      <c r="BS116" s="34"/>
-    </row>
-    <row r="117" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="59"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="43"/>
-      <c r="K117" s="43"/>
-      <c r="L117" s="43"/>
-      <c r="M117" s="43"/>
-      <c r="N117" s="43"/>
-      <c r="O117" s="43"/>
-      <c r="P117" s="43"/>
-      <c r="Q117" s="43"/>
-      <c r="R117" s="43"/>
-      <c r="S117" s="43"/>
-      <c r="T117" s="43"/>
-      <c r="U117" s="43"/>
-      <c r="V117" s="43"/>
-      <c r="W117" s="43"/>
-      <c r="X117" s="14"/>
-      <c r="Y117" s="14"/>
-      <c r="Z117" s="14"/>
-      <c r="AA117" s="14"/>
-      <c r="AB117" s="14"/>
-      <c r="AC117" s="14"/>
-      <c r="AD117" s="14"/>
-      <c r="AE117" s="14"/>
-      <c r="AF117" s="14"/>
-      <c r="AG117" s="14"/>
-      <c r="AH117" s="14"/>
-      <c r="AI117" s="14"/>
-      <c r="AJ117" s="14"/>
-      <c r="AK117" s="14"/>
-      <c r="AL117" s="14"/>
-      <c r="AM117" s="14"/>
-      <c r="AN117" s="14"/>
-      <c r="AO117" s="14"/>
-      <c r="AP117" s="14"/>
-      <c r="AQ117" s="14"/>
-      <c r="AR117" s="14"/>
-      <c r="AS117" s="14"/>
-      <c r="AT117" s="14"/>
-      <c r="AU117" s="14"/>
-      <c r="AV117" s="14"/>
-      <c r="AW117" s="14"/>
-      <c r="AX117" s="14"/>
-      <c r="AY117" s="14"/>
-      <c r="AZ117" s="14"/>
-      <c r="BA117" s="14"/>
-      <c r="BB117" s="14"/>
-      <c r="BC117" s="14"/>
-      <c r="BD117" s="14"/>
-      <c r="BE117" s="14"/>
-      <c r="BF117" s="14"/>
-      <c r="BG117" s="14"/>
-      <c r="BH117" s="14"/>
-      <c r="BI117" s="14"/>
-      <c r="BJ117" s="14"/>
-      <c r="BK117" s="14"/>
-      <c r="BL117" s="14"/>
-      <c r="BM117" s="14"/>
-      <c r="BN117" s="14"/>
-      <c r="BO117" s="14"/>
-      <c r="BP117" s="14"/>
-      <c r="BQ117" s="14"/>
-      <c r="BR117" s="14"/>
-      <c r="BS117" s="34"/>
-    </row>
-    <row r="118" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="59"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="43"/>
-      <c r="K118" s="43"/>
-      <c r="L118" s="43"/>
-      <c r="M118" s="43"/>
-      <c r="N118" s="43"/>
-      <c r="O118" s="43"/>
-      <c r="P118" s="43"/>
-      <c r="Q118" s="43"/>
-      <c r="R118" s="43"/>
-      <c r="S118" s="43"/>
-      <c r="T118" s="43"/>
-      <c r="U118" s="43"/>
-      <c r="V118" s="43"/>
-      <c r="W118" s="43"/>
-      <c r="X118" s="14"/>
-      <c r="Y118" s="14"/>
-      <c r="Z118" s="14"/>
-      <c r="AA118" s="14"/>
-      <c r="AB118" s="14"/>
-      <c r="AC118" s="14"/>
-      <c r="AD118" s="14"/>
-      <c r="AE118" s="14"/>
-      <c r="AF118" s="14"/>
-      <c r="AG118" s="14"/>
-      <c r="AH118" s="14"/>
-      <c r="AI118" s="14"/>
-      <c r="AJ118" s="14"/>
-      <c r="AK118" s="14"/>
-      <c r="AL118" s="14"/>
-      <c r="AM118" s="14"/>
-      <c r="AN118" s="14"/>
-      <c r="AO118" s="14"/>
-      <c r="AP118" s="14"/>
-      <c r="AQ118" s="14"/>
-      <c r="AR118" s="14"/>
-      <c r="AS118" s="14"/>
-      <c r="AT118" s="14"/>
-      <c r="AU118" s="14"/>
-      <c r="AV118" s="14"/>
-      <c r="AW118" s="14"/>
-      <c r="AX118" s="14"/>
-      <c r="AY118" s="14"/>
-      <c r="AZ118" s="14"/>
-      <c r="BA118" s="14"/>
-      <c r="BB118" s="14"/>
-      <c r="BC118" s="14"/>
-      <c r="BD118" s="14"/>
-      <c r="BE118" s="14"/>
-      <c r="BF118" s="14"/>
-      <c r="BG118" s="14"/>
-      <c r="BH118" s="14"/>
-      <c r="BI118" s="14"/>
-      <c r="BJ118" s="14"/>
-      <c r="BK118" s="14"/>
-      <c r="BL118" s="14"/>
-      <c r="BM118" s="14"/>
-      <c r="BN118" s="14"/>
-      <c r="BO118" s="14"/>
-      <c r="BP118" s="14"/>
-      <c r="BQ118" s="14"/>
-      <c r="BR118" s="14"/>
-      <c r="BS118" s="34"/>
-    </row>
-    <row r="119" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="59"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="43"/>
-      <c r="L119" s="43"/>
-      <c r="M119" s="43"/>
-      <c r="N119" s="43"/>
-      <c r="O119" s="43"/>
-      <c r="P119" s="43"/>
-      <c r="Q119" s="43"/>
-      <c r="R119" s="43"/>
-      <c r="S119" s="43"/>
-      <c r="T119" s="43"/>
-      <c r="U119" s="43"/>
-      <c r="V119" s="43"/>
-      <c r="W119" s="43"/>
-      <c r="X119" s="14"/>
-      <c r="Y119" s="14"/>
-      <c r="Z119" s="14"/>
-      <c r="AA119" s="14"/>
-      <c r="AB119" s="14"/>
-      <c r="AC119" s="14"/>
-      <c r="AD119" s="14"/>
-      <c r="AE119" s="14"/>
-      <c r="AF119" s="14"/>
-      <c r="AG119" s="14"/>
-      <c r="AH119" s="14"/>
-      <c r="AI119" s="14"/>
-      <c r="AJ119" s="14"/>
-      <c r="AK119" s="14"/>
-      <c r="AL119" s="14"/>
-      <c r="AM119" s="14"/>
-      <c r="AN119" s="14"/>
-      <c r="AO119" s="14"/>
-      <c r="AP119" s="14"/>
-      <c r="AQ119" s="14"/>
-      <c r="AR119" s="14"/>
-      <c r="AS119" s="14"/>
-      <c r="AT119" s="14"/>
-      <c r="AU119" s="14"/>
-      <c r="AV119" s="14"/>
-      <c r="AW119" s="14"/>
-      <c r="AX119" s="14"/>
-      <c r="AY119" s="14"/>
-      <c r="AZ119" s="14"/>
-      <c r="BA119" s="14"/>
-      <c r="BB119" s="14"/>
-      <c r="BC119" s="14"/>
-      <c r="BD119" s="14"/>
-      <c r="BE119" s="14"/>
-      <c r="BF119" s="14"/>
-      <c r="BG119" s="14"/>
-      <c r="BH119" s="14"/>
-      <c r="BI119" s="14"/>
-      <c r="BJ119" s="14"/>
-      <c r="BK119" s="14"/>
-      <c r="BL119" s="14"/>
-      <c r="BM119" s="14"/>
-      <c r="BN119" s="14"/>
-      <c r="BO119" s="14"/>
-      <c r="BP119" s="14"/>
-      <c r="BQ119" s="14"/>
-      <c r="BR119" s="14"/>
-      <c r="BS119" s="34"/>
-    </row>
-    <row r="120" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="59"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="43"/>
-      <c r="K120" s="43"/>
-      <c r="L120" s="43"/>
-      <c r="M120" s="43"/>
-      <c r="N120" s="43"/>
-      <c r="O120" s="43"/>
-      <c r="P120" s="43"/>
-      <c r="Q120" s="43"/>
-      <c r="R120" s="43"/>
-      <c r="S120" s="43"/>
-      <c r="T120" s="43"/>
-      <c r="U120" s="43"/>
-      <c r="V120" s="43"/>
-      <c r="W120" s="43"/>
-      <c r="X120" s="14"/>
-      <c r="Y120" s="14"/>
-      <c r="Z120" s="14"/>
-      <c r="AA120" s="14"/>
-      <c r="AB120" s="14"/>
-      <c r="AC120" s="14"/>
-      <c r="AD120" s="14"/>
-      <c r="AE120" s="14"/>
-      <c r="AF120" s="14"/>
-      <c r="AG120" s="14"/>
-      <c r="AH120" s="14"/>
-      <c r="AI120" s="14"/>
-      <c r="AJ120" s="14"/>
-      <c r="AK120" s="14"/>
-      <c r="AL120" s="14"/>
-      <c r="AM120" s="14"/>
-      <c r="AN120" s="14"/>
-      <c r="AO120" s="14"/>
-      <c r="AP120" s="14"/>
-      <c r="AQ120" s="14"/>
-      <c r="AR120" s="14"/>
-      <c r="AS120" s="14"/>
-      <c r="AT120" s="14"/>
-      <c r="AU120" s="14"/>
-      <c r="AV120" s="14"/>
-      <c r="AW120" s="14"/>
-      <c r="AX120" s="14"/>
-      <c r="AY120" s="14"/>
-      <c r="AZ120" s="14"/>
-      <c r="BA120" s="14"/>
-      <c r="BB120" s="14"/>
-      <c r="BC120" s="14"/>
-      <c r="BD120" s="14"/>
-      <c r="BE120" s="14"/>
-      <c r="BF120" s="14"/>
-      <c r="BG120" s="14"/>
-      <c r="BH120" s="14"/>
-      <c r="BI120" s="14"/>
-      <c r="BJ120" s="14"/>
-      <c r="BK120" s="14"/>
-      <c r="BL120" s="14"/>
-      <c r="BM120" s="14"/>
-      <c r="BN120" s="14"/>
-      <c r="BO120" s="14"/>
-      <c r="BP120" s="14"/>
-      <c r="BQ120" s="14"/>
-      <c r="BR120" s="14"/>
-      <c r="BS120" s="34"/>
-    </row>
-    <row r="121" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="35"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="43"/>
-      <c r="K121" s="43"/>
-      <c r="L121" s="43"/>
-      <c r="M121" s="43"/>
-      <c r="N121" s="43"/>
-      <c r="O121" s="43"/>
-      <c r="P121" s="43"/>
-      <c r="Q121" s="43"/>
-      <c r="R121" s="43"/>
-      <c r="S121" s="43"/>
-      <c r="T121" s="43"/>
-      <c r="U121" s="43"/>
-      <c r="V121" s="43"/>
-      <c r="W121" s="43"/>
-      <c r="X121" s="14"/>
-      <c r="Y121" s="14"/>
-      <c r="Z121" s="14"/>
-      <c r="AA121" s="14"/>
-      <c r="AB121" s="14"/>
-      <c r="AC121" s="14"/>
-      <c r="AD121" s="14"/>
-      <c r="AE121" s="14"/>
-      <c r="AF121" s="14"/>
-      <c r="AG121" s="14"/>
-      <c r="AH121" s="14"/>
-      <c r="AI121" s="14"/>
-      <c r="AJ121" s="14"/>
-      <c r="AK121" s="14"/>
-      <c r="AL121" s="14"/>
-      <c r="AM121" s="14"/>
-      <c r="AN121" s="14"/>
-      <c r="AO121" s="14"/>
-      <c r="AP121" s="14"/>
-      <c r="AQ121" s="14"/>
-      <c r="AR121" s="14"/>
-      <c r="AS121" s="14"/>
-      <c r="AT121" s="14"/>
-      <c r="AU121" s="14"/>
-      <c r="AV121" s="14"/>
-      <c r="AW121" s="14"/>
-      <c r="AX121" s="14"/>
-      <c r="AY121" s="14"/>
-      <c r="AZ121" s="14"/>
-      <c r="BA121" s="14"/>
-      <c r="BB121" s="14"/>
-      <c r="BC121" s="14"/>
-      <c r="BD121" s="14"/>
-      <c r="BE121" s="14"/>
-      <c r="BF121" s="14"/>
-      <c r="BG121" s="14"/>
-      <c r="BH121" s="14"/>
-      <c r="BI121" s="14"/>
-      <c r="BJ121" s="14"/>
-      <c r="BK121" s="14"/>
-      <c r="BL121" s="14"/>
-      <c r="BM121" s="14"/>
-      <c r="BN121" s="14"/>
-      <c r="BO121" s="14"/>
-      <c r="BP121" s="14"/>
-      <c r="BQ121" s="14"/>
-      <c r="BR121" s="14"/>
-      <c r="BS121" s="34"/>
-    </row>
-    <row r="122" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="59"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D122" s="56"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="43"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="43"/>
-      <c r="M122" s="43"/>
-      <c r="N122" s="43"/>
-      <c r="O122" s="43"/>
-      <c r="P122" s="43"/>
-      <c r="Q122" s="43"/>
-      <c r="R122" s="43"/>
-      <c r="S122" s="43"/>
-      <c r="T122" s="43"/>
-      <c r="U122" s="43"/>
-      <c r="V122" s="43"/>
-      <c r="W122" s="43"/>
-      <c r="X122" s="14"/>
-      <c r="Y122" s="14"/>
-      <c r="Z122" s="14"/>
-      <c r="AA122" s="14"/>
-      <c r="AB122" s="14"/>
-      <c r="AC122" s="14"/>
-      <c r="AD122" s="14"/>
-      <c r="AE122" s="14"/>
-      <c r="AF122" s="14"/>
-      <c r="AG122" s="14"/>
-      <c r="AH122" s="14"/>
-      <c r="AI122" s="14"/>
-      <c r="AJ122" s="14"/>
-      <c r="AK122" s="14"/>
-      <c r="AL122" s="14"/>
-      <c r="AM122" s="14"/>
-      <c r="AN122" s="14"/>
-      <c r="AO122" s="14"/>
-      <c r="AP122" s="14"/>
-      <c r="AQ122" s="14"/>
-      <c r="AR122" s="14"/>
-      <c r="AS122" s="14"/>
-      <c r="AT122" s="14"/>
-      <c r="AU122" s="14"/>
-      <c r="AV122" s="14"/>
-      <c r="AW122" s="14"/>
-      <c r="AX122" s="14"/>
-      <c r="AY122" s="14"/>
-      <c r="AZ122" s="14"/>
-      <c r="BA122" s="14"/>
-      <c r="BB122" s="14"/>
-      <c r="BC122" s="14"/>
-      <c r="BD122" s="14"/>
-      <c r="BE122" s="14"/>
-      <c r="BF122" s="14"/>
-      <c r="BG122" s="14"/>
-      <c r="BH122" s="14"/>
-      <c r="BI122" s="14"/>
-      <c r="BJ122" s="14"/>
-      <c r="BK122" s="14"/>
-      <c r="BL122" s="14"/>
-      <c r="BM122" s="14"/>
-      <c r="BN122" s="14"/>
-      <c r="BO122" s="14"/>
-      <c r="BP122" s="14"/>
-      <c r="BQ122" s="14"/>
-      <c r="BR122" s="14"/>
-      <c r="BS122" s="34"/>
-    </row>
-    <row r="123" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="59"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
-      <c r="K123" s="43"/>
-      <c r="L123" s="43"/>
-      <c r="M123" s="43"/>
-      <c r="N123" s="43"/>
-      <c r="O123" s="43"/>
-      <c r="P123" s="43"/>
-      <c r="Q123" s="43"/>
-      <c r="R123" s="43"/>
-      <c r="S123" s="43"/>
-      <c r="T123" s="43"/>
-      <c r="U123" s="43"/>
-      <c r="V123" s="43"/>
-      <c r="W123" s="43"/>
-      <c r="X123" s="14"/>
-      <c r="Y123" s="14"/>
-      <c r="Z123" s="14"/>
-      <c r="AA123" s="14"/>
-      <c r="AB123" s="14"/>
-      <c r="AC123" s="14"/>
-      <c r="AD123" s="14"/>
-      <c r="AE123" s="14"/>
-      <c r="AF123" s="14"/>
-      <c r="AG123" s="14"/>
-      <c r="AH123" s="14"/>
-      <c r="AI123" s="14"/>
-      <c r="AJ123" s="14"/>
-      <c r="AK123" s="14"/>
-      <c r="AL123" s="14"/>
-      <c r="AM123" s="14"/>
-      <c r="AN123" s="14"/>
-      <c r="AO123" s="14"/>
-      <c r="AP123" s="14"/>
-      <c r="AQ123" s="14"/>
-      <c r="AR123" s="14"/>
-      <c r="AS123" s="14"/>
-      <c r="AT123" s="14"/>
-      <c r="AU123" s="14"/>
-      <c r="AV123" s="14"/>
-      <c r="AW123" s="14"/>
-      <c r="AX123" s="14"/>
-      <c r="AY123" s="14"/>
-      <c r="AZ123" s="14"/>
-      <c r="BA123" s="14"/>
-      <c r="BB123" s="14"/>
-      <c r="BC123" s="14"/>
-      <c r="BD123" s="14"/>
-      <c r="BE123" s="14"/>
-      <c r="BF123" s="14"/>
-      <c r="BG123" s="14"/>
-      <c r="BH123" s="14"/>
-      <c r="BI123" s="14"/>
-      <c r="BJ123" s="14"/>
-      <c r="BK123" s="14"/>
-      <c r="BL123" s="14"/>
-      <c r="BM123" s="14"/>
-      <c r="BN123" s="14"/>
-      <c r="BO123" s="14"/>
-      <c r="BP123" s="14"/>
-      <c r="BQ123" s="14"/>
-      <c r="BR123" s="14"/>
-      <c r="BS123" s="34"/>
-    </row>
-    <row r="124" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="59"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="75"/>
-      <c r="D124" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
-      <c r="M124" s="43"/>
-      <c r="N124" s="43"/>
-      <c r="O124" s="43"/>
-      <c r="P124" s="43"/>
-      <c r="Q124" s="43"/>
-      <c r="R124" s="43"/>
-      <c r="S124" s="43"/>
-      <c r="T124" s="43"/>
-      <c r="U124" s="43"/>
-      <c r="V124" s="43"/>
-      <c r="W124" s="43"/>
-      <c r="X124" s="14"/>
-      <c r="Y124" s="14"/>
-      <c r="Z124" s="14"/>
-      <c r="AA124" s="14"/>
-      <c r="AB124" s="14"/>
-      <c r="AC124" s="14"/>
-      <c r="AD124" s="14"/>
-      <c r="AE124" s="14"/>
-      <c r="AF124" s="14"/>
-      <c r="AG124" s="14"/>
-      <c r="AH124" s="14"/>
-      <c r="AI124" s="14"/>
-      <c r="AJ124" s="14"/>
-      <c r="AK124" s="14"/>
-      <c r="AL124" s="14"/>
-      <c r="AM124" s="14"/>
-      <c r="AN124" s="14"/>
-      <c r="AO124" s="14"/>
-      <c r="AP124" s="14"/>
-      <c r="AQ124" s="14"/>
-      <c r="AR124" s="14"/>
-      <c r="AS124" s="14"/>
-      <c r="AT124" s="14"/>
-      <c r="AU124" s="14"/>
-      <c r="AV124" s="14"/>
-      <c r="AW124" s="14"/>
-      <c r="AX124" s="14"/>
-      <c r="AY124" s="14"/>
-      <c r="AZ124" s="14"/>
-      <c r="BA124" s="14"/>
-      <c r="BB124" s="14"/>
-      <c r="BC124" s="14"/>
-      <c r="BD124" s="14"/>
-      <c r="BE124" s="14"/>
-      <c r="BF124" s="14"/>
-      <c r="BG124" s="14"/>
-      <c r="BH124" s="14"/>
-      <c r="BI124" s="14"/>
-      <c r="BJ124" s="14"/>
-      <c r="BK124" s="14"/>
-      <c r="BL124" s="14"/>
-      <c r="BM124" s="14"/>
-      <c r="BN124" s="14"/>
-      <c r="BO124" s="14"/>
-      <c r="BP124" s="14"/>
-      <c r="BQ124" s="14"/>
-      <c r="BR124" s="14"/>
-      <c r="BS124" s="34"/>
-    </row>
-    <row r="125" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="59"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
-      <c r="K125" s="43"/>
-      <c r="L125" s="43"/>
-      <c r="M125" s="43"/>
-      <c r="N125" s="43"/>
-      <c r="O125" s="43"/>
-      <c r="P125" s="43"/>
-      <c r="Q125" s="43"/>
-      <c r="R125" s="43"/>
-      <c r="S125" s="43"/>
-      <c r="T125" s="43"/>
-      <c r="U125" s="43"/>
-      <c r="V125" s="43"/>
-      <c r="W125" s="43"/>
-      <c r="X125" s="14"/>
-      <c r="Y125" s="14"/>
-      <c r="Z125" s="14"/>
-      <c r="AA125" s="14"/>
-      <c r="AB125" s="14"/>
-      <c r="AC125" s="14"/>
-      <c r="AD125" s="14"/>
-      <c r="AE125" s="14"/>
-      <c r="AF125" s="14"/>
-      <c r="AG125" s="14"/>
-      <c r="AH125" s="14"/>
-      <c r="AI125" s="14"/>
-      <c r="AJ125" s="14"/>
-      <c r="AK125" s="14"/>
-      <c r="AL125" s="14"/>
-      <c r="AM125" s="14"/>
-      <c r="AN125" s="14"/>
-      <c r="AO125" s="14"/>
-      <c r="AP125" s="14"/>
-      <c r="AQ125" s="14"/>
-      <c r="AR125" s="14"/>
-      <c r="AS125" s="14"/>
-      <c r="AT125" s="14"/>
-      <c r="AU125" s="14"/>
-      <c r="AV125" s="14"/>
-      <c r="AW125" s="14"/>
-      <c r="AX125" s="14"/>
-      <c r="AY125" s="14"/>
-      <c r="AZ125" s="14"/>
-      <c r="BA125" s="14"/>
-      <c r="BB125" s="14"/>
-      <c r="BC125" s="14"/>
-      <c r="BD125" s="14"/>
-      <c r="BE125" s="14"/>
-      <c r="BF125" s="14"/>
-      <c r="BG125" s="14"/>
-      <c r="BH125" s="14"/>
-      <c r="BI125" s="14"/>
-      <c r="BJ125" s="14"/>
-      <c r="BK125" s="14"/>
-      <c r="BL125" s="14"/>
-      <c r="BM125" s="14"/>
-      <c r="BN125" s="14"/>
-      <c r="BO125" s="14"/>
-      <c r="BP125" s="14"/>
-      <c r="BQ125" s="14"/>
-      <c r="BR125" s="14"/>
-      <c r="BS125" s="34"/>
-    </row>
-    <row r="126" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="35"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="75"/>
-      <c r="D126" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="E126" s="24"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="43"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="43"/>
-      <c r="M126" s="43"/>
-      <c r="N126" s="43"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="43"/>
-      <c r="Q126" s="43"/>
-      <c r="R126" s="43"/>
-      <c r="S126" s="43"/>
-      <c r="T126" s="43"/>
-      <c r="U126" s="43"/>
-      <c r="V126" s="43"/>
-      <c r="W126" s="43"/>
-      <c r="X126" s="14"/>
-      <c r="Y126" s="14"/>
-      <c r="Z126" s="14"/>
-      <c r="AA126" s="14"/>
-      <c r="AB126" s="14"/>
-      <c r="AC126" s="14"/>
-      <c r="AD126" s="14"/>
-      <c r="AE126" s="14"/>
-      <c r="AF126" s="14"/>
-      <c r="AG126" s="14"/>
-      <c r="AH126" s="14"/>
-      <c r="AI126" s="14"/>
-      <c r="AJ126" s="14"/>
-      <c r="AK126" s="14"/>
-      <c r="AL126" s="14"/>
-      <c r="AM126" s="14"/>
-      <c r="AN126" s="14"/>
-      <c r="AO126" s="14"/>
-      <c r="AP126" s="14"/>
-      <c r="AQ126" s="14"/>
-      <c r="AR126" s="14"/>
-      <c r="AS126" s="14"/>
-      <c r="AT126" s="14"/>
-      <c r="AU126" s="14"/>
-      <c r="AV126" s="14"/>
-      <c r="AW126" s="14"/>
-      <c r="AX126" s="14"/>
-      <c r="AY126" s="14"/>
-      <c r="AZ126" s="14"/>
-      <c r="BA126" s="14"/>
-      <c r="BB126" s="14"/>
-      <c r="BC126" s="14"/>
-      <c r="BD126" s="14"/>
-      <c r="BE126" s="14"/>
-      <c r="BF126" s="14"/>
-      <c r="BG126" s="14"/>
-      <c r="BH126" s="14"/>
-      <c r="BI126" s="14"/>
-      <c r="BJ126" s="14"/>
-      <c r="BK126" s="14"/>
-      <c r="BL126" s="14"/>
-      <c r="BM126" s="14"/>
-      <c r="BN126" s="14"/>
-      <c r="BO126" s="14"/>
-      <c r="BP126" s="14"/>
-      <c r="BQ126" s="14"/>
-      <c r="BR126" s="14"/>
-      <c r="BS126" s="34"/>
-    </row>
-    <row r="127" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="35"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="75"/>
-      <c r="D127" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="43"/>
-      <c r="I127" s="43"/>
-      <c r="J127" s="43"/>
-      <c r="K127" s="43"/>
-      <c r="L127" s="43"/>
-      <c r="M127" s="43"/>
-      <c r="N127" s="43"/>
-      <c r="O127" s="43"/>
-      <c r="P127" s="43"/>
-      <c r="Q127" s="43"/>
-      <c r="R127" s="43"/>
-      <c r="S127" s="43"/>
-      <c r="T127" s="43"/>
-      <c r="U127" s="43"/>
-      <c r="V127" s="43"/>
-      <c r="W127" s="43"/>
-      <c r="X127" s="14"/>
-      <c r="Y127" s="14"/>
-      <c r="Z127" s="14"/>
-      <c r="AA127" s="14"/>
-      <c r="AB127" s="14"/>
-      <c r="AC127" s="14"/>
-      <c r="AD127" s="14"/>
-      <c r="AE127" s="14"/>
-      <c r="AF127" s="14"/>
-      <c r="AG127" s="14"/>
-      <c r="AH127" s="14"/>
-      <c r="AI127" s="14"/>
-      <c r="AJ127" s="14"/>
-      <c r="AK127" s="14"/>
-      <c r="AL127" s="14"/>
-      <c r="AM127" s="14"/>
-      <c r="AN127" s="14"/>
-      <c r="AO127" s="14"/>
-      <c r="AP127" s="14"/>
-      <c r="AQ127" s="14"/>
-      <c r="AR127" s="14"/>
-      <c r="AS127" s="14"/>
-      <c r="AT127" s="14"/>
-      <c r="AU127" s="14"/>
-      <c r="AV127" s="14"/>
-      <c r="AW127" s="14"/>
-      <c r="AX127" s="14"/>
-      <c r="AY127" s="14"/>
-      <c r="AZ127" s="14"/>
-      <c r="BA127" s="14"/>
-      <c r="BB127" s="14"/>
-      <c r="BC127" s="14"/>
-      <c r="BD127" s="14"/>
-      <c r="BE127" s="14"/>
-      <c r="BF127" s="14"/>
-      <c r="BG127" s="14"/>
-      <c r="BH127" s="14"/>
-      <c r="BI127" s="14"/>
-      <c r="BJ127" s="14"/>
-      <c r="BK127" s="14"/>
-      <c r="BL127" s="14"/>
-      <c r="BM127" s="14"/>
-      <c r="BN127" s="14"/>
-      <c r="BO127" s="14"/>
-      <c r="BP127" s="14"/>
-      <c r="BQ127" s="14"/>
-      <c r="BR127" s="14"/>
-      <c r="BS127" s="34"/>
-    </row>
-    <row r="128" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="35"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="43"/>
-      <c r="J128" s="43"/>
-      <c r="K128" s="43"/>
-      <c r="L128" s="43"/>
-      <c r="M128" s="43"/>
-      <c r="N128" s="43"/>
-      <c r="O128" s="43"/>
-      <c r="P128" s="43"/>
-      <c r="Q128" s="43"/>
-      <c r="R128" s="43"/>
-      <c r="S128" s="43"/>
-      <c r="T128" s="43"/>
-      <c r="U128" s="43"/>
-      <c r="V128" s="43"/>
-      <c r="W128" s="43"/>
-      <c r="X128" s="14"/>
-      <c r="Y128" s="14"/>
-      <c r="Z128" s="14"/>
-      <c r="AA128" s="14"/>
-      <c r="AB128" s="14"/>
-      <c r="AC128" s="14"/>
-      <c r="AD128" s="14"/>
-      <c r="AE128" s="14"/>
-      <c r="AF128" s="14"/>
-      <c r="AG128" s="14"/>
-      <c r="AH128" s="14"/>
-      <c r="AI128" s="14"/>
-      <c r="AJ128" s="14"/>
-      <c r="AK128" s="14"/>
-      <c r="AL128" s="14"/>
-      <c r="AM128" s="14"/>
-      <c r="AN128" s="14"/>
-      <c r="AO128" s="14"/>
-      <c r="AP128" s="14"/>
-      <c r="AQ128" s="14"/>
-      <c r="AR128" s="14"/>
-      <c r="AS128" s="14"/>
-      <c r="AT128" s="14"/>
-      <c r="AU128" s="14"/>
-      <c r="AV128" s="14"/>
-      <c r="AW128" s="14"/>
-      <c r="AX128" s="14"/>
-      <c r="AY128" s="14"/>
-      <c r="AZ128" s="14"/>
-      <c r="BA128" s="14"/>
-      <c r="BB128" s="14"/>
-      <c r="BC128" s="14"/>
-      <c r="BD128" s="14"/>
-      <c r="BE128" s="14"/>
-      <c r="BF128" s="14"/>
-      <c r="BG128" s="14"/>
-      <c r="BH128" s="14"/>
-      <c r="BI128" s="14"/>
-      <c r="BJ128" s="14"/>
-      <c r="BK128" s="14"/>
-      <c r="BL128" s="14"/>
-      <c r="BM128" s="14"/>
-      <c r="BN128" s="14"/>
-      <c r="BO128" s="14"/>
-      <c r="BP128" s="14"/>
-      <c r="BQ128" s="14"/>
-      <c r="BR128" s="14"/>
-      <c r="BS128" s="34"/>
-    </row>
-    <row r="129" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="35"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
-      <c r="M129" s="43"/>
-      <c r="N129" s="43"/>
-      <c r="O129" s="43"/>
-      <c r="P129" s="43"/>
-      <c r="Q129" s="43"/>
-      <c r="R129" s="43"/>
-      <c r="S129" s="43"/>
-      <c r="T129" s="43"/>
-      <c r="U129" s="43"/>
-      <c r="V129" s="43"/>
-      <c r="W129" s="43"/>
-      <c r="X129" s="14"/>
-      <c r="Y129" s="14"/>
-      <c r="Z129" s="14"/>
-      <c r="AA129" s="14"/>
-      <c r="AB129" s="14"/>
-      <c r="AC129" s="14"/>
-      <c r="AD129" s="14"/>
-      <c r="AE129" s="14"/>
-      <c r="AF129" s="14"/>
-      <c r="AG129" s="14"/>
-      <c r="AH129" s="14"/>
-      <c r="AI129" s="14"/>
-      <c r="AJ129" s="14"/>
-      <c r="AK129" s="14"/>
-      <c r="AL129" s="14"/>
-      <c r="AM129" s="14"/>
-      <c r="AN129" s="14"/>
-      <c r="AO129" s="14"/>
-      <c r="AP129" s="14"/>
-      <c r="AQ129" s="14"/>
-      <c r="AR129" s="14"/>
-      <c r="AS129" s="14"/>
-      <c r="AT129" s="14"/>
-      <c r="AU129" s="14"/>
-      <c r="AV129" s="14"/>
-      <c r="AW129" s="14"/>
-      <c r="AX129" s="14"/>
-      <c r="AY129" s="14"/>
-      <c r="AZ129" s="14"/>
-      <c r="BA129" s="14"/>
-      <c r="BB129" s="14"/>
-      <c r="BC129" s="14"/>
-      <c r="BD129" s="14"/>
-      <c r="BE129" s="14"/>
-      <c r="BF129" s="14"/>
-      <c r="BG129" s="14"/>
-      <c r="BH129" s="14"/>
-      <c r="BI129" s="14"/>
-      <c r="BJ129" s="14"/>
-      <c r="BK129" s="14"/>
-      <c r="BL129" s="14"/>
-      <c r="BM129" s="14"/>
-      <c r="BN129" s="14"/>
-      <c r="BO129" s="14"/>
-      <c r="BP129" s="14"/>
-      <c r="BQ129" s="14"/>
-      <c r="BR129" s="14"/>
-      <c r="BS129" s="34"/>
-    </row>
-    <row r="130" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="35"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D130" s="56"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="43"/>
-      <c r="I130" s="43"/>
-      <c r="J130" s="43"/>
-      <c r="K130" s="43"/>
-      <c r="L130" s="43"/>
-      <c r="M130" s="43"/>
-      <c r="N130" s="43"/>
-      <c r="O130" s="43"/>
-      <c r="P130" s="43"/>
-      <c r="Q130" s="43"/>
-      <c r="R130" s="43"/>
-      <c r="S130" s="43"/>
-      <c r="T130" s="43"/>
-      <c r="U130" s="43"/>
-      <c r="V130" s="43"/>
-      <c r="W130" s="43"/>
-      <c r="X130" s="14"/>
-      <c r="Y130" s="14"/>
-      <c r="Z130" s="14"/>
-      <c r="AA130" s="14"/>
-      <c r="AB130" s="14"/>
-      <c r="AC130" s="14"/>
-      <c r="AD130" s="14"/>
-      <c r="AE130" s="14"/>
-      <c r="AF130" s="14"/>
-      <c r="AG130" s="14"/>
-      <c r="AH130" s="14"/>
-      <c r="AI130" s="14"/>
-      <c r="AJ130" s="14"/>
-      <c r="AK130" s="14"/>
-      <c r="AL130" s="14"/>
-      <c r="AM130" s="14"/>
-      <c r="AN130" s="14"/>
-      <c r="AO130" s="14"/>
-      <c r="AP130" s="14"/>
-      <c r="AQ130" s="14"/>
-      <c r="AR130" s="14"/>
-      <c r="AS130" s="14"/>
-      <c r="AT130" s="14"/>
-      <c r="AU130" s="14"/>
-      <c r="AV130" s="14"/>
-      <c r="AW130" s="14"/>
-      <c r="AX130" s="14"/>
-      <c r="AY130" s="14"/>
-      <c r="AZ130" s="14"/>
-      <c r="BA130" s="14"/>
-      <c r="BB130" s="14"/>
-      <c r="BC130" s="14"/>
-      <c r="BD130" s="14"/>
-      <c r="BE130" s="14"/>
-      <c r="BF130" s="14"/>
-      <c r="BG130" s="14"/>
-      <c r="BH130" s="14"/>
-      <c r="BI130" s="14"/>
-      <c r="BJ130" s="14"/>
-      <c r="BK130" s="14"/>
-      <c r="BL130" s="14"/>
-      <c r="BM130" s="14"/>
-      <c r="BN130" s="14"/>
-      <c r="BO130" s="14"/>
-      <c r="BP130" s="14"/>
-      <c r="BQ130" s="14"/>
-      <c r="BR130" s="14"/>
-      <c r="BS130" s="34"/>
-    </row>
-    <row r="131" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="35"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D131" s="56"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="43"/>
-      <c r="I131" s="43"/>
-      <c r="J131" s="43"/>
-      <c r="K131" s="43"/>
-      <c r="L131" s="43"/>
-      <c r="M131" s="43"/>
-      <c r="N131" s="43"/>
-      <c r="O131" s="43"/>
-      <c r="P131" s="43"/>
-      <c r="Q131" s="43"/>
-      <c r="R131" s="43"/>
-      <c r="S131" s="43"/>
-      <c r="T131" s="43"/>
-      <c r="U131" s="43"/>
-      <c r="V131" s="43"/>
-      <c r="W131" s="43"/>
-      <c r="X131" s="14"/>
-      <c r="Y131" s="14"/>
-      <c r="Z131" s="14"/>
-      <c r="AA131" s="14"/>
-      <c r="AB131" s="14"/>
-      <c r="AC131" s="14"/>
-      <c r="AD131" s="14"/>
-      <c r="AE131" s="14"/>
-      <c r="AF131" s="14"/>
-      <c r="AG131" s="14"/>
-      <c r="AH131" s="14"/>
-      <c r="AI131" s="14"/>
-      <c r="AJ131" s="14"/>
-      <c r="AK131" s="14"/>
-      <c r="AL131" s="14"/>
-      <c r="AM131" s="14"/>
-      <c r="AN131" s="14"/>
-      <c r="AO131" s="14"/>
-      <c r="AP131" s="14"/>
-      <c r="AQ131" s="14"/>
-      <c r="AR131" s="14"/>
-      <c r="AS131" s="14"/>
-      <c r="AT131" s="14"/>
-      <c r="AU131" s="14"/>
-      <c r="AV131" s="14"/>
-      <c r="AW131" s="14"/>
-      <c r="AX131" s="14"/>
-      <c r="AY131" s="14"/>
-      <c r="AZ131" s="14"/>
-      <c r="BA131" s="14"/>
-      <c r="BB131" s="14"/>
-      <c r="BC131" s="14"/>
-      <c r="BD131" s="14"/>
-      <c r="BE131" s="14"/>
-      <c r="BF131" s="14"/>
-      <c r="BG131" s="14"/>
-      <c r="BH131" s="14"/>
-      <c r="BI131" s="14"/>
-      <c r="BJ131" s="14"/>
-      <c r="BK131" s="14"/>
-      <c r="BL131" s="14"/>
-      <c r="BM131" s="14"/>
-      <c r="BN131" s="14"/>
-      <c r="BO131" s="14"/>
-      <c r="BP131" s="14"/>
-      <c r="BQ131" s="14"/>
-      <c r="BR131" s="14"/>
-      <c r="BS131" s="34"/>
-    </row>
-    <row r="132" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="35"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="75"/>
-      <c r="D132" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="43"/>
-      <c r="L132" s="43"/>
-      <c r="M132" s="43"/>
-      <c r="N132" s="43"/>
-      <c r="O132" s="43"/>
-      <c r="P132" s="43"/>
-      <c r="Q132" s="43"/>
-      <c r="R132" s="43"/>
-      <c r="S132" s="43"/>
-      <c r="T132" s="43"/>
-      <c r="U132" s="43"/>
-      <c r="V132" s="43"/>
-      <c r="W132" s="43"/>
-      <c r="X132" s="14"/>
-      <c r="Y132" s="14"/>
-      <c r="Z132" s="14"/>
-      <c r="AA132" s="14"/>
-      <c r="AB132" s="14"/>
-      <c r="AC132" s="14"/>
-      <c r="AD132" s="14"/>
-      <c r="AE132" s="14"/>
-      <c r="AF132" s="14"/>
-      <c r="AG132" s="14"/>
-      <c r="AH132" s="14"/>
-      <c r="AI132" s="14"/>
-      <c r="AJ132" s="14"/>
-      <c r="AK132" s="14"/>
-      <c r="AL132" s="14"/>
-      <c r="AM132" s="14"/>
-      <c r="AN132" s="14"/>
-      <c r="AO132" s="14"/>
-      <c r="AP132" s="14"/>
-      <c r="AQ132" s="14"/>
-      <c r="AR132" s="14"/>
-      <c r="AS132" s="14"/>
-      <c r="AT132" s="14"/>
-      <c r="AU132" s="14"/>
-      <c r="AV132" s="14"/>
-      <c r="AW132" s="14"/>
-      <c r="AX132" s="14"/>
-      <c r="AY132" s="14"/>
-      <c r="AZ132" s="14"/>
-      <c r="BA132" s="14"/>
-      <c r="BB132" s="14"/>
-      <c r="BC132" s="14"/>
-      <c r="BD132" s="14"/>
-      <c r="BE132" s="14"/>
-      <c r="BF132" s="14"/>
-      <c r="BG132" s="14"/>
-      <c r="BH132" s="14"/>
-      <c r="BI132" s="14"/>
-      <c r="BJ132" s="14"/>
-      <c r="BK132" s="14"/>
-      <c r="BL132" s="14"/>
-      <c r="BM132" s="14"/>
-      <c r="BN132" s="14"/>
-      <c r="BO132" s="14"/>
-      <c r="BP132" s="14"/>
-      <c r="BQ132" s="14"/>
-      <c r="BR132" s="14"/>
-      <c r="BS132" s="34"/>
-    </row>
-    <row r="133" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="35"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="43"/>
-      <c r="I133" s="43"/>
-      <c r="J133" s="43"/>
-      <c r="K133" s="43"/>
-      <c r="L133" s="43"/>
-      <c r="M133" s="43"/>
-      <c r="N133" s="43"/>
-      <c r="O133" s="43"/>
-      <c r="P133" s="43"/>
-      <c r="Q133" s="43"/>
-      <c r="R133" s="43"/>
-      <c r="S133" s="43"/>
-      <c r="T133" s="43"/>
-      <c r="U133" s="43"/>
-      <c r="V133" s="43"/>
-      <c r="W133" s="43"/>
-      <c r="X133" s="14"/>
-      <c r="Y133" s="14"/>
-      <c r="Z133" s="14"/>
-      <c r="AA133" s="14"/>
-      <c r="AB133" s="14"/>
-      <c r="AC133" s="14"/>
-      <c r="AD133" s="14"/>
-      <c r="AE133" s="14"/>
-      <c r="AF133" s="14"/>
-      <c r="AG133" s="14"/>
-      <c r="AH133" s="14"/>
-      <c r="AI133" s="14"/>
-      <c r="AJ133" s="14"/>
-      <c r="AK133" s="14"/>
-      <c r="AL133" s="14"/>
-      <c r="AM133" s="14"/>
-      <c r="AN133" s="14"/>
-      <c r="AO133" s="14"/>
-      <c r="AP133" s="14"/>
-      <c r="AQ133" s="14"/>
-      <c r="AR133" s="14"/>
-      <c r="AS133" s="14"/>
-      <c r="AT133" s="14"/>
-      <c r="AU133" s="14"/>
-      <c r="AV133" s="14"/>
-      <c r="AW133" s="14"/>
-      <c r="AX133" s="14"/>
-      <c r="AY133" s="14"/>
-      <c r="AZ133" s="14"/>
-      <c r="BA133" s="14"/>
-      <c r="BB133" s="14"/>
-      <c r="BC133" s="14"/>
-      <c r="BD133" s="14"/>
-      <c r="BE133" s="14"/>
-      <c r="BF133" s="14"/>
-      <c r="BG133" s="14"/>
-      <c r="BH133" s="14"/>
-      <c r="BI133" s="14"/>
-      <c r="BJ133" s="14"/>
-      <c r="BK133" s="14"/>
-      <c r="BL133" s="14"/>
-      <c r="BM133" s="14"/>
-      <c r="BN133" s="14"/>
-      <c r="BO133" s="14"/>
-      <c r="BP133" s="14"/>
-      <c r="BQ133" s="14"/>
-      <c r="BR133" s="14"/>
-      <c r="BS133" s="34"/>
-    </row>
-    <row r="134" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="35"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="43"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="43"/>
-      <c r="K134" s="43"/>
-      <c r="L134" s="43"/>
-      <c r="M134" s="43"/>
-      <c r="N134" s="43"/>
-      <c r="O134" s="43"/>
-      <c r="P134" s="43"/>
-      <c r="Q134" s="43"/>
-      <c r="R134" s="43"/>
-      <c r="S134" s="43"/>
-      <c r="T134" s="43"/>
-      <c r="U134" s="43"/>
-      <c r="V134" s="43"/>
-      <c r="W134" s="43"/>
-      <c r="X134" s="14"/>
-      <c r="Y134" s="14"/>
-      <c r="Z134" s="14"/>
-      <c r="AA134" s="14"/>
-      <c r="AB134" s="14"/>
-      <c r="AC134" s="14"/>
-      <c r="AD134" s="14"/>
-      <c r="AE134" s="14"/>
-      <c r="AF134" s="14"/>
-      <c r="AG134" s="14"/>
-      <c r="AH134" s="14"/>
-      <c r="AI134" s="14"/>
-      <c r="AJ134" s="14"/>
-      <c r="AK134" s="14"/>
-      <c r="AL134" s="14"/>
-      <c r="AM134" s="14"/>
-      <c r="AN134" s="14"/>
-      <c r="AO134" s="14"/>
-      <c r="AP134" s="14"/>
-      <c r="AQ134" s="14"/>
-      <c r="AR134" s="14"/>
-      <c r="AS134" s="14"/>
-      <c r="AT134" s="14"/>
-      <c r="AU134" s="14"/>
-      <c r="AV134" s="14"/>
-      <c r="AW134" s="14"/>
-      <c r="AX134" s="14"/>
-      <c r="AY134" s="14"/>
-      <c r="AZ134" s="14"/>
-      <c r="BA134" s="14"/>
-      <c r="BB134" s="14"/>
-      <c r="BC134" s="14"/>
-      <c r="BD134" s="14"/>
-      <c r="BE134" s="14"/>
-      <c r="BF134" s="14"/>
-      <c r="BG134" s="14"/>
-      <c r="BH134" s="14"/>
-      <c r="BI134" s="14"/>
-      <c r="BJ134" s="14"/>
-      <c r="BK134" s="14"/>
-      <c r="BL134" s="14"/>
-      <c r="BM134" s="14"/>
-      <c r="BN134" s="14"/>
-      <c r="BO134" s="14"/>
-      <c r="BP134" s="14"/>
-      <c r="BQ134" s="14"/>
-      <c r="BR134" s="14"/>
-      <c r="BS134" s="34"/>
-    </row>
-    <row r="135" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="35"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D135" s="56"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-      <c r="K135" s="43"/>
-      <c r="L135" s="43"/>
-      <c r="M135" s="43"/>
-      <c r="N135" s="43"/>
-      <c r="O135" s="43"/>
-      <c r="P135" s="43"/>
-      <c r="Q135" s="43"/>
-      <c r="R135" s="43"/>
-      <c r="S135" s="43"/>
-      <c r="T135" s="43"/>
-      <c r="U135" s="43"/>
-      <c r="V135" s="43"/>
-      <c r="W135" s="43"/>
-      <c r="X135" s="14"/>
-      <c r="Y135" s="14"/>
-      <c r="Z135" s="14"/>
-      <c r="AA135" s="14"/>
-      <c r="AB135" s="14"/>
-      <c r="AC135" s="14"/>
-      <c r="AD135" s="14"/>
-      <c r="AE135" s="14"/>
-      <c r="AF135" s="14"/>
-      <c r="AG135" s="14"/>
-      <c r="AH135" s="14"/>
-      <c r="AI135" s="14"/>
-      <c r="AJ135" s="14"/>
-      <c r="AK135" s="14"/>
-      <c r="AL135" s="14"/>
-      <c r="AM135" s="14"/>
-      <c r="AN135" s="14"/>
-      <c r="AO135" s="14"/>
-      <c r="AP135" s="14"/>
-      <c r="AQ135" s="14"/>
-      <c r="AR135" s="14"/>
-      <c r="AS135" s="14"/>
-      <c r="AT135" s="14"/>
-      <c r="AU135" s="14"/>
-      <c r="AV135" s="14"/>
-      <c r="AW135" s="14"/>
-      <c r="AX135" s="14"/>
-      <c r="AY135" s="14"/>
-      <c r="AZ135" s="14"/>
-      <c r="BA135" s="14"/>
-      <c r="BB135" s="14"/>
-      <c r="BC135" s="14"/>
-      <c r="BD135" s="14"/>
-      <c r="BE135" s="14"/>
-      <c r="BF135" s="14"/>
-      <c r="BG135" s="14"/>
-      <c r="BH135" s="14"/>
-      <c r="BI135" s="14"/>
-      <c r="BJ135" s="14"/>
-      <c r="BK135" s="14"/>
-      <c r="BL135" s="14"/>
-      <c r="BM135" s="14"/>
-      <c r="BN135" s="14"/>
-      <c r="BO135" s="14"/>
-      <c r="BP135" s="14"/>
-      <c r="BQ135" s="14"/>
-      <c r="BR135" s="14"/>
-      <c r="BS135" s="34"/>
-    </row>
-    <row r="136" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="36"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D136" s="56"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="43"/>
-      <c r="I136" s="43"/>
-      <c r="J136" s="43"/>
-      <c r="K136" s="43"/>
-      <c r="L136" s="43"/>
-      <c r="M136" s="43"/>
-      <c r="N136" s="43"/>
-      <c r="O136" s="43"/>
-      <c r="P136" s="43"/>
-      <c r="Q136" s="43"/>
-      <c r="R136" s="43"/>
-      <c r="S136" s="43"/>
-      <c r="T136" s="43"/>
-      <c r="U136" s="43"/>
-      <c r="V136" s="43"/>
-      <c r="W136" s="43"/>
-      <c r="X136" s="14"/>
-      <c r="Y136" s="14"/>
-      <c r="Z136" s="14"/>
-      <c r="AA136" s="14"/>
-      <c r="AB136" s="14"/>
-      <c r="AC136" s="14"/>
-      <c r="AD136" s="14"/>
-      <c r="AE136" s="14"/>
-      <c r="AF136" s="14"/>
-      <c r="AG136" s="14"/>
-      <c r="AH136" s="14"/>
-      <c r="AI136" s="14"/>
-      <c r="AJ136" s="14"/>
-      <c r="AK136" s="14"/>
-      <c r="AL136" s="14"/>
-      <c r="AM136" s="14"/>
-      <c r="AN136" s="14"/>
-      <c r="AO136" s="14"/>
-      <c r="AP136" s="14"/>
-      <c r="AQ136" s="14"/>
-      <c r="AR136" s="14"/>
-      <c r="AS136" s="14"/>
-      <c r="AT136" s="14"/>
-      <c r="AU136" s="14"/>
-      <c r="AV136" s="14"/>
-      <c r="AW136" s="14"/>
-      <c r="AX136" s="14"/>
-      <c r="AY136" s="14"/>
-      <c r="AZ136" s="14"/>
-      <c r="BA136" s="14"/>
-      <c r="BB136" s="14"/>
-      <c r="BC136" s="14"/>
-      <c r="BD136" s="14"/>
-      <c r="BE136" s="14"/>
-      <c r="BF136" s="14"/>
-      <c r="BG136" s="14"/>
-      <c r="BH136" s="14"/>
-      <c r="BI136" s="14"/>
-      <c r="BJ136" s="14"/>
-      <c r="BK136" s="14"/>
-      <c r="BL136" s="14"/>
-      <c r="BM136" s="14"/>
-      <c r="BN136" s="14"/>
-      <c r="BO136" s="14"/>
-      <c r="BP136" s="14"/>
-      <c r="BQ136" s="14"/>
-      <c r="BR136" s="14"/>
-      <c r="BS136" s="34"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:D4"/>
@@ -13080,7 +11437,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BS9 H16:BS136">
+  <conditionalFormatting sqref="H5:BS9 H14:BS115">
     <cfRule type="expression" dxfId="36" priority="97" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -13155,34 +11512,6 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:BS15">
-    <cfRule type="expression" dxfId="15" priority="73" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="75" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="76" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:BS15">
-    <cfRule type="expression" dxfId="11" priority="69" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="71" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="72" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
     <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
@@ -13258,7 +11587,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="72"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="4">
         <v>41434</v>
       </c>
@@ -13269,7 +11598,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="73"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="4">
         <v>41440</v>
       </c>
@@ -13280,7 +11609,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="73"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="4">
         <v>41441</v>
       </c>
@@ -13291,7 +11620,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="73"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="4">
         <v>41447</v>
       </c>
@@ -13302,7 +11631,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="73"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="4">
         <v>41448</v>
       </c>
@@ -13313,7 +11642,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="73"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="4">
         <v>41454</v>
       </c>
@@ -13324,7 +11653,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="4">
         <v>41455</v>
       </c>
@@ -13335,7 +11664,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="73"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="4">
         <v>41461</v>
       </c>
@@ -13346,7 +11675,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="73"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="4">
         <v>41462</v>
       </c>
@@ -13357,7 +11686,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="73"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="4">
         <v>41468</v>
       </c>
@@ -13368,7 +11697,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="73"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="4">
         <v>41469</v>
       </c>
@@ -13379,7 +11708,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="73"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="4">
         <v>41475</v>
       </c>
@@ -13390,7 +11719,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="73"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="4">
         <v>41476</v>
       </c>
@@ -13401,7 +11730,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="73"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="4">
         <v>41482</v>
       </c>
@@ -13412,7 +11741,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="73"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="4">
         <v>41483</v>
       </c>
@@ -13423,7 +11752,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="73"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="4">
         <v>41489</v>
       </c>
@@ -13434,7 +11763,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="73"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="4">
         <v>41490</v>
       </c>
@@ -13445,7 +11774,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="73"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="4">
         <v>41496</v>
       </c>
@@ -13456,7 +11785,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="73"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="4">
         <v>41497</v>
       </c>
@@ -13467,7 +11796,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="74"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="4">
         <v>41499</v>
       </c>

--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4BA9B8-E497-4128-8891-CB76D91B5A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3D5C84-A1DF-4D57-8555-B29B887652EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -347,13 +347,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>未</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ラジオボタン作成</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
@@ -640,6 +633,103 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>他のスクリプトの変数、メソッドを使う方法調査</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>他のシーンのメソッド、変数を参照する方法調査</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データベースからデータ取得方法調査</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C# Listの使い方学習</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>enum使い方調査</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C#ハッシュ値生成の方法調査</t>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -730,7 +820,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,6 +908,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -1185,7 +1281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,6 +1419,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2066,13 +2165,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS115"/>
+  <dimension ref="A1:BS121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomRight" activeCell="F95" sqref="F95:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2087,22 +2186,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
       <c r="H2" s="25">
         <f>H3</f>
         <v>44083</v>
@@ -2620,11 +2719,11 @@
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
@@ -3773,7 +3872,7 @@
       <c r="B16" s="12"/>
       <c r="C16" s="44"/>
       <c r="D16" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="58">
         <v>5</v>
@@ -4008,7 +4107,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="44"/>
       <c r="D19" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="58">
         <v>2</v>
@@ -4085,7 +4184,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="44"/>
       <c r="D20" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="58">
         <v>3</v>
@@ -4162,7 +4261,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="44"/>
       <c r="D21" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="46">
         <v>1</v>
@@ -4239,7 +4338,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="44"/>
       <c r="D22" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="58">
         <v>1</v>
@@ -4474,7 +4573,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="67"/>
       <c r="D25" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="58">
         <v>2</v>
@@ -4551,7 +4650,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="67"/>
       <c r="D26" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="46">
         <v>1</v>
@@ -4628,7 +4727,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="67"/>
       <c r="D27" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="58">
         <v>1</v>
@@ -4705,7 +4804,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="67"/>
       <c r="D28" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="58">
         <v>1</v>
@@ -4782,7 +4881,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="67"/>
       <c r="D29" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="58">
         <v>1</v>
@@ -4859,7 +4958,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="67"/>
       <c r="D30" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="46">
         <v>0.5</v>
@@ -4936,7 +5035,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="67"/>
       <c r="D31" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="58">
         <v>0.5</v>
@@ -5094,7 +5193,7 @@
       <c r="B33" s="69"/>
       <c r="C33" s="67"/>
       <c r="D33" s="68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="58">
         <v>3</v>
@@ -5171,7 +5270,7 @@
       <c r="B34" s="69"/>
       <c r="C34" s="39"/>
       <c r="D34" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="58">
         <v>1</v>
@@ -5248,7 +5347,7 @@
       <c r="B35" s="69"/>
       <c r="C35" s="67"/>
       <c r="D35" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="58">
         <v>2</v>
@@ -5325,7 +5424,7 @@
       <c r="B36" s="69"/>
       <c r="C36" s="67"/>
       <c r="D36" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="46">
         <v>1</v>
@@ -5483,7 +5582,7 @@
       <c r="B38" s="63"/>
       <c r="C38" s="44"/>
       <c r="D38" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="58">
         <v>3</v>
@@ -5560,7 +5659,7 @@
       <c r="B39" s="70"/>
       <c r="C39" s="44"/>
       <c r="D39" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="46">
         <v>2</v>
@@ -5637,7 +5736,7 @@
       <c r="B40" s="70"/>
       <c r="C40" s="44"/>
       <c r="D40" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="46">
         <v>2</v>
@@ -5795,7 +5894,7 @@
       <c r="B42" s="12"/>
       <c r="C42" s="67"/>
       <c r="D42" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="46">
         <v>3</v>
@@ -5872,7 +5971,7 @@
       <c r="B43" s="12"/>
       <c r="C43" s="67"/>
       <c r="D43" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="46">
         <v>3</v>
@@ -5949,7 +6048,7 @@
       <c r="B44" s="12"/>
       <c r="C44" s="67"/>
       <c r="D44" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="46">
         <v>1</v>
@@ -6184,7 +6283,7 @@
       <c r="B47" s="12"/>
       <c r="C47" s="44"/>
       <c r="D47" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="46">
         <v>4</v>
@@ -6261,7 +6360,7 @@
       <c r="B48" s="12"/>
       <c r="C48" s="44"/>
       <c r="D48" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="46">
         <v>3</v>
@@ -6338,7 +6437,7 @@
       <c r="B49" s="12"/>
       <c r="C49" s="44"/>
       <c r="D49" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49" s="46">
         <v>3</v>
@@ -6496,7 +6595,7 @@
       <c r="B51" s="12"/>
       <c r="C51" s="67"/>
       <c r="D51" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" s="46">
         <v>2</v>
@@ -6573,7 +6672,7 @@
       <c r="B52" s="12"/>
       <c r="C52" s="67"/>
       <c r="D52" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52" s="46">
         <v>2</v>
@@ -6650,7 +6749,7 @@
       <c r="B53" s="12"/>
       <c r="C53" s="67"/>
       <c r="D53" s="68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" s="46">
         <v>2</v>
@@ -6727,7 +6826,7 @@
       <c r="B54" s="12"/>
       <c r="C54" s="67"/>
       <c r="D54" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" s="46">
         <v>2</v>
@@ -6804,7 +6903,7 @@
       <c r="B55" s="12"/>
       <c r="C55" s="67"/>
       <c r="D55" s="68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" s="46">
         <v>1</v>
@@ -7742,7 +7841,9 @@
       <c r="F67" s="15">
         <v>44096</v>
       </c>
-      <c r="G67" s="16"/>
+      <c r="G67" s="16">
+        <v>44099</v>
+      </c>
       <c r="H67" s="43"/>
       <c r="I67" s="43"/>
       <c r="J67" s="43"/>
@@ -7759,7 +7860,7 @@
       <c r="U67" s="66"/>
       <c r="V67" s="43"/>
       <c r="W67" s="43"/>
-      <c r="X67" s="14"/>
+      <c r="X67" s="66"/>
       <c r="Y67" s="14"/>
       <c r="Z67" s="14"/>
       <c r="AA67" s="14"/>
@@ -7815,8 +7916,8 @@
       <c r="D68" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="65" t="s">
-        <v>37</v>
+      <c r="E68" s="65">
+        <v>5</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="16"/>
@@ -7836,7 +7937,6 @@
       <c r="U68" s="43"/>
       <c r="V68" s="43"/>
       <c r="W68" s="43"/>
-      <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
       <c r="Z68" s="14"/>
       <c r="AA68" s="14"/>
@@ -7889,11 +7989,11 @@
       <c r="A69" s="35"/>
       <c r="B69" s="12"/>
       <c r="C69" s="44"/>
-      <c r="D69" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E69" s="65" t="s">
-        <v>37</v>
+      <c r="D69" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="65">
+        <v>1</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="16"/>
@@ -7965,14 +8065,14 @@
     <row r="70" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="35"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="15">
-        <v>44097</v>
-      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="65">
+        <v>3</v>
+      </c>
+      <c r="F70" s="15"/>
       <c r="G70" s="16"/>
       <c r="H70" s="43"/>
       <c r="I70" s="43"/>
@@ -7988,7 +8088,7 @@
       <c r="S70" s="43"/>
       <c r="T70" s="43"/>
       <c r="U70" s="43"/>
-      <c r="V70" s="66"/>
+      <c r="V70" s="43"/>
       <c r="W70" s="43"/>
       <c r="X70" s="14"/>
       <c r="Y70" s="14"/>
@@ -8042,15 +8142,17 @@
     <row r="71" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="35"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="65">
-        <v>2</v>
-      </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="16"/>
+      <c r="C71" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="56"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="15">
+        <v>44097</v>
+      </c>
+      <c r="G71" s="16">
+        <v>44098</v>
+      </c>
       <c r="H71" s="43"/>
       <c r="I71" s="43"/>
       <c r="J71" s="43"/>
@@ -8065,8 +8167,8 @@
       <c r="S71" s="43"/>
       <c r="T71" s="43"/>
       <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
       <c r="X71" s="14"/>
       <c r="Y71" s="14"/>
       <c r="Z71" s="14"/>
@@ -8121,10 +8223,10 @@
       <c r="B72" s="12"/>
       <c r="C72" s="44"/>
       <c r="D72" s="45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E72" s="65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="16"/>
@@ -8201,7 +8303,7 @@
         <v>38</v>
       </c>
       <c r="E73" s="65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="16"/>
@@ -8275,10 +8377,10 @@
       <c r="B74" s="12"/>
       <c r="C74" s="44"/>
       <c r="D74" s="45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E74" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="16"/>
@@ -8352,9 +8454,11 @@
       <c r="B75" s="12"/>
       <c r="C75" s="44"/>
       <c r="D75" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="E75" s="65">
+        <v>2</v>
+      </c>
       <c r="F75" s="15"/>
       <c r="G75" s="16"/>
       <c r="H75" s="43"/>
@@ -8423,13 +8527,15 @@
       <c r="BS75" s="34"/>
     </row>
     <row r="76" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="59"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="24"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="65" t="s">
+        <v>64</v>
+      </c>
       <c r="F76" s="15"/>
       <c r="G76" s="16"/>
       <c r="H76" s="43"/>
@@ -8500,11 +8606,13 @@
     <row r="77" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="59"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="24"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" s="65">
+        <v>2</v>
+      </c>
       <c r="F77" s="15"/>
       <c r="G77" s="16"/>
       <c r="H77" s="43"/>
@@ -8575,12 +8683,14 @@
     <row r="78" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="59"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="15"/>
+      <c r="C78" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="56"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="15">
+        <v>44098</v>
+      </c>
       <c r="G78" s="16"/>
       <c r="H78" s="43"/>
       <c r="I78" s="43"/>
@@ -8598,10 +8708,10 @@
       <c r="U78" s="43"/>
       <c r="V78" s="43"/>
       <c r="W78" s="43"/>
-      <c r="X78" s="14"/>
-      <c r="Y78" s="14"/>
-      <c r="Z78" s="14"/>
-      <c r="AA78" s="14"/>
+      <c r="X78" s="66"/>
+      <c r="Y78" s="66"/>
+      <c r="Z78" s="66"/>
+      <c r="AA78" s="66"/>
       <c r="AB78" s="14"/>
       <c r="AC78" s="14"/>
       <c r="AD78" s="14"/>
@@ -8651,10 +8761,12 @@
       <c r="A79" s="59"/>
       <c r="B79" s="12"/>
       <c r="C79" s="67"/>
-      <c r="D79" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="24"/>
+      <c r="D79" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="65">
+        <v>2</v>
+      </c>
       <c r="F79" s="15"/>
       <c r="G79" s="16"/>
       <c r="H79" s="43"/>
@@ -8727,9 +8839,9 @@
       <c r="B80" s="12"/>
       <c r="C80" s="67"/>
       <c r="D80" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="E80" s="65"/>
       <c r="F80" s="15"/>
       <c r="G80" s="16"/>
       <c r="H80" s="43"/>
@@ -8801,10 +8913,12 @@
       <c r="A81" s="59"/>
       <c r="B81" s="12"/>
       <c r="C81" s="67"/>
-      <c r="D81" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81" s="24"/>
+      <c r="D81" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="65">
+        <v>2.5</v>
+      </c>
       <c r="F81" s="15"/>
       <c r="G81" s="16"/>
       <c r="H81" s="43"/>
@@ -8876,10 +8990,12 @@
       <c r="A82" s="59"/>
       <c r="B82" s="12"/>
       <c r="C82" s="67"/>
-      <c r="D82" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="24"/>
+      <c r="D82" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="65">
+        <v>1</v>
+      </c>
       <c r="F82" s="15"/>
       <c r="G82" s="16"/>
       <c r="H82" s="43"/>
@@ -8952,9 +9068,11 @@
       <c r="B83" s="12"/>
       <c r="C83" s="67"/>
       <c r="D83" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E83" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="E83" s="65">
+        <v>5</v>
+      </c>
       <c r="F83" s="15"/>
       <c r="G83" s="16"/>
       <c r="H83" s="43"/>
@@ -9027,9 +9145,11 @@
       <c r="B84" s="12"/>
       <c r="C84" s="67"/>
       <c r="D84" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E84" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="E84" s="65">
+        <v>1</v>
+      </c>
       <c r="F84" s="15"/>
       <c r="G84" s="16"/>
       <c r="H84" s="43"/>
@@ -9099,12 +9219,14 @@
     </row>
     <row r="85" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="59"/>
-      <c r="B85" s="62"/>
-      <c r="C85" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="56"/>
-      <c r="E85" s="24"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="65">
+        <v>1</v>
+      </c>
       <c r="F85" s="15"/>
       <c r="G85" s="16"/>
       <c r="H85" s="43"/>
@@ -9174,12 +9296,14 @@
     </row>
     <row r="86" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="59"/>
-      <c r="B86" s="69"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="67"/>
-      <c r="D86" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E86" s="24"/>
+      <c r="D86" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="65">
+        <v>10</v>
+      </c>
       <c r="F86" s="15"/>
       <c r="G86" s="16"/>
       <c r="H86" s="43"/>
@@ -9249,12 +9373,14 @@
     </row>
     <row r="87" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="59"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E87" s="24"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="65">
+        <v>2</v>
+      </c>
       <c r="F87" s="15"/>
       <c r="G87" s="16"/>
       <c r="H87" s="43"/>
@@ -9324,12 +9450,12 @@
     </row>
     <row r="88" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="59"/>
-      <c r="B88" s="69"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="67"/>
-      <c r="D88" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E88" s="24"/>
+      <c r="D88" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="65"/>
       <c r="F88" s="15"/>
       <c r="G88" s="16"/>
       <c r="H88" s="43"/>
@@ -9398,13 +9524,15 @@
       <c r="BS88" s="34"/>
     </row>
     <row r="89" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="60"/>
-      <c r="B89" s="69"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="67"/>
-      <c r="D89" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="24"/>
+      <c r="D89" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="65">
+        <v>0.25</v>
+      </c>
       <c r="F89" s="15"/>
       <c r="G89" s="16"/>
       <c r="H89" s="43"/>
@@ -9473,13 +9601,15 @@
       <c r="BS89" s="34"/>
     </row>
     <row r="90" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="60"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="56"/>
-      <c r="E90" s="24"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" s="65">
+        <v>0.25</v>
+      </c>
       <c r="F90" s="15"/>
       <c r="G90" s="16"/>
       <c r="H90" s="43"/>
@@ -9548,15 +9678,19 @@
       <c r="BS90" s="34"/>
     </row>
     <row r="91" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="60"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="16"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="56"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="15">
+        <v>44102</v>
+      </c>
+      <c r="G91" s="16">
+        <v>44102</v>
+      </c>
       <c r="H91" s="43"/>
       <c r="I91" s="43"/>
       <c r="J91" s="43"/>
@@ -9575,9 +9709,7 @@
       <c r="W91" s="43"/>
       <c r="X91" s="14"/>
       <c r="Y91" s="14"/>
-      <c r="Z91" s="14"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="14"/>
+      <c r="AA91" s="66"/>
       <c r="AC91" s="14"/>
       <c r="AD91" s="14"/>
       <c r="AE91" s="14"/>
@@ -9623,13 +9755,15 @@
       <c r="BS91" s="34"/>
     </row>
     <row r="92" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="60"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E92" s="24"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" s="65">
+        <v>3</v>
+      </c>
       <c r="F92" s="15"/>
       <c r="G92" s="16"/>
       <c r="H92" s="43"/>
@@ -9699,12 +9833,12 @@
     </row>
     <row r="93" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="59"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" s="24"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93" s="65"/>
       <c r="F93" s="15"/>
       <c r="G93" s="16"/>
       <c r="H93" s="43"/>
@@ -9773,13 +9907,13 @@
       <c r="BS93" s="34"/>
     </row>
     <row r="94" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="61"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" s="56"/>
-      <c r="E94" s="24"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="65"/>
       <c r="F94" s="15"/>
       <c r="G94" s="16"/>
       <c r="H94" s="43"/>
@@ -9849,12 +9983,14 @@
     </row>
     <row r="95" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="60"/>
-      <c r="B95" s="12"/>
+      <c r="B95" s="69"/>
       <c r="C95" s="67"/>
       <c r="D95" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="E95" s="65">
+        <v>0.25</v>
+      </c>
       <c r="F95" s="15"/>
       <c r="G95" s="16"/>
       <c r="H95" s="43"/>
@@ -9924,12 +10060,12 @@
     </row>
     <row r="96" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="60"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E96" s="24"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="56"/>
+      <c r="E96" s="65"/>
       <c r="F96" s="15"/>
       <c r="G96" s="16"/>
       <c r="H96" s="43"/>
@@ -9999,12 +10135,12 @@
     </row>
     <row r="97" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="60"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="67"/>
-      <c r="D97" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E97" s="24"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="65"/>
       <c r="F97" s="15"/>
       <c r="G97" s="16"/>
       <c r="H97" s="43"/>
@@ -10073,13 +10209,13 @@
       <c r="BS97" s="34"/>
     </row>
     <row r="98" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="59"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="24"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" s="65"/>
       <c r="F98" s="15"/>
       <c r="G98" s="16"/>
       <c r="H98" s="43"/>
@@ -10149,12 +10285,12 @@
     </row>
     <row r="99" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="59"/>
-      <c r="B99" s="12"/>
+      <c r="B99" s="70"/>
       <c r="C99" s="44"/>
       <c r="D99" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="E99" s="65"/>
       <c r="F99" s="15"/>
       <c r="G99" s="16"/>
       <c r="H99" s="43"/>
@@ -10223,13 +10359,13 @@
       <c r="BS99" s="34"/>
     </row>
     <row r="100" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="59"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E100" s="24"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="56"/>
+      <c r="E100" s="65"/>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
       <c r="H100" s="43"/>
@@ -10298,13 +10434,13 @@
       <c r="BS100" s="34"/>
     </row>
     <row r="101" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="59"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E101" s="24"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="65"/>
       <c r="F101" s="15"/>
       <c r="G101" s="16"/>
       <c r="H101" s="43"/>
@@ -10373,13 +10509,13 @@
       <c r="BS101" s="34"/>
     </row>
     <row r="102" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="59"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E102" s="24"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="65"/>
       <c r="F102" s="15"/>
       <c r="G102" s="16"/>
       <c r="H102" s="43"/>
@@ -10448,13 +10584,13 @@
       <c r="BS102" s="34"/>
     </row>
     <row r="103" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="59"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="56"/>
-      <c r="E103" s="24"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="65"/>
       <c r="F103" s="15"/>
       <c r="G103" s="16"/>
       <c r="H103" s="43"/>
@@ -10525,11 +10661,11 @@
     <row r="104" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="59"/>
       <c r="B104" s="12"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E104" s="24"/>
+      <c r="C104" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="56"/>
+      <c r="E104" s="65"/>
       <c r="F104" s="15"/>
       <c r="G104" s="16"/>
       <c r="H104" s="43"/>
@@ -10600,11 +10736,11 @@
     <row r="105" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="59"/>
       <c r="B105" s="12"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E105" s="24"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="65"/>
       <c r="F105" s="15"/>
       <c r="G105" s="16"/>
       <c r="H105" s="43"/>
@@ -10675,11 +10811,11 @@
     <row r="106" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="59"/>
       <c r="B106" s="12"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="E106" s="24"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106" s="65"/>
       <c r="F106" s="15"/>
       <c r="G106" s="16"/>
       <c r="H106" s="43"/>
@@ -10748,13 +10884,13 @@
       <c r="BS106" s="34"/>
     </row>
     <row r="107" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="35"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="12"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E107" s="24"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" s="65"/>
       <c r="F107" s="15"/>
       <c r="G107" s="16"/>
       <c r="H107" s="43"/>
@@ -10823,13 +10959,13 @@
       <c r="BS107" s="34"/>
     </row>
     <row r="108" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="35"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="12"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="E108" s="24"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E108" s="65"/>
       <c r="F108" s="15"/>
       <c r="G108" s="16"/>
       <c r="H108" s="43"/>
@@ -10898,13 +11034,13 @@
       <c r="BS108" s="34"/>
     </row>
     <row r="109" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="35"/>
+      <c r="A109" s="59"/>
       <c r="B109" s="12"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E109" s="24"/>
+      <c r="C109" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="56"/>
+      <c r="E109" s="65"/>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
       <c r="H109" s="43"/>
@@ -10973,13 +11109,13 @@
       <c r="BS109" s="34"/>
     </row>
     <row r="110" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="35"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="12"/>
-      <c r="C110" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D110" s="56"/>
-      <c r="E110" s="24"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="65"/>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
       <c r="H110" s="43"/>
@@ -11048,13 +11184,13 @@
       <c r="BS110" s="34"/>
     </row>
     <row r="111" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="35"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="12"/>
-      <c r="C111" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D111" s="56"/>
-      <c r="E111" s="24"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" s="65"/>
       <c r="F111" s="15"/>
       <c r="G111" s="16"/>
       <c r="H111" s="43"/>
@@ -11123,13 +11259,13 @@
       <c r="BS111" s="34"/>
     </row>
     <row r="112" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="35"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="12"/>
       <c r="C112" s="67"/>
       <c r="D112" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="E112" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="E112" s="65"/>
       <c r="F112" s="15"/>
       <c r="G112" s="16"/>
       <c r="H112" s="43"/>
@@ -11200,11 +11336,11 @@
     <row r="113" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="35"/>
       <c r="B113" s="12"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E113" s="24"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" s="65"/>
       <c r="F113" s="15"/>
       <c r="G113" s="16"/>
       <c r="H113" s="43"/>
@@ -11275,11 +11411,11 @@
     <row r="114" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="35"/>
       <c r="B114" s="12"/>
-      <c r="C114" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114" s="56"/>
-      <c r="E114" s="24"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="65"/>
       <c r="F114" s="15"/>
       <c r="G114" s="16"/>
       <c r="H114" s="43"/>
@@ -11348,13 +11484,13 @@
       <c r="BS114" s="34"/>
     </row>
     <row r="115" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="36"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="12"/>
-      <c r="C115" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D115" s="56"/>
-      <c r="E115" s="24"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="65"/>
       <c r="F115" s="15"/>
       <c r="G115" s="16"/>
       <c r="H115" s="43"/>
@@ -11422,6 +11558,456 @@
       <c r="BR115" s="14"/>
       <c r="BS115" s="34"/>
     </row>
+    <row r="116" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="35"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="56"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="43"/>
+      <c r="O116" s="43"/>
+      <c r="P116" s="43"/>
+      <c r="Q116" s="43"/>
+      <c r="R116" s="43"/>
+      <c r="S116" s="43"/>
+      <c r="T116" s="43"/>
+      <c r="U116" s="43"/>
+      <c r="V116" s="43"/>
+      <c r="W116" s="43"/>
+      <c r="X116" s="14"/>
+      <c r="Y116" s="14"/>
+      <c r="Z116" s="14"/>
+      <c r="AA116" s="14"/>
+      <c r="AB116" s="14"/>
+      <c r="AC116" s="14"/>
+      <c r="AD116" s="14"/>
+      <c r="AE116" s="14"/>
+      <c r="AF116" s="14"/>
+      <c r="AG116" s="14"/>
+      <c r="AH116" s="14"/>
+      <c r="AI116" s="14"/>
+      <c r="AJ116" s="14"/>
+      <c r="AK116" s="14"/>
+      <c r="AL116" s="14"/>
+      <c r="AM116" s="14"/>
+      <c r="AN116" s="14"/>
+      <c r="AO116" s="14"/>
+      <c r="AP116" s="14"/>
+      <c r="AQ116" s="14"/>
+      <c r="AR116" s="14"/>
+      <c r="AS116" s="14"/>
+      <c r="AT116" s="14"/>
+      <c r="AU116" s="14"/>
+      <c r="AV116" s="14"/>
+      <c r="AW116" s="14"/>
+      <c r="AX116" s="14"/>
+      <c r="AY116" s="14"/>
+      <c r="AZ116" s="14"/>
+      <c r="BA116" s="14"/>
+      <c r="BB116" s="14"/>
+      <c r="BC116" s="14"/>
+      <c r="BD116" s="14"/>
+      <c r="BE116" s="14"/>
+      <c r="BF116" s="14"/>
+      <c r="BG116" s="14"/>
+      <c r="BH116" s="14"/>
+      <c r="BI116" s="14"/>
+      <c r="BJ116" s="14"/>
+      <c r="BK116" s="14"/>
+      <c r="BL116" s="14"/>
+      <c r="BM116" s="14"/>
+      <c r="BN116" s="14"/>
+      <c r="BO116" s="14"/>
+      <c r="BP116" s="14"/>
+      <c r="BQ116" s="14"/>
+      <c r="BR116" s="14"/>
+      <c r="BS116" s="34"/>
+    </row>
+    <row r="117" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="35"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="56"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="43"/>
+      <c r="O117" s="43"/>
+      <c r="P117" s="43"/>
+      <c r="Q117" s="43"/>
+      <c r="R117" s="43"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="43"/>
+      <c r="U117" s="43"/>
+      <c r="V117" s="43"/>
+      <c r="W117" s="43"/>
+      <c r="X117" s="14"/>
+      <c r="Y117" s="14"/>
+      <c r="Z117" s="14"/>
+      <c r="AA117" s="14"/>
+      <c r="AB117" s="14"/>
+      <c r="AC117" s="14"/>
+      <c r="AD117" s="14"/>
+      <c r="AE117" s="14"/>
+      <c r="AF117" s="14"/>
+      <c r="AG117" s="14"/>
+      <c r="AH117" s="14"/>
+      <c r="AI117" s="14"/>
+      <c r="AJ117" s="14"/>
+      <c r="AK117" s="14"/>
+      <c r="AL117" s="14"/>
+      <c r="AM117" s="14"/>
+      <c r="AN117" s="14"/>
+      <c r="AO117" s="14"/>
+      <c r="AP117" s="14"/>
+      <c r="AQ117" s="14"/>
+      <c r="AR117" s="14"/>
+      <c r="AS117" s="14"/>
+      <c r="AT117" s="14"/>
+      <c r="AU117" s="14"/>
+      <c r="AV117" s="14"/>
+      <c r="AW117" s="14"/>
+      <c r="AX117" s="14"/>
+      <c r="AY117" s="14"/>
+      <c r="AZ117" s="14"/>
+      <c r="BA117" s="14"/>
+      <c r="BB117" s="14"/>
+      <c r="BC117" s="14"/>
+      <c r="BD117" s="14"/>
+      <c r="BE117" s="14"/>
+      <c r="BF117" s="14"/>
+      <c r="BG117" s="14"/>
+      <c r="BH117" s="14"/>
+      <c r="BI117" s="14"/>
+      <c r="BJ117" s="14"/>
+      <c r="BK117" s="14"/>
+      <c r="BL117" s="14"/>
+      <c r="BM117" s="14"/>
+      <c r="BN117" s="14"/>
+      <c r="BO117" s="14"/>
+      <c r="BP117" s="14"/>
+      <c r="BQ117" s="14"/>
+      <c r="BR117" s="14"/>
+      <c r="BS117" s="34"/>
+    </row>
+    <row r="118" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="35"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E118" s="65"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="43"/>
+      <c r="O118" s="43"/>
+      <c r="P118" s="43"/>
+      <c r="Q118" s="43"/>
+      <c r="R118" s="43"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="43"/>
+      <c r="U118" s="43"/>
+      <c r="V118" s="43"/>
+      <c r="W118" s="43"/>
+      <c r="X118" s="14"/>
+      <c r="Y118" s="14"/>
+      <c r="Z118" s="14"/>
+      <c r="AA118" s="14"/>
+      <c r="AB118" s="14"/>
+      <c r="AC118" s="14"/>
+      <c r="AD118" s="14"/>
+      <c r="AE118" s="14"/>
+      <c r="AF118" s="14"/>
+      <c r="AG118" s="14"/>
+      <c r="AH118" s="14"/>
+      <c r="AI118" s="14"/>
+      <c r="AJ118" s="14"/>
+      <c r="AK118" s="14"/>
+      <c r="AL118" s="14"/>
+      <c r="AM118" s="14"/>
+      <c r="AN118" s="14"/>
+      <c r="AO118" s="14"/>
+      <c r="AP118" s="14"/>
+      <c r="AQ118" s="14"/>
+      <c r="AR118" s="14"/>
+      <c r="AS118" s="14"/>
+      <c r="AT118" s="14"/>
+      <c r="AU118" s="14"/>
+      <c r="AV118" s="14"/>
+      <c r="AW118" s="14"/>
+      <c r="AX118" s="14"/>
+      <c r="AY118" s="14"/>
+      <c r="AZ118" s="14"/>
+      <c r="BA118" s="14"/>
+      <c r="BB118" s="14"/>
+      <c r="BC118" s="14"/>
+      <c r="BD118" s="14"/>
+      <c r="BE118" s="14"/>
+      <c r="BF118" s="14"/>
+      <c r="BG118" s="14"/>
+      <c r="BH118" s="14"/>
+      <c r="BI118" s="14"/>
+      <c r="BJ118" s="14"/>
+      <c r="BK118" s="14"/>
+      <c r="BL118" s="14"/>
+      <c r="BM118" s="14"/>
+      <c r="BN118" s="14"/>
+      <c r="BO118" s="14"/>
+      <c r="BP118" s="14"/>
+      <c r="BQ118" s="14"/>
+      <c r="BR118" s="14"/>
+      <c r="BS118" s="34"/>
+    </row>
+    <row r="119" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="35"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="65"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="43"/>
+      <c r="O119" s="43"/>
+      <c r="P119" s="43"/>
+      <c r="Q119" s="43"/>
+      <c r="R119" s="43"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="43"/>
+      <c r="U119" s="43"/>
+      <c r="V119" s="43"/>
+      <c r="W119" s="43"/>
+      <c r="X119" s="14"/>
+      <c r="Y119" s="14"/>
+      <c r="Z119" s="14"/>
+      <c r="AA119" s="14"/>
+      <c r="AB119" s="14"/>
+      <c r="AC119" s="14"/>
+      <c r="AD119" s="14"/>
+      <c r="AE119" s="14"/>
+      <c r="AF119" s="14"/>
+      <c r="AG119" s="14"/>
+      <c r="AH119" s="14"/>
+      <c r="AI119" s="14"/>
+      <c r="AJ119" s="14"/>
+      <c r="AK119" s="14"/>
+      <c r="AL119" s="14"/>
+      <c r="AM119" s="14"/>
+      <c r="AN119" s="14"/>
+      <c r="AO119" s="14"/>
+      <c r="AP119" s="14"/>
+      <c r="AQ119" s="14"/>
+      <c r="AR119" s="14"/>
+      <c r="AS119" s="14"/>
+      <c r="AT119" s="14"/>
+      <c r="AU119" s="14"/>
+      <c r="AV119" s="14"/>
+      <c r="AW119" s="14"/>
+      <c r="AX119" s="14"/>
+      <c r="AY119" s="14"/>
+      <c r="AZ119" s="14"/>
+      <c r="BA119" s="14"/>
+      <c r="BB119" s="14"/>
+      <c r="BC119" s="14"/>
+      <c r="BD119" s="14"/>
+      <c r="BE119" s="14"/>
+      <c r="BF119" s="14"/>
+      <c r="BG119" s="14"/>
+      <c r="BH119" s="14"/>
+      <c r="BI119" s="14"/>
+      <c r="BJ119" s="14"/>
+      <c r="BK119" s="14"/>
+      <c r="BL119" s="14"/>
+      <c r="BM119" s="14"/>
+      <c r="BN119" s="14"/>
+      <c r="BO119" s="14"/>
+      <c r="BP119" s="14"/>
+      <c r="BQ119" s="14"/>
+      <c r="BR119" s="14"/>
+      <c r="BS119" s="34"/>
+    </row>
+    <row r="120" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="35"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="56"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="43"/>
+      <c r="J120" s="43"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="43"/>
+      <c r="O120" s="43"/>
+      <c r="P120" s="43"/>
+      <c r="Q120" s="43"/>
+      <c r="R120" s="43"/>
+      <c r="S120" s="43"/>
+      <c r="T120" s="43"/>
+      <c r="U120" s="43"/>
+      <c r="V120" s="43"/>
+      <c r="W120" s="43"/>
+      <c r="X120" s="14"/>
+      <c r="Y120" s="14"/>
+      <c r="Z120" s="14"/>
+      <c r="AA120" s="14"/>
+      <c r="AB120" s="14"/>
+      <c r="AC120" s="14"/>
+      <c r="AD120" s="14"/>
+      <c r="AE120" s="14"/>
+      <c r="AF120" s="14"/>
+      <c r="AG120" s="14"/>
+      <c r="AH120" s="14"/>
+      <c r="AI120" s="14"/>
+      <c r="AJ120" s="14"/>
+      <c r="AK120" s="14"/>
+      <c r="AL120" s="14"/>
+      <c r="AM120" s="14"/>
+      <c r="AN120" s="14"/>
+      <c r="AO120" s="14"/>
+      <c r="AP120" s="14"/>
+      <c r="AQ120" s="14"/>
+      <c r="AR120" s="14"/>
+      <c r="AS120" s="14"/>
+      <c r="AT120" s="14"/>
+      <c r="AU120" s="14"/>
+      <c r="AV120" s="14"/>
+      <c r="AW120" s="14"/>
+      <c r="AX120" s="14"/>
+      <c r="AY120" s="14"/>
+      <c r="AZ120" s="14"/>
+      <c r="BA120" s="14"/>
+      <c r="BB120" s="14"/>
+      <c r="BC120" s="14"/>
+      <c r="BD120" s="14"/>
+      <c r="BE120" s="14"/>
+      <c r="BF120" s="14"/>
+      <c r="BG120" s="14"/>
+      <c r="BH120" s="14"/>
+      <c r="BI120" s="14"/>
+      <c r="BJ120" s="14"/>
+      <c r="BK120" s="14"/>
+      <c r="BL120" s="14"/>
+      <c r="BM120" s="14"/>
+      <c r="BN120" s="14"/>
+      <c r="BO120" s="14"/>
+      <c r="BP120" s="14"/>
+      <c r="BQ120" s="14"/>
+      <c r="BR120" s="14"/>
+      <c r="BS120" s="34"/>
+    </row>
+    <row r="121" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="36"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="56"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="43"/>
+      <c r="O121" s="43"/>
+      <c r="P121" s="43"/>
+      <c r="Q121" s="43"/>
+      <c r="R121" s="43"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="43"/>
+      <c r="U121" s="43"/>
+      <c r="V121" s="43"/>
+      <c r="W121" s="43"/>
+      <c r="X121" s="14"/>
+      <c r="Y121" s="14"/>
+      <c r="Z121" s="14"/>
+      <c r="AA121" s="14"/>
+      <c r="AB121" s="14"/>
+      <c r="AC121" s="14"/>
+      <c r="AD121" s="14"/>
+      <c r="AE121" s="14"/>
+      <c r="AF121" s="14"/>
+      <c r="AG121" s="14"/>
+      <c r="AH121" s="14"/>
+      <c r="AI121" s="14"/>
+      <c r="AJ121" s="14"/>
+      <c r="AK121" s="14"/>
+      <c r="AL121" s="14"/>
+      <c r="AM121" s="14"/>
+      <c r="AN121" s="14"/>
+      <c r="AO121" s="14"/>
+      <c r="AP121" s="14"/>
+      <c r="AQ121" s="14"/>
+      <c r="AR121" s="14"/>
+      <c r="AS121" s="14"/>
+      <c r="AT121" s="14"/>
+      <c r="AU121" s="14"/>
+      <c r="AV121" s="14"/>
+      <c r="AW121" s="14"/>
+      <c r="AX121" s="14"/>
+      <c r="AY121" s="14"/>
+      <c r="AZ121" s="14"/>
+      <c r="BA121" s="14"/>
+      <c r="BB121" s="14"/>
+      <c r="BC121" s="14"/>
+      <c r="BD121" s="14"/>
+      <c r="BE121" s="14"/>
+      <c r="BF121" s="14"/>
+      <c r="BG121" s="14"/>
+      <c r="BH121" s="14"/>
+      <c r="BI121" s="14"/>
+      <c r="BJ121" s="14"/>
+      <c r="BK121" s="14"/>
+      <c r="BL121" s="14"/>
+      <c r="BM121" s="14"/>
+      <c r="BN121" s="14"/>
+      <c r="BO121" s="14"/>
+      <c r="BP121" s="14"/>
+      <c r="BQ121" s="14"/>
+      <c r="BR121" s="14"/>
+      <c r="BS121" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:D4"/>
@@ -11430,113 +12016,141 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="H4:BS4">
-    <cfRule type="cellIs" dxfId="38" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="111" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BS9 H14:BS115">
-    <cfRule type="expression" dxfId="36" priority="97" stopIfTrue="1">
+  <conditionalFormatting sqref="H5:BS9 H92:BS121 H91:Y91 AC91:BS91 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS90">
+    <cfRule type="expression" dxfId="36" priority="101" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="109" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:BS2">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="109">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="113">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:BS12">
-    <cfRule type="expression" dxfId="31" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="93" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:BS12 H10:I11 L10:BS11">
-    <cfRule type="expression" dxfId="27" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="89" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:BS13">
-    <cfRule type="expression" dxfId="23" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="85" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:BS13">
-    <cfRule type="expression" dxfId="19" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="81" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K11">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA91 AA78">
+    <cfRule type="expression" dxfId="7" priority="118" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="119" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="120" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="121" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z78">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11587,7 +12201,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="76"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="4">
         <v>41434</v>
       </c>
@@ -11598,7 +12212,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="77"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="4">
         <v>41440</v>
       </c>
@@ -11609,7 +12223,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="77"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="4">
         <v>41441</v>
       </c>
@@ -11620,7 +12234,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="77"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="4">
         <v>41447</v>
       </c>
@@ -11631,7 +12245,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="77"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="4">
         <v>41448</v>
       </c>
@@ -11642,7 +12256,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="77"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="4">
         <v>41454</v>
       </c>
@@ -11653,7 +12267,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="77"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="4">
         <v>41455</v>
       </c>
@@ -11664,7 +12278,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="77"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="4">
         <v>41461</v>
       </c>
@@ -11675,7 +12289,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="77"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="4">
         <v>41462</v>
       </c>
@@ -11686,7 +12300,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="77"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="4">
         <v>41468</v>
       </c>
@@ -11697,7 +12311,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="77"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="4">
         <v>41469</v>
       </c>
@@ -11708,7 +12322,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="77"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="4">
         <v>41475</v>
       </c>
@@ -11719,7 +12333,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="4">
         <v>41476</v>
       </c>
@@ -11730,7 +12344,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="77"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="4">
         <v>41482</v>
       </c>
@@ -11741,7 +12355,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="77"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="4">
         <v>41483</v>
       </c>
@@ -11752,7 +12366,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="77"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="4">
         <v>41489</v>
       </c>
@@ -11763,7 +12377,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="77"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="4">
         <v>41490</v>
       </c>
@@ -11774,7 +12388,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="77"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="4">
         <v>41496</v>
       </c>
@@ -11785,7 +12399,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="77"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="4">
         <v>41497</v>
       </c>
@@ -11796,7 +12410,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="78"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="4">
         <v>41499</v>
       </c>

--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3D5C84-A1DF-4D57-8555-B29B887652EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802141F-CBF5-4627-98E1-EB33905EE591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -730,6 +730,35 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C#プロパティの使い方調査</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※予定にはなく後から追加した作業</t>
+    <rPh sb="1" eb="3">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1281,7 +1310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,6 +1469,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2165,13 +2195,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS121"/>
+  <dimension ref="A1:BS124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F95" sqref="F95:G95"/>
+      <selection pane="bottomRight" activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8838,10 +8868,12 @@
       <c r="A80" s="59"/>
       <c r="B80" s="12"/>
       <c r="C80" s="67"/>
-      <c r="D80" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="65"/>
+      <c r="D80" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80" s="65">
+        <v>2</v>
+      </c>
       <c r="F80" s="15"/>
       <c r="G80" s="16"/>
       <c r="H80" s="43"/>
@@ -8913,12 +8945,10 @@
       <c r="A81" s="59"/>
       <c r="B81" s="12"/>
       <c r="C81" s="67"/>
-      <c r="D81" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" s="65">
-        <v>2.5</v>
-      </c>
+      <c r="D81" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="65"/>
       <c r="F81" s="15"/>
       <c r="G81" s="16"/>
       <c r="H81" s="43"/>
@@ -8991,10 +9021,10 @@
       <c r="B82" s="12"/>
       <c r="C82" s="67"/>
       <c r="D82" s="71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E82" s="65">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="16"/>
@@ -9067,11 +9097,11 @@
       <c r="A83" s="59"/>
       <c r="B83" s="12"/>
       <c r="C83" s="67"/>
-      <c r="D83" s="45" t="s">
-        <v>41</v>
+      <c r="D83" s="71" t="s">
+        <v>69</v>
       </c>
       <c r="E83" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="16"/>
@@ -9145,10 +9175,10 @@
       <c r="B84" s="12"/>
       <c r="C84" s="67"/>
       <c r="D84" s="45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E84" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="16"/>
@@ -9222,7 +9252,7 @@
       <c r="B85" s="12"/>
       <c r="C85" s="67"/>
       <c r="D85" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E85" s="65">
         <v>1</v>
@@ -9299,10 +9329,10 @@
       <c r="B86" s="12"/>
       <c r="C86" s="67"/>
       <c r="D86" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E86" s="65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="16"/>
@@ -9375,11 +9405,11 @@
       <c r="A87" s="59"/>
       <c r="B87" s="12"/>
       <c r="C87" s="67"/>
-      <c r="D87" s="71" t="s">
-        <v>67</v>
+      <c r="D87" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="E87" s="65">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="16"/>
@@ -9452,10 +9482,12 @@
       <c r="A88" s="59"/>
       <c r="B88" s="12"/>
       <c r="C88" s="67"/>
-      <c r="D88" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" s="65"/>
+      <c r="D88" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" s="65">
+        <v>2</v>
+      </c>
       <c r="F88" s="15"/>
       <c r="G88" s="16"/>
       <c r="H88" s="43"/>
@@ -9528,11 +9560,9 @@
       <c r="B89" s="12"/>
       <c r="C89" s="67"/>
       <c r="D89" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="65">
-        <v>0.25</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E89" s="65"/>
       <c r="F89" s="15"/>
       <c r="G89" s="16"/>
       <c r="H89" s="43"/>
@@ -9605,7 +9635,7 @@
       <c r="B90" s="12"/>
       <c r="C90" s="67"/>
       <c r="D90" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E90" s="65">
         <v>0.25</v>
@@ -9679,18 +9709,16 @@
     </row>
     <row r="91" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="59"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="56"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="15">
-        <v>44102</v>
-      </c>
-      <c r="G91" s="16">
-        <v>44102</v>
-      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="F91" s="15"/>
+      <c r="G91" s="16"/>
       <c r="H91" s="43"/>
       <c r="I91" s="43"/>
       <c r="J91" s="43"/>
@@ -9709,7 +9737,9 @@
       <c r="W91" s="43"/>
       <c r="X91" s="14"/>
       <c r="Y91" s="14"/>
-      <c r="AA91" s="66"/>
+      <c r="Z91" s="14"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="14"/>
       <c r="AC91" s="14"/>
       <c r="AD91" s="14"/>
       <c r="AE91" s="14"/>
@@ -9756,16 +9786,18 @@
     </row>
     <row r="92" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="59"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E92" s="65">
-        <v>3</v>
-      </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="16"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="56"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="15">
+        <v>44102</v>
+      </c>
+      <c r="G92" s="16">
+        <v>44102</v>
+      </c>
       <c r="H92" s="43"/>
       <c r="I92" s="43"/>
       <c r="J92" s="43"/>
@@ -9784,9 +9816,7 @@
       <c r="W92" s="43"/>
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
-      <c r="Z92" s="14"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="14"/>
+      <c r="AA92" s="66"/>
       <c r="AC92" s="14"/>
       <c r="AD92" s="14"/>
       <c r="AE92" s="14"/>
@@ -9834,11 +9864,13 @@
     <row r="93" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="59"/>
       <c r="B93" s="69"/>
-      <c r="C93" s="39"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E93" s="65"/>
+        <v>48</v>
+      </c>
+      <c r="E93" s="65">
+        <v>3</v>
+      </c>
       <c r="F93" s="15"/>
       <c r="G93" s="16"/>
       <c r="H93" s="43"/>
@@ -9909,9 +9941,9 @@
     <row r="94" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="59"/>
       <c r="B94" s="69"/>
-      <c r="C94" s="67"/>
+      <c r="C94" s="39"/>
       <c r="D94" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E94" s="65"/>
       <c r="F94" s="15"/>
@@ -9982,15 +10014,13 @@
       <c r="BS94" s="34"/>
     </row>
     <row r="95" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="60"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="69"/>
       <c r="C95" s="67"/>
       <c r="D95" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95" s="65">
-        <v>0.25</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E95" s="65"/>
       <c r="F95" s="15"/>
       <c r="G95" s="16"/>
       <c r="H95" s="43"/>
@@ -10060,12 +10090,14 @@
     </row>
     <row r="96" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="60"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="65"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="65">
+        <v>0.25</v>
+      </c>
       <c r="F96" s="15"/>
       <c r="G96" s="16"/>
       <c r="H96" s="43"/>
@@ -10135,11 +10167,11 @@
     </row>
     <row r="97" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="60"/>
-      <c r="B97" s="63"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="45" t="s">
-        <v>52</v>
-      </c>
+      <c r="B97" s="64"/>
+      <c r="C97" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="56"/>
       <c r="E97" s="65"/>
       <c r="F97" s="15"/>
       <c r="G97" s="16"/>
@@ -10210,10 +10242,10 @@
     </row>
     <row r="98" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="60"/>
-      <c r="B98" s="70"/>
+      <c r="B98" s="63"/>
       <c r="C98" s="44"/>
       <c r="D98" s="45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E98" s="65"/>
       <c r="F98" s="15"/>
@@ -10284,11 +10316,11 @@
       <c r="BS98" s="34"/>
     </row>
     <row r="99" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="59"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="70"/>
       <c r="C99" s="44"/>
       <c r="D99" s="45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E99" s="65"/>
       <c r="F99" s="15"/>
@@ -10359,12 +10391,12 @@
       <c r="BS99" s="34"/>
     </row>
     <row r="100" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="61"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="56"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="45" t="s">
+        <v>53</v>
+      </c>
       <c r="E100" s="65"/>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
@@ -10434,12 +10466,12 @@
       <c r="BS100" s="34"/>
     </row>
     <row r="101" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="60"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="62"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="68" t="s">
-        <v>55</v>
-      </c>
+      <c r="C101" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="56"/>
       <c r="E101" s="65"/>
       <c r="F101" s="15"/>
       <c r="G101" s="16"/>
@@ -10513,7 +10545,7 @@
       <c r="B102" s="62"/>
       <c r="C102" s="67"/>
       <c r="D102" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E102" s="65"/>
       <c r="F102" s="15"/>
@@ -10588,7 +10620,7 @@
       <c r="B103" s="62"/>
       <c r="C103" s="67"/>
       <c r="D103" s="68" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E103" s="65"/>
       <c r="F103" s="15"/>
@@ -10659,12 +10691,12 @@
       <c r="BS103" s="34"/>
     </row>
     <row r="104" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="59"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" s="56"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="62"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="68" t="s">
+        <v>46</v>
+      </c>
       <c r="E104" s="65"/>
       <c r="F104" s="15"/>
       <c r="G104" s="16"/>
@@ -10736,10 +10768,10 @@
     <row r="105" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="59"/>
       <c r="B105" s="12"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="45" t="s">
-        <v>28</v>
-      </c>
+      <c r="C105" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="56"/>
       <c r="E105" s="65"/>
       <c r="F105" s="15"/>
       <c r="G105" s="16"/>
@@ -10813,7 +10845,7 @@
       <c r="B106" s="12"/>
       <c r="C106" s="44"/>
       <c r="D106" s="45" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E106" s="65"/>
       <c r="F106" s="15"/>
@@ -10888,7 +10920,7 @@
       <c r="B107" s="12"/>
       <c r="C107" s="44"/>
       <c r="D107" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E107" s="65"/>
       <c r="F107" s="15"/>
@@ -10963,7 +10995,7 @@
       <c r="B108" s="12"/>
       <c r="C108" s="44"/>
       <c r="D108" s="45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E108" s="65"/>
       <c r="F108" s="15"/>
@@ -11036,10 +11068,10 @@
     <row r="109" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="59"/>
       <c r="B109" s="12"/>
-      <c r="C109" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D109" s="56"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="45" t="s">
+        <v>58</v>
+      </c>
       <c r="E109" s="65"/>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
@@ -11111,10 +11143,10 @@
     <row r="110" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="59"/>
       <c r="B110" s="12"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="68" t="s">
-        <v>58</v>
-      </c>
+      <c r="C110" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="56"/>
       <c r="E110" s="65"/>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
@@ -11188,7 +11220,7 @@
       <c r="B111" s="12"/>
       <c r="C111" s="67"/>
       <c r="D111" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E111" s="65"/>
       <c r="F111" s="15"/>
@@ -11263,7 +11295,7 @@
       <c r="B112" s="12"/>
       <c r="C112" s="67"/>
       <c r="D112" s="68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E112" s="65"/>
       <c r="F112" s="15"/>
@@ -11334,11 +11366,11 @@
       <c r="BS112" s="34"/>
     </row>
     <row r="113" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="35"/>
+      <c r="A113" s="59"/>
       <c r="B113" s="12"/>
       <c r="C113" s="67"/>
       <c r="D113" s="68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E113" s="65"/>
       <c r="F113" s="15"/>
@@ -11413,7 +11445,7 @@
       <c r="B114" s="12"/>
       <c r="C114" s="67"/>
       <c r="D114" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E114" s="65"/>
       <c r="F114" s="15"/>
@@ -11486,9 +11518,9 @@
     <row r="115" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="35"/>
       <c r="B115" s="12"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="45" t="s">
-        <v>29</v>
+      <c r="C115" s="67"/>
+      <c r="D115" s="68" t="s">
+        <v>63</v>
       </c>
       <c r="E115" s="65"/>
       <c r="F115" s="15"/>
@@ -11561,10 +11593,10 @@
     <row r="116" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="35"/>
       <c r="B116" s="12"/>
-      <c r="C116" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="56"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="45" t="s">
+        <v>29</v>
+      </c>
       <c r="E116" s="65"/>
       <c r="F116" s="15"/>
       <c r="G116" s="16"/>
@@ -11637,7 +11669,7 @@
       <c r="A117" s="35"/>
       <c r="B117" s="12"/>
       <c r="C117" s="55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D117" s="56"/>
       <c r="E117" s="65"/>
@@ -11711,10 +11743,10 @@
     <row r="118" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="35"/>
       <c r="B118" s="12"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="68" t="s">
-        <v>63</v>
-      </c>
+      <c r="C118" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="56"/>
       <c r="E118" s="65"/>
       <c r="F118" s="15"/>
       <c r="G118" s="16"/>
@@ -11786,9 +11818,9 @@
     <row r="119" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="35"/>
       <c r="B119" s="12"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="45" t="s">
-        <v>29</v>
+      <c r="C119" s="67"/>
+      <c r="D119" s="68" t="s">
+        <v>63</v>
       </c>
       <c r="E119" s="65"/>
       <c r="F119" s="15"/>
@@ -11861,10 +11893,10 @@
     <row r="120" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="35"/>
       <c r="B120" s="12"/>
-      <c r="C120" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D120" s="56"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="45" t="s">
+        <v>29</v>
+      </c>
       <c r="E120" s="65"/>
       <c r="F120" s="15"/>
       <c r="G120" s="16"/>
@@ -11934,10 +11966,10 @@
       <c r="BS120" s="34"/>
     </row>
     <row r="121" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="36"/>
+      <c r="A121" s="35"/>
       <c r="B121" s="12"/>
       <c r="C121" s="55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D121" s="56"/>
       <c r="E121" s="65"/>
@@ -12008,6 +12040,87 @@
       <c r="BR121" s="14"/>
       <c r="BS121" s="34"/>
     </row>
+    <row r="122" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="36"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="56"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
+      <c r="O122" s="43"/>
+      <c r="P122" s="43"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="43"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="43"/>
+      <c r="W122" s="43"/>
+      <c r="X122" s="14"/>
+      <c r="Y122" s="14"/>
+      <c r="Z122" s="14"/>
+      <c r="AA122" s="14"/>
+      <c r="AB122" s="14"/>
+      <c r="AC122" s="14"/>
+      <c r="AD122" s="14"/>
+      <c r="AE122" s="14"/>
+      <c r="AF122" s="14"/>
+      <c r="AG122" s="14"/>
+      <c r="AH122" s="14"/>
+      <c r="AI122" s="14"/>
+      <c r="AJ122" s="14"/>
+      <c r="AK122" s="14"/>
+      <c r="AL122" s="14"/>
+      <c r="AM122" s="14"/>
+      <c r="AN122" s="14"/>
+      <c r="AO122" s="14"/>
+      <c r="AP122" s="14"/>
+      <c r="AQ122" s="14"/>
+      <c r="AR122" s="14"/>
+      <c r="AS122" s="14"/>
+      <c r="AT122" s="14"/>
+      <c r="AU122" s="14"/>
+      <c r="AV122" s="14"/>
+      <c r="AW122" s="14"/>
+      <c r="AX122" s="14"/>
+      <c r="AY122" s="14"/>
+      <c r="AZ122" s="14"/>
+      <c r="BA122" s="14"/>
+      <c r="BB122" s="14"/>
+      <c r="BC122" s="14"/>
+      <c r="BD122" s="14"/>
+      <c r="BE122" s="14"/>
+      <c r="BF122" s="14"/>
+      <c r="BG122" s="14"/>
+      <c r="BH122" s="14"/>
+      <c r="BI122" s="14"/>
+      <c r="BJ122" s="14"/>
+      <c r="BK122" s="14"/>
+      <c r="BL122" s="14"/>
+      <c r="BM122" s="14"/>
+      <c r="BN122" s="14"/>
+      <c r="BO122" s="14"/>
+      <c r="BP122" s="14"/>
+      <c r="BQ122" s="14"/>
+      <c r="BR122" s="14"/>
+      <c r="BS122" s="34"/>
+    </row>
+    <row r="124" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C124" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D124" s="80"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:D4"/>
@@ -12023,7 +12136,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BS9 H92:BS121 H91:Y91 AC91:BS91 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS90">
+  <conditionalFormatting sqref="H5:BS9 H93:BS122 H92:Y92 AC92:BS92 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS91">
     <cfRule type="expression" dxfId="36" priority="101" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12126,7 +12239,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA91 AA78">
+  <conditionalFormatting sqref="AA92 AA78">
     <cfRule type="expression" dxfId="7" priority="118" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>

--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802141F-CBF5-4627-98E1-EB33905EE591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402B9ED-8030-41F7-9A72-7150DBECF689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2198,7 +2198,7 @@
   <dimension ref="A1:BS124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C125" sqref="C125"/>

--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402B9ED-8030-41F7-9A72-7150DBECF689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EAB03-CFD7-42DA-AB6D-34634473AA65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -759,6 +759,29 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バトル処理スクリプト完成</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作戦ボタン及びスクリプト作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1451,6 +1474,7 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1469,12 +1493,51 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -2195,13 +2258,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS124"/>
+  <dimension ref="A1:BS126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C125" sqref="C125"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2216,22 +2279,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="H2" s="25">
         <f>H3</f>
         <v>44083</v>
@@ -2749,11 +2812,11 @@
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
@@ -10772,9 +10835,15 @@
         <v>27</v>
       </c>
       <c r="D105" s="56"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="16"/>
+      <c r="E105" s="65">
+        <v>56</v>
+      </c>
+      <c r="F105" s="15">
+        <v>44103</v>
+      </c>
+      <c r="G105" s="16">
+        <v>44116</v>
+      </c>
       <c r="H105" s="43"/>
       <c r="I105" s="43"/>
       <c r="J105" s="43"/>
@@ -10795,20 +10864,20 @@
       <c r="Y105" s="14"/>
       <c r="Z105" s="14"/>
       <c r="AA105" s="14"/>
-      <c r="AB105" s="14"/>
-      <c r="AC105" s="14"/>
-      <c r="AD105" s="14"/>
-      <c r="AE105" s="14"/>
-      <c r="AF105" s="14"/>
-      <c r="AG105" s="14"/>
-      <c r="AH105" s="14"/>
-      <c r="AI105" s="14"/>
-      <c r="AJ105" s="14"/>
-      <c r="AK105" s="14"/>
-      <c r="AL105" s="14"/>
-      <c r="AM105" s="14"/>
-      <c r="AN105" s="14"/>
-      <c r="AO105" s="14"/>
+      <c r="AB105" s="66"/>
+      <c r="AC105" s="66"/>
+      <c r="AD105" s="66"/>
+      <c r="AE105" s="66"/>
+      <c r="AF105" s="66"/>
+      <c r="AG105" s="66"/>
+      <c r="AH105" s="66"/>
+      <c r="AI105" s="66"/>
+      <c r="AJ105" s="66"/>
+      <c r="AK105" s="66"/>
+      <c r="AL105" s="66"/>
+      <c r="AM105" s="66"/>
+      <c r="AN105" s="66"/>
+      <c r="AO105" s="66"/>
       <c r="AP105" s="14"/>
       <c r="AQ105" s="14"/>
       <c r="AR105" s="14"/>
@@ -10847,7 +10916,9 @@
       <c r="D106" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E106" s="65"/>
+      <c r="E106" s="65">
+        <v>10</v>
+      </c>
       <c r="F106" s="15"/>
       <c r="G106" s="16"/>
       <c r="H106" s="43"/>
@@ -10919,10 +10990,12 @@
       <c r="A107" s="59"/>
       <c r="B107" s="12"/>
       <c r="C107" s="44"/>
-      <c r="D107" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E107" s="65"/>
+      <c r="D107" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="65">
+        <v>20</v>
+      </c>
       <c r="F107" s="15"/>
       <c r="G107" s="16"/>
       <c r="H107" s="43"/>
@@ -10994,10 +11067,12 @@
       <c r="A108" s="59"/>
       <c r="B108" s="12"/>
       <c r="C108" s="44"/>
-      <c r="D108" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E108" s="65"/>
+      <c r="D108" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E108" s="65">
+        <v>10</v>
+      </c>
       <c r="F108" s="15"/>
       <c r="G108" s="16"/>
       <c r="H108" s="43"/>
@@ -11070,9 +11145,11 @@
       <c r="B109" s="12"/>
       <c r="C109" s="44"/>
       <c r="D109" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E109" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="E109" s="65">
+        <v>10</v>
+      </c>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
       <c r="H109" s="43"/>
@@ -11143,11 +11220,13 @@
     <row r="110" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="59"/>
       <c r="B110" s="12"/>
-      <c r="C110" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" s="56"/>
-      <c r="E110" s="65"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" s="65">
+        <v>3</v>
+      </c>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
       <c r="H110" s="43"/>
@@ -11218,11 +11297,13 @@
     <row r="111" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="59"/>
       <c r="B111" s="12"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="68" t="s">
+      <c r="C111" s="44"/>
+      <c r="D111" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E111" s="65"/>
+      <c r="E111" s="65">
+        <v>3</v>
+      </c>
       <c r="F111" s="15"/>
       <c r="G111" s="16"/>
       <c r="H111" s="43"/>
@@ -11293,10 +11374,10 @@
     <row r="112" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="59"/>
       <c r="B112" s="12"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="68" t="s">
-        <v>61</v>
-      </c>
+      <c r="C112" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="56"/>
       <c r="E112" s="65"/>
       <c r="F112" s="15"/>
       <c r="G112" s="16"/>
@@ -11370,7 +11451,7 @@
       <c r="B113" s="12"/>
       <c r="C113" s="67"/>
       <c r="D113" s="68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E113" s="65"/>
       <c r="F113" s="15"/>
@@ -11441,11 +11522,11 @@
       <c r="BS113" s="34"/>
     </row>
     <row r="114" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="35"/>
+      <c r="A114" s="59"/>
       <c r="B114" s="12"/>
       <c r="C114" s="67"/>
       <c r="D114" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E114" s="65"/>
       <c r="F114" s="15"/>
@@ -11516,11 +11597,11 @@
       <c r="BS114" s="34"/>
     </row>
     <row r="115" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="35"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="12"/>
       <c r="C115" s="67"/>
       <c r="D115" s="68" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E115" s="65"/>
       <c r="F115" s="15"/>
@@ -11593,9 +11674,9 @@
     <row r="116" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="35"/>
       <c r="B116" s="12"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="45" t="s">
-        <v>29</v>
+      <c r="C116" s="67"/>
+      <c r="D116" s="68" t="s">
+        <v>62</v>
       </c>
       <c r="E116" s="65"/>
       <c r="F116" s="15"/>
@@ -11668,10 +11749,10 @@
     <row r="117" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="35"/>
       <c r="B117" s="12"/>
-      <c r="C117" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="56"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="68" t="s">
+        <v>63</v>
+      </c>
       <c r="E117" s="65"/>
       <c r="F117" s="15"/>
       <c r="G117" s="16"/>
@@ -11743,10 +11824,10 @@
     <row r="118" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="35"/>
       <c r="B118" s="12"/>
-      <c r="C118" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" s="56"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="45" t="s">
+        <v>29</v>
+      </c>
       <c r="E118" s="65"/>
       <c r="F118" s="15"/>
       <c r="G118" s="16"/>
@@ -11818,10 +11899,10 @@
     <row r="119" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="35"/>
       <c r="B119" s="12"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="68" t="s">
-        <v>63</v>
-      </c>
+      <c r="C119" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="56"/>
       <c r="E119" s="65"/>
       <c r="F119" s="15"/>
       <c r="G119" s="16"/>
@@ -11893,10 +11974,10 @@
     <row r="120" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="35"/>
       <c r="B120" s="12"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="C120" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="56"/>
       <c r="E120" s="65"/>
       <c r="F120" s="15"/>
       <c r="G120" s="16"/>
@@ -11968,10 +12049,10 @@
     <row r="121" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="35"/>
       <c r="B121" s="12"/>
-      <c r="C121" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D121" s="56"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="68" t="s">
+        <v>63</v>
+      </c>
       <c r="E121" s="65"/>
       <c r="F121" s="15"/>
       <c r="G121" s="16"/>
@@ -12041,12 +12122,12 @@
       <c r="BS121" s="34"/>
     </row>
     <row r="122" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="36"/>
+      <c r="A122" s="35"/>
       <c r="B122" s="12"/>
-      <c r="C122" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" s="56"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="45" t="s">
+        <v>29</v>
+      </c>
       <c r="E122" s="65"/>
       <c r="F122" s="15"/>
       <c r="G122" s="16"/>
@@ -12115,11 +12196,161 @@
       <c r="BR122" s="14"/>
       <c r="BS122" s="34"/>
     </row>
+    <row r="123" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="35"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="56"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="43"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="43"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43"/>
+      <c r="M123" s="43"/>
+      <c r="N123" s="43"/>
+      <c r="O123" s="43"/>
+      <c r="P123" s="43"/>
+      <c r="Q123" s="43"/>
+      <c r="R123" s="43"/>
+      <c r="S123" s="43"/>
+      <c r="T123" s="43"/>
+      <c r="U123" s="43"/>
+      <c r="V123" s="43"/>
+      <c r="W123" s="43"/>
+      <c r="X123" s="14"/>
+      <c r="Y123" s="14"/>
+      <c r="Z123" s="14"/>
+      <c r="AA123" s="14"/>
+      <c r="AB123" s="14"/>
+      <c r="AC123" s="14"/>
+      <c r="AD123" s="14"/>
+      <c r="AE123" s="14"/>
+      <c r="AF123" s="14"/>
+      <c r="AG123" s="14"/>
+      <c r="AH123" s="14"/>
+      <c r="AI123" s="14"/>
+      <c r="AJ123" s="14"/>
+      <c r="AK123" s="14"/>
+      <c r="AL123" s="14"/>
+      <c r="AM123" s="14"/>
+      <c r="AN123" s="14"/>
+      <c r="AO123" s="14"/>
+      <c r="AP123" s="14"/>
+      <c r="AQ123" s="14"/>
+      <c r="AR123" s="14"/>
+      <c r="AS123" s="14"/>
+      <c r="AT123" s="14"/>
+      <c r="AU123" s="14"/>
+      <c r="AV123" s="14"/>
+      <c r="AW123" s="14"/>
+      <c r="AX123" s="14"/>
+      <c r="AY123" s="14"/>
+      <c r="AZ123" s="14"/>
+      <c r="BA123" s="14"/>
+      <c r="BB123" s="14"/>
+      <c r="BC123" s="14"/>
+      <c r="BD123" s="14"/>
+      <c r="BE123" s="14"/>
+      <c r="BF123" s="14"/>
+      <c r="BG123" s="14"/>
+      <c r="BH123" s="14"/>
+      <c r="BI123" s="14"/>
+      <c r="BJ123" s="14"/>
+      <c r="BK123" s="14"/>
+      <c r="BL123" s="14"/>
+      <c r="BM123" s="14"/>
+      <c r="BN123" s="14"/>
+      <c r="BO123" s="14"/>
+      <c r="BP123" s="14"/>
+      <c r="BQ123" s="14"/>
+      <c r="BR123" s="14"/>
+      <c r="BS123" s="34"/>
+    </row>
     <row r="124" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C124" s="80" t="s">
+      <c r="A124" s="36"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" s="56"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43"/>
+      <c r="O124" s="43"/>
+      <c r="P124" s="43"/>
+      <c r="Q124" s="43"/>
+      <c r="R124" s="43"/>
+      <c r="S124" s="43"/>
+      <c r="T124" s="43"/>
+      <c r="U124" s="43"/>
+      <c r="V124" s="43"/>
+      <c r="W124" s="43"/>
+      <c r="X124" s="14"/>
+      <c r="Y124" s="14"/>
+      <c r="Z124" s="14"/>
+      <c r="AA124" s="14"/>
+      <c r="AB124" s="14"/>
+      <c r="AC124" s="14"/>
+      <c r="AD124" s="14"/>
+      <c r="AE124" s="14"/>
+      <c r="AF124" s="14"/>
+      <c r="AG124" s="14"/>
+      <c r="AH124" s="14"/>
+      <c r="AI124" s="14"/>
+      <c r="AJ124" s="14"/>
+      <c r="AK124" s="14"/>
+      <c r="AL124" s="14"/>
+      <c r="AM124" s="14"/>
+      <c r="AN124" s="14"/>
+      <c r="AO124" s="14"/>
+      <c r="AP124" s="14"/>
+      <c r="AQ124" s="14"/>
+      <c r="AR124" s="14"/>
+      <c r="AS124" s="14"/>
+      <c r="AT124" s="14"/>
+      <c r="AU124" s="14"/>
+      <c r="AV124" s="14"/>
+      <c r="AW124" s="14"/>
+      <c r="AX124" s="14"/>
+      <c r="AY124" s="14"/>
+      <c r="AZ124" s="14"/>
+      <c r="BA124" s="14"/>
+      <c r="BB124" s="14"/>
+      <c r="BC124" s="14"/>
+      <c r="BD124" s="14"/>
+      <c r="BE124" s="14"/>
+      <c r="BF124" s="14"/>
+      <c r="BG124" s="14"/>
+      <c r="BH124" s="14"/>
+      <c r="BI124" s="14"/>
+      <c r="BJ124" s="14"/>
+      <c r="BK124" s="14"/>
+      <c r="BL124" s="14"/>
+      <c r="BM124" s="14"/>
+      <c r="BN124" s="14"/>
+      <c r="BO124" s="14"/>
+      <c r="BP124" s="14"/>
+      <c r="BQ124" s="14"/>
+      <c r="BR124" s="14"/>
+      <c r="BS124" s="34"/>
+    </row>
+    <row r="126" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C126" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D124" s="80"/>
+      <c r="D126" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12129,33 +12360,47 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="H4:BS4">
-    <cfRule type="cellIs" dxfId="38" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="115" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BS9 H93:BS122 H92:Y92 AC92:BS92 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS91">
-    <cfRule type="expression" dxfId="36" priority="101" stopIfTrue="1">
+  <conditionalFormatting sqref="H5:BS9 H93:BS104 H92:Y92 AC92:BS92 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS91 H105:AA105 AP105:BS105 H106:BS124">
+    <cfRule type="expression" dxfId="40" priority="105" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="113" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:BS2">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="113">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="117">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:BS12">
+    <cfRule type="expression" dxfId="35" priority="97" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="99" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="100" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:BS12 H10:I11 L10:BS11">
     <cfRule type="expression" dxfId="31" priority="93" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12169,7 +12414,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:BS12 H10:I11 L10:BS11">
+  <conditionalFormatting sqref="H13:BS13">
     <cfRule type="expression" dxfId="27" priority="89" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12197,23 +12442,23 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:BS13">
-    <cfRule type="expression" dxfId="19" priority="81" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+  <conditionalFormatting sqref="J10:J11">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
+  <conditionalFormatting sqref="K10:K11">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -12225,37 +12470,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K11">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+  <conditionalFormatting sqref="AA92 AA78">
+    <cfRule type="expression" dxfId="11" priority="122" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="123" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="124" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA92 AA78">
-    <cfRule type="expression" dxfId="7" priority="118" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="119" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="120" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="125" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z78">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB105:AO105">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AA$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
@@ -12314,7 +12559,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="4">
         <v>41434</v>
       </c>
@@ -12325,7 +12570,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="78"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="4">
         <v>41440</v>
       </c>
@@ -12336,7 +12581,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="4">
         <v>41441</v>
       </c>
@@ -12347,7 +12592,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="4">
         <v>41447</v>
       </c>
@@ -12358,7 +12603,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="78"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="4">
         <v>41448</v>
       </c>
@@ -12369,7 +12614,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="4">
         <v>41454</v>
       </c>
@@ -12380,7 +12625,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="78"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="4">
         <v>41455</v>
       </c>
@@ -12391,7 +12636,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="4">
         <v>41461</v>
       </c>
@@ -12402,7 +12647,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="4">
         <v>41462</v>
       </c>
@@ -12413,7 +12658,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="4">
         <v>41468</v>
       </c>
@@ -12424,7 +12669,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="4">
         <v>41469</v>
       </c>
@@ -12435,7 +12680,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="4">
         <v>41475</v>
       </c>
@@ -12446,7 +12691,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="78"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="4">
         <v>41476</v>
       </c>
@@ -12457,7 +12702,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="78"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="4">
         <v>41482</v>
       </c>
@@ -12468,7 +12713,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="4">
         <v>41483</v>
       </c>
@@ -12479,7 +12724,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="78"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="4">
         <v>41489</v>
       </c>
@@ -12490,7 +12735,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="78"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="4">
         <v>41490</v>
       </c>
@@ -12501,7 +12746,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="78"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="4">
         <v>41496</v>
       </c>
@@ -12512,7 +12757,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="78"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="4">
         <v>41497</v>
       </c>
@@ -12523,7 +12768,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="79"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="4">
         <v>41499</v>
       </c>

--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EAB03-CFD7-42DA-AB6D-34634473AA65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E346E486-3692-4D91-8D8D-656E5D8A0C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -783,6 +783,10 @@
     <rPh sb="12" eb="14">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10h</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1497,7 +1501,87 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -2261,10 +2345,10 @@
   <dimension ref="A1:BS126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="AV101" sqref="AV101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10235,9 +10319,15 @@
         <v>18</v>
       </c>
       <c r="D97" s="56"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="16"/>
+      <c r="E97" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" s="15">
+        <v>44117</v>
+      </c>
+      <c r="G97" s="16">
+        <v>44119</v>
+      </c>
       <c r="H97" s="43"/>
       <c r="I97" s="43"/>
       <c r="J97" s="43"/>
@@ -10272,12 +10362,12 @@
       <c r="AM97" s="14"/>
       <c r="AN97" s="14"/>
       <c r="AO97" s="14"/>
-      <c r="AP97" s="14"/>
-      <c r="AQ97" s="14"/>
-      <c r="AR97" s="14"/>
-      <c r="AS97" s="14"/>
-      <c r="AT97" s="14"/>
-      <c r="AU97" s="14"/>
+      <c r="AP97" s="66"/>
+      <c r="AQ97" s="66"/>
+      <c r="AR97" s="66"/>
+      <c r="AS97" s="43"/>
+      <c r="AT97" s="43"/>
+      <c r="AU97" s="43"/>
       <c r="AV97" s="14"/>
       <c r="AW97" s="14"/>
       <c r="AX97" s="14"/>
@@ -10385,7 +10475,9 @@
       <c r="D99" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="65"/>
+      <c r="E99" s="65">
+        <v>10</v>
+      </c>
       <c r="F99" s="15"/>
       <c r="G99" s="16"/>
       <c r="H99" s="43"/>
@@ -10535,9 +10627,15 @@
         <v>24</v>
       </c>
       <c r="D101" s="56"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="16"/>
+      <c r="E101" s="65">
+        <v>11</v>
+      </c>
+      <c r="F101" s="15">
+        <v>44120</v>
+      </c>
+      <c r="G101" s="16">
+        <v>44122</v>
+      </c>
       <c r="H101" s="43"/>
       <c r="I101" s="43"/>
       <c r="J101" s="43"/>
@@ -10572,12 +10670,12 @@
       <c r="AM101" s="14"/>
       <c r="AN101" s="14"/>
       <c r="AO101" s="14"/>
-      <c r="AP101" s="14"/>
-      <c r="AQ101" s="14"/>
-      <c r="AR101" s="14"/>
-      <c r="AS101" s="14"/>
-      <c r="AT101" s="14"/>
-      <c r="AU101" s="14"/>
+      <c r="AP101" s="43"/>
+      <c r="AQ101" s="43"/>
+      <c r="AR101" s="43"/>
+      <c r="AS101" s="66"/>
+      <c r="AT101" s="66"/>
+      <c r="AU101" s="66"/>
       <c r="AV101" s="14"/>
       <c r="AW101" s="14"/>
       <c r="AX101" s="14"/>
@@ -10610,7 +10708,9 @@
       <c r="D102" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="E102" s="65"/>
+      <c r="E102" s="65">
+        <v>9</v>
+      </c>
       <c r="F102" s="15"/>
       <c r="G102" s="16"/>
       <c r="H102" s="43"/>
@@ -10685,7 +10785,9 @@
       <c r="D103" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E103" s="65"/>
+      <c r="E103" s="65">
+        <v>0.5</v>
+      </c>
       <c r="F103" s="15"/>
       <c r="G103" s="16"/>
       <c r="H103" s="43"/>
@@ -10760,7 +10862,9 @@
       <c r="D104" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E104" s="65"/>
+      <c r="E104" s="65">
+        <v>0.5</v>
+      </c>
       <c r="F104" s="15"/>
       <c r="G104" s="16"/>
       <c r="H104" s="43"/>
@@ -12360,33 +12464,61 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="H4:BS4">
-    <cfRule type="cellIs" dxfId="42" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="123" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BS9 H93:BS104 H92:Y92 AC92:BS92 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS91 H105:AA105 AP105:BS105 H106:BS124">
-    <cfRule type="expression" dxfId="40" priority="105" stopIfTrue="1">
+  <conditionalFormatting sqref="H5:BS9 H93:BS96 H92:Y92 AC92:BS92 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS91 H105:AA105 AP105:BS105 H106:BS124 H102:BS104 H101:AO101 AV101:BS101 H98:BS100 H97:AO97 AV97:BS97">
+    <cfRule type="expression" dxfId="48" priority="113" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="121" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:BS2">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="117">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="125">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:BS12">
+    <cfRule type="expression" dxfId="43" priority="105" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="106" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="107" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="108" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:BS12 H10:I11 L10:BS11">
+    <cfRule type="expression" dxfId="39" priority="101" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="103" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="104" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:BS13">
     <cfRule type="expression" dxfId="35" priority="97" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12400,7 +12532,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:BS12 H10:I11 L10:BS11">
+  <conditionalFormatting sqref="H13:BS13">
     <cfRule type="expression" dxfId="31" priority="93" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12414,51 +12546,51 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:BS13">
-    <cfRule type="expression" dxfId="27" priority="89" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+  <conditionalFormatting sqref="J10:J11">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="92" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:BS13">
-    <cfRule type="expression" dxfId="23" priority="85" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="87" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="88" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K11">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA92 AA78">
+    <cfRule type="expression" dxfId="19" priority="130" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="131" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="132" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="133" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z78">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -12470,23 +12602,23 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA92 AA78">
-    <cfRule type="expression" dxfId="11" priority="122" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+  <conditionalFormatting sqref="AB105:AO105">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+      <formula>MATCH(AA$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z78">
+  <conditionalFormatting sqref="AP101:AU101">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AO$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -12498,9 +12630,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB105:AO105">
+  <conditionalFormatting sqref="AP97:AU97">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AA$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AO$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E346E486-3692-4D91-8D8D-656E5D8A0C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9969DC-78D6-4E6C-A3C7-9D59E6266E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -763,16 +763,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>バトル処理スクリプト完成</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>作戦ボタン及びスクリプト作成</t>
     <rPh sb="0" eb="2">
       <t>サクセン</t>
@@ -787,6 +777,62 @@
   </si>
   <si>
     <t>10h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクトのActive化方法調査</t>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リファクタリング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シーン加算の方法調査</t>
+    <rPh sb="3" eb="5">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ラムダ式の使い方調査</t>
+    <rPh sb="3" eb="4">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バトル処理スクリプト作成</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1501,7 +1547,127 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -2342,13 +2508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS126"/>
+  <dimension ref="A1:BS130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AV101" sqref="AV101"/>
+      <selection pane="bottomRight" activeCell="BD123" sqref="BD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10320,7 +10486,7 @@
       </c>
       <c r="D97" s="56"/>
       <c r="E97" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F97" s="15">
         <v>44117</v>
@@ -10940,7 +11106,7 @@
       </c>
       <c r="D105" s="56"/>
       <c r="E105" s="65">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F105" s="15">
         <v>44103</v>
@@ -11095,7 +11261,7 @@
       <c r="B107" s="12"/>
       <c r="C107" s="44"/>
       <c r="D107" s="71" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E107" s="65">
         <v>20</v>
@@ -11172,7 +11338,7 @@
       <c r="B108" s="12"/>
       <c r="C108" s="44"/>
       <c r="D108" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E108" s="65">
         <v>10</v>
@@ -11248,11 +11414,11 @@
       <c r="A109" s="59"/>
       <c r="B109" s="12"/>
       <c r="C109" s="44"/>
-      <c r="D109" s="45" t="s">
-        <v>57</v>
+      <c r="D109" s="71" t="s">
+        <v>78</v>
       </c>
       <c r="E109" s="65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
@@ -11326,10 +11492,10 @@
       <c r="B110" s="12"/>
       <c r="C110" s="44"/>
       <c r="D110" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E110" s="65">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
@@ -11403,7 +11569,7 @@
       <c r="B111" s="12"/>
       <c r="C111" s="44"/>
       <c r="D111" s="45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E111" s="65">
         <v>3</v>
@@ -11478,11 +11644,13 @@
     <row r="112" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="59"/>
       <c r="B112" s="12"/>
-      <c r="C112" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D112" s="56"/>
-      <c r="E112" s="65"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112" s="65">
+        <v>3</v>
+      </c>
       <c r="F112" s="15"/>
       <c r="G112" s="16"/>
       <c r="H112" s="43"/>
@@ -11553,13 +11721,19 @@
     <row r="113" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="59"/>
       <c r="B113" s="12"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" s="65"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="16"/>
+      <c r="C113" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="56"/>
+      <c r="E113" s="65">
+        <v>10.5</v>
+      </c>
+      <c r="F113" s="15">
+        <v>44123</v>
+      </c>
+      <c r="G113" s="16">
+        <v>44125</v>
+      </c>
       <c r="H113" s="43"/>
       <c r="I113" s="43"/>
       <c r="J113" s="43"/>
@@ -11600,9 +11774,9 @@
       <c r="AS113" s="14"/>
       <c r="AT113" s="14"/>
       <c r="AU113" s="14"/>
-      <c r="AV113" s="14"/>
-      <c r="AW113" s="14"/>
-      <c r="AX113" s="14"/>
+      <c r="AV113" s="66"/>
+      <c r="AW113" s="66"/>
+      <c r="AX113" s="66"/>
       <c r="AY113" s="14"/>
       <c r="AZ113" s="14"/>
       <c r="BA113" s="14"/>
@@ -11630,7 +11804,7 @@
       <c r="B114" s="12"/>
       <c r="C114" s="67"/>
       <c r="D114" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E114" s="65"/>
       <c r="F114" s="15"/>
@@ -11705,7 +11879,7 @@
       <c r="B115" s="12"/>
       <c r="C115" s="67"/>
       <c r="D115" s="68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E115" s="65"/>
       <c r="F115" s="15"/>
@@ -11776,13 +11950,15 @@
       <c r="BS115" s="34"/>
     </row>
     <row r="116" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="35"/>
+      <c r="A116" s="59"/>
       <c r="B116" s="12"/>
       <c r="C116" s="67"/>
-      <c r="D116" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E116" s="65"/>
+      <c r="D116" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E116" s="65">
+        <v>3</v>
+      </c>
       <c r="F116" s="15"/>
       <c r="G116" s="16"/>
       <c r="H116" s="43"/>
@@ -11851,13 +12027,15 @@
       <c r="BS116" s="34"/>
     </row>
     <row r="117" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="35"/>
+      <c r="A117" s="59"/>
       <c r="B117" s="12"/>
       <c r="C117" s="67"/>
-      <c r="D117" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E117" s="65"/>
+      <c r="D117" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E117" s="65">
+        <v>3</v>
+      </c>
       <c r="F117" s="15"/>
       <c r="G117" s="16"/>
       <c r="H117" s="43"/>
@@ -11926,13 +12104,15 @@
       <c r="BS117" s="34"/>
     </row>
     <row r="118" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="35"/>
+      <c r="A118" s="59"/>
       <c r="B118" s="12"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E118" s="65"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="65">
+        <v>3</v>
+      </c>
       <c r="F118" s="15"/>
       <c r="G118" s="16"/>
       <c r="H118" s="43"/>
@@ -12003,11 +12183,13 @@
     <row r="119" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="35"/>
       <c r="B119" s="12"/>
-      <c r="C119" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D119" s="56"/>
-      <c r="E119" s="65"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="65">
+        <v>0.5</v>
+      </c>
       <c r="F119" s="15"/>
       <c r="G119" s="16"/>
       <c r="H119" s="43"/>
@@ -12078,11 +12260,13 @@
     <row r="120" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="35"/>
       <c r="B120" s="12"/>
-      <c r="C120" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D120" s="56"/>
-      <c r="E120" s="65"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="65">
+        <v>0.5</v>
+      </c>
       <c r="F120" s="15"/>
       <c r="G120" s="16"/>
       <c r="H120" s="43"/>
@@ -12153,11 +12337,13 @@
     <row r="121" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="35"/>
       <c r="B121" s="12"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E121" s="65"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="65">
+        <v>0.5</v>
+      </c>
       <c r="F121" s="15"/>
       <c r="G121" s="16"/>
       <c r="H121" s="43"/>
@@ -12228,13 +12414,19 @@
     <row r="122" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="35"/>
       <c r="B122" s="12"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E122" s="65"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="16"/>
+      <c r="C122" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122" s="56"/>
+      <c r="E122" s="65">
+        <v>10</v>
+      </c>
+      <c r="F122" s="15">
+        <v>44126</v>
+      </c>
+      <c r="G122" s="16">
+        <v>44128</v>
+      </c>
       <c r="H122" s="43"/>
       <c r="I122" s="43"/>
       <c r="J122" s="43"/>
@@ -12278,9 +12470,9 @@
       <c r="AV122" s="14"/>
       <c r="AW122" s="14"/>
       <c r="AX122" s="14"/>
-      <c r="AY122" s="14"/>
-      <c r="AZ122" s="14"/>
-      <c r="BA122" s="14"/>
+      <c r="AY122" s="66"/>
+      <c r="AZ122" s="66"/>
+      <c r="BA122" s="66"/>
       <c r="BB122" s="14"/>
       <c r="BC122" s="14"/>
       <c r="BD122" s="14"/>
@@ -12307,9 +12499,15 @@
         <v>30</v>
       </c>
       <c r="D123" s="56"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="16"/>
+      <c r="E123" s="65">
+        <v>10</v>
+      </c>
+      <c r="F123" s="15">
+        <v>44129</v>
+      </c>
+      <c r="G123" s="16">
+        <v>44130</v>
+      </c>
       <c r="H123" s="43"/>
       <c r="I123" s="43"/>
       <c r="J123" s="43"/>
@@ -12356,8 +12554,8 @@
       <c r="AY123" s="14"/>
       <c r="AZ123" s="14"/>
       <c r="BA123" s="14"/>
-      <c r="BB123" s="14"/>
-      <c r="BC123" s="14"/>
+      <c r="BB123" s="66"/>
+      <c r="BC123" s="66"/>
       <c r="BD123" s="14"/>
       <c r="BE123" s="14"/>
       <c r="BF123" s="14"/>
@@ -12376,7 +12574,7 @@
       <c r="BS123" s="34"/>
     </row>
     <row r="124" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="36"/>
+      <c r="A124" s="35"/>
       <c r="B124" s="12"/>
       <c r="C124" s="55" t="s">
         <v>32</v>
@@ -12450,11 +12648,311 @@
       <c r="BR124" s="14"/>
       <c r="BS124" s="34"/>
     </row>
+    <row r="125" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="35"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" s="65"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="43"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="43"/>
+      <c r="O125" s="43"/>
+      <c r="P125" s="43"/>
+      <c r="Q125" s="43"/>
+      <c r="R125" s="43"/>
+      <c r="S125" s="43"/>
+      <c r="T125" s="43"/>
+      <c r="U125" s="43"/>
+      <c r="V125" s="43"/>
+      <c r="W125" s="43"/>
+      <c r="X125" s="14"/>
+      <c r="Y125" s="14"/>
+      <c r="Z125" s="14"/>
+      <c r="AA125" s="14"/>
+      <c r="AB125" s="14"/>
+      <c r="AC125" s="14"/>
+      <c r="AD125" s="14"/>
+      <c r="AE125" s="14"/>
+      <c r="AF125" s="14"/>
+      <c r="AG125" s="14"/>
+      <c r="AH125" s="14"/>
+      <c r="AI125" s="14"/>
+      <c r="AJ125" s="14"/>
+      <c r="AK125" s="14"/>
+      <c r="AL125" s="14"/>
+      <c r="AM125" s="14"/>
+      <c r="AN125" s="14"/>
+      <c r="AO125" s="14"/>
+      <c r="AP125" s="14"/>
+      <c r="AQ125" s="14"/>
+      <c r="AR125" s="14"/>
+      <c r="AS125" s="14"/>
+      <c r="AT125" s="14"/>
+      <c r="AU125" s="14"/>
+      <c r="AV125" s="14"/>
+      <c r="AW125" s="14"/>
+      <c r="AX125" s="14"/>
+      <c r="AY125" s="14"/>
+      <c r="AZ125" s="14"/>
+      <c r="BA125" s="14"/>
+      <c r="BB125" s="14"/>
+      <c r="BC125" s="14"/>
+      <c r="BD125" s="14"/>
+      <c r="BE125" s="14"/>
+      <c r="BF125" s="14"/>
+      <c r="BG125" s="14"/>
+      <c r="BH125" s="14"/>
+      <c r="BI125" s="14"/>
+      <c r="BJ125" s="14"/>
+      <c r="BK125" s="14"/>
+      <c r="BL125" s="14"/>
+      <c r="BM125" s="14"/>
+      <c r="BN125" s="14"/>
+      <c r="BO125" s="14"/>
+      <c r="BP125" s="14"/>
+      <c r="BQ125" s="14"/>
+      <c r="BR125" s="14"/>
+      <c r="BS125" s="34"/>
+    </row>
     <row r="126" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C126" s="72" t="s">
+      <c r="A126" s="35"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="65"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="43"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="43"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="43"/>
+      <c r="N126" s="43"/>
+      <c r="O126" s="43"/>
+      <c r="P126" s="43"/>
+      <c r="Q126" s="43"/>
+      <c r="R126" s="43"/>
+      <c r="S126" s="43"/>
+      <c r="T126" s="43"/>
+      <c r="U126" s="43"/>
+      <c r="V126" s="43"/>
+      <c r="W126" s="43"/>
+      <c r="X126" s="14"/>
+      <c r="Y126" s="14"/>
+      <c r="Z126" s="14"/>
+      <c r="AA126" s="14"/>
+      <c r="AB126" s="14"/>
+      <c r="AC126" s="14"/>
+      <c r="AD126" s="14"/>
+      <c r="AE126" s="14"/>
+      <c r="AF126" s="14"/>
+      <c r="AG126" s="14"/>
+      <c r="AH126" s="14"/>
+      <c r="AI126" s="14"/>
+      <c r="AJ126" s="14"/>
+      <c r="AK126" s="14"/>
+      <c r="AL126" s="14"/>
+      <c r="AM126" s="14"/>
+      <c r="AN126" s="14"/>
+      <c r="AO126" s="14"/>
+      <c r="AP126" s="14"/>
+      <c r="AQ126" s="14"/>
+      <c r="AR126" s="14"/>
+      <c r="AS126" s="14"/>
+      <c r="AT126" s="14"/>
+      <c r="AU126" s="14"/>
+      <c r="AV126" s="14"/>
+      <c r="AW126" s="14"/>
+      <c r="AX126" s="14"/>
+      <c r="AY126" s="14"/>
+      <c r="AZ126" s="14"/>
+      <c r="BA126" s="14"/>
+      <c r="BB126" s="14"/>
+      <c r="BC126" s="14"/>
+      <c r="BD126" s="14"/>
+      <c r="BE126" s="14"/>
+      <c r="BF126" s="14"/>
+      <c r="BG126" s="14"/>
+      <c r="BH126" s="14"/>
+      <c r="BI126" s="14"/>
+      <c r="BJ126" s="14"/>
+      <c r="BK126" s="14"/>
+      <c r="BL126" s="14"/>
+      <c r="BM126" s="14"/>
+      <c r="BN126" s="14"/>
+      <c r="BO126" s="14"/>
+      <c r="BP126" s="14"/>
+      <c r="BQ126" s="14"/>
+      <c r="BR126" s="14"/>
+      <c r="BS126" s="34"/>
+    </row>
+    <row r="127" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="35"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="56"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="43"/>
+      <c r="O127" s="43"/>
+      <c r="P127" s="43"/>
+      <c r="Q127" s="43"/>
+      <c r="R127" s="43"/>
+      <c r="S127" s="43"/>
+      <c r="T127" s="43"/>
+      <c r="U127" s="43"/>
+      <c r="V127" s="43"/>
+      <c r="W127" s="43"/>
+      <c r="X127" s="14"/>
+      <c r="Y127" s="14"/>
+      <c r="Z127" s="14"/>
+      <c r="AA127" s="14"/>
+      <c r="AB127" s="14"/>
+      <c r="AC127" s="14"/>
+      <c r="AD127" s="14"/>
+      <c r="AE127" s="14"/>
+      <c r="AF127" s="14"/>
+      <c r="AG127" s="14"/>
+      <c r="AH127" s="14"/>
+      <c r="AI127" s="14"/>
+      <c r="AJ127" s="14"/>
+      <c r="AK127" s="14"/>
+      <c r="AL127" s="14"/>
+      <c r="AM127" s="14"/>
+      <c r="AN127" s="14"/>
+      <c r="AO127" s="14"/>
+      <c r="AP127" s="14"/>
+      <c r="AQ127" s="14"/>
+      <c r="AR127" s="14"/>
+      <c r="AS127" s="14"/>
+      <c r="AT127" s="14"/>
+      <c r="AU127" s="14"/>
+      <c r="AV127" s="14"/>
+      <c r="AW127" s="14"/>
+      <c r="AX127" s="14"/>
+      <c r="AY127" s="14"/>
+      <c r="AZ127" s="14"/>
+      <c r="BA127" s="14"/>
+      <c r="BB127" s="14"/>
+      <c r="BC127" s="14"/>
+      <c r="BD127" s="14"/>
+      <c r="BE127" s="14"/>
+      <c r="BF127" s="14"/>
+      <c r="BG127" s="14"/>
+      <c r="BH127" s="14"/>
+      <c r="BI127" s="14"/>
+      <c r="BJ127" s="14"/>
+      <c r="BK127" s="14"/>
+      <c r="BL127" s="14"/>
+      <c r="BM127" s="14"/>
+      <c r="BN127" s="14"/>
+      <c r="BO127" s="14"/>
+      <c r="BP127" s="14"/>
+      <c r="BQ127" s="14"/>
+      <c r="BR127" s="14"/>
+      <c r="BS127" s="34"/>
+    </row>
+    <row r="128" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="36"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="56"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="43"/>
+      <c r="O128" s="43"/>
+      <c r="P128" s="43"/>
+      <c r="Q128" s="43"/>
+      <c r="R128" s="43"/>
+      <c r="S128" s="43"/>
+      <c r="T128" s="43"/>
+      <c r="U128" s="43"/>
+      <c r="V128" s="43"/>
+      <c r="W128" s="43"/>
+      <c r="X128" s="14"/>
+      <c r="Y128" s="14"/>
+      <c r="Z128" s="14"/>
+      <c r="AA128" s="14"/>
+      <c r="AB128" s="14"/>
+      <c r="AC128" s="14"/>
+      <c r="AD128" s="14"/>
+      <c r="AE128" s="14"/>
+      <c r="AF128" s="14"/>
+      <c r="AG128" s="14"/>
+      <c r="AH128" s="14"/>
+      <c r="AI128" s="14"/>
+      <c r="AJ128" s="14"/>
+      <c r="AK128" s="14"/>
+      <c r="AL128" s="14"/>
+      <c r="AM128" s="14"/>
+      <c r="AN128" s="14"/>
+      <c r="AO128" s="14"/>
+      <c r="AP128" s="14"/>
+      <c r="AQ128" s="14"/>
+      <c r="AR128" s="14"/>
+      <c r="AS128" s="14"/>
+      <c r="AT128" s="14"/>
+      <c r="AU128" s="14"/>
+      <c r="AV128" s="14"/>
+      <c r="AW128" s="14"/>
+      <c r="AX128" s="14"/>
+      <c r="AY128" s="14"/>
+      <c r="AZ128" s="14"/>
+      <c r="BA128" s="14"/>
+      <c r="BB128" s="14"/>
+      <c r="BC128" s="14"/>
+      <c r="BD128" s="14"/>
+      <c r="BE128" s="14"/>
+      <c r="BF128" s="14"/>
+      <c r="BG128" s="14"/>
+      <c r="BH128" s="14"/>
+      <c r="BI128" s="14"/>
+      <c r="BJ128" s="14"/>
+      <c r="BK128" s="14"/>
+      <c r="BL128" s="14"/>
+      <c r="BM128" s="14"/>
+      <c r="BN128" s="14"/>
+      <c r="BO128" s="14"/>
+      <c r="BP128" s="14"/>
+      <c r="BQ128" s="14"/>
+      <c r="BR128" s="14"/>
+      <c r="BS128" s="34"/>
+    </row>
+    <row r="130" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C130" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D126" s="72"/>
+      <c r="D130" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12464,33 +12962,75 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="H4:BS4">
-    <cfRule type="cellIs" dxfId="50" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="135" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BS9 H93:BS96 H92:Y92 AC92:BS92 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS91 H105:AA105 AP105:BS105 H106:BS124 H102:BS104 H101:AO101 AV101:BS101 H98:BS100 H97:AO97 AV97:BS97">
-    <cfRule type="expression" dxfId="48" priority="113" stopIfTrue="1">
+  <conditionalFormatting sqref="H5:BS9 H93:BS96 H92:Y92 AC92:BS92 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS91 H105:AA105 AP105:BS105 H106:BS112 H102:BS104 H101:AO101 AV101:BS101 H98:BS100 H97:AO97 AV97:BS97 H114:BS121 H113:AU113 AY113:BS113 H124:BS128 H122:AX122 BB122:BS122 H123:BA123 BD123:BS123">
+    <cfRule type="expression" dxfId="60" priority="125" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="133" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:BS2">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="125">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="137">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:BS12">
+    <cfRule type="expression" dxfId="55" priority="117" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="119" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="120" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:BS12 H10:I11 L10:BS11">
+    <cfRule type="expression" dxfId="51" priority="113" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="114" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="116" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:BS13">
+    <cfRule type="expression" dxfId="47" priority="109" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="111" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:BS13">
     <cfRule type="expression" dxfId="43" priority="105" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12504,51 +13044,51 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:BS12 H10:I11 L10:BS11">
-    <cfRule type="expression" dxfId="39" priority="101" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+  <conditionalFormatting sqref="J10:J11">
+    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:BS13">
-    <cfRule type="expression" dxfId="35" priority="97" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+  <conditionalFormatting sqref="K10:K11">
+    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:BS13">
-    <cfRule type="expression" dxfId="31" priority="93" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+  <conditionalFormatting sqref="AA92 AA78">
+    <cfRule type="expression" dxfId="31" priority="142" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="144" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="145" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
+  <conditionalFormatting sqref="Z78">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -12560,9 +13100,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K11">
+  <conditionalFormatting sqref="AB105:AO105">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AA$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -12574,23 +13114,23 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA92 AA78">
-    <cfRule type="expression" dxfId="19" priority="130" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+  <conditionalFormatting sqref="AP101:AU101">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+      <formula>MATCH(AO$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z78">
+  <conditionalFormatting sqref="AP97:AU97">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AO$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -12602,9 +13142,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB105:AO105">
+  <conditionalFormatting sqref="AV113:AX113">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(AA$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AU$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -12616,9 +13156,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP101:AU101">
+  <conditionalFormatting sqref="AY122:BA122">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(AO$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AX$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -12630,9 +13170,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP97:AU97">
+  <conditionalFormatting sqref="BB123:BC123">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AO$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(BA$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/スケジュール表(安江).xlsx
+++ b/スケジュール表(安江).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9969DC-78D6-4E6C-A3C7-9D59E6266E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448DB3BB-4E0B-4675-9840-8E1E638DB29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -832,6 +832,126 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リファクタリング②</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mvcモデル調査</t>
+    <rPh sb="6" eb="8">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SQL処理クラス改修</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>職業にenumクラスへ改修</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リポジトリパターン調査</t>
+    <rPh sb="9" eb="11">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作戦名をenumクラスへ改修</t>
+    <rPh sb="0" eb="2">
+      <t>サクセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>if文の条件文のリファクタリング</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジョウケンブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列を変数展開にリファクタリング</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ビルド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵キャラクターのデータベース作成</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵キャラクター取得処理改修</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>状態異常をenumクラスに改修</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイシュウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1020,7 +1140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1377,13 +1497,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,6 +1684,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1547,7 +1720,287 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="91">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -2508,13 +2961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS130"/>
+  <dimension ref="A1:BS154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BD123" sqref="BD123"/>
+      <selection pane="bottomRight" activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2529,22 +2982,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="H2" s="25">
         <f>H3</f>
         <v>44083</v>
@@ -3062,11 +3515,11 @@
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
@@ -7478,16 +7931,16 @@
       <c r="A58" s="23"/>
       <c r="B58" s="12"/>
       <c r="C58" s="55" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D58" s="56"/>
-      <c r="E58" s="46"/>
+      <c r="E58" s="46">
+        <v>34</v>
+      </c>
       <c r="F58" s="47">
-        <v>44111</v>
-      </c>
-      <c r="G58" s="48">
-        <v>44111</v>
-      </c>
+        <v>44134</v>
+      </c>
+      <c r="G58" s="48"/>
       <c r="H58" s="49"/>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
@@ -7553,949 +8006,968 @@
       <c r="BR58" s="49"/>
       <c r="BS58" s="50"/>
     </row>
-    <row r="59" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="35"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
-      <c r="AD59" s="14"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
-      <c r="AI59" s="14"/>
-      <c r="AJ59" s="14"/>
-      <c r="AK59" s="14"/>
-      <c r="AL59" s="14"/>
-      <c r="AM59" s="14"/>
-      <c r="AN59" s="14"/>
-      <c r="AO59" s="14"/>
-      <c r="AP59" s="14"/>
-      <c r="AQ59" s="14"/>
-      <c r="AR59" s="14"/>
-      <c r="AS59" s="14"/>
-      <c r="AT59" s="14"/>
-      <c r="AU59" s="14"/>
-      <c r="AV59" s="14"/>
-      <c r="AW59" s="14"/>
-      <c r="AX59" s="14"/>
-      <c r="AY59" s="14"/>
-      <c r="AZ59" s="14"/>
-      <c r="BA59" s="14"/>
-      <c r="BB59" s="14"/>
-      <c r="BC59" s="14"/>
-      <c r="BD59" s="14"/>
-      <c r="BE59" s="14"/>
-      <c r="BF59" s="14"/>
-      <c r="BG59" s="14"/>
-      <c r="BH59" s="14"/>
-      <c r="BI59" s="14"/>
-      <c r="BJ59" s="14"/>
-      <c r="BK59" s="14"/>
-      <c r="BL59" s="14"/>
-      <c r="BM59" s="14"/>
-      <c r="BN59" s="14"/>
-      <c r="BO59" s="14"/>
-      <c r="BP59" s="14"/>
-      <c r="BQ59" s="14"/>
-      <c r="BR59" s="14"/>
-      <c r="BS59" s="34"/>
-    </row>
-    <row r="60" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="35"/>
+    <row r="59" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A59" s="23"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="76"/>
+      <c r="F59" s="47">
+        <v>44134</v>
+      </c>
+      <c r="G59" s="48">
+        <v>44134</v>
+      </c>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="49"/>
+      <c r="Y59" s="49"/>
+      <c r="Z59" s="49"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="49"/>
+      <c r="AC59" s="49"/>
+      <c r="AD59" s="49"/>
+      <c r="AE59" s="49"/>
+      <c r="AF59" s="49"/>
+      <c r="AG59" s="49"/>
+      <c r="AH59" s="49"/>
+      <c r="AI59" s="49"/>
+      <c r="AJ59" s="49"/>
+      <c r="AK59" s="49"/>
+      <c r="AL59" s="49"/>
+      <c r="AM59" s="49"/>
+      <c r="AN59" s="49"/>
+      <c r="AO59" s="49"/>
+      <c r="AP59" s="49"/>
+      <c r="AQ59" s="49"/>
+      <c r="AR59" s="49"/>
+      <c r="AS59" s="49"/>
+      <c r="AT59" s="49"/>
+      <c r="AU59" s="49"/>
+      <c r="AV59" s="49"/>
+      <c r="AW59" s="49"/>
+      <c r="AX59" s="49"/>
+      <c r="AY59" s="49"/>
+      <c r="AZ59" s="49"/>
+      <c r="BA59" s="49"/>
+      <c r="BB59" s="49"/>
+      <c r="BC59" s="49"/>
+      <c r="BD59" s="49"/>
+      <c r="BE59" s="49"/>
+      <c r="BF59" s="49"/>
+      <c r="BG59" s="49"/>
+      <c r="BH59" s="49"/>
+      <c r="BI59" s="49"/>
+      <c r="BJ59" s="49"/>
+      <c r="BK59" s="49"/>
+      <c r="BL59" s="49"/>
+      <c r="BM59" s="49"/>
+      <c r="BN59" s="49"/>
+      <c r="BO59" s="49"/>
+      <c r="BP59" s="49"/>
+      <c r="BQ59" s="49"/>
+      <c r="BR59" s="49"/>
+      <c r="BS59" s="50"/>
+    </row>
+    <row r="60" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A60" s="23"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="15">
-        <v>44093</v>
-      </c>
-      <c r="G60" s="16">
-        <v>44093</v>
-      </c>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
-      <c r="W60" s="43"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="14"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="14"/>
-      <c r="AC60" s="14"/>
-      <c r="AD60" s="14"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="14"/>
-      <c r="AI60" s="14"/>
-      <c r="AJ60" s="14"/>
-      <c r="AK60" s="14"/>
-      <c r="AL60" s="14"/>
-      <c r="AM60" s="14"/>
-      <c r="AN60" s="14"/>
-      <c r="AO60" s="14"/>
-      <c r="AP60" s="14"/>
-      <c r="AQ60" s="14"/>
-      <c r="AR60" s="14"/>
-      <c r="AS60" s="14"/>
-      <c r="AT60" s="14"/>
-      <c r="AU60" s="14"/>
-      <c r="AV60" s="14"/>
-      <c r="AW60" s="14"/>
-      <c r="AX60" s="14"/>
-      <c r="AY60" s="14"/>
-      <c r="AZ60" s="14"/>
-      <c r="BA60" s="14"/>
-      <c r="BB60" s="14"/>
-      <c r="BC60" s="14"/>
-      <c r="BD60" s="14"/>
-      <c r="BE60" s="14"/>
-      <c r="BF60" s="14"/>
-      <c r="BG60" s="14"/>
-      <c r="BH60" s="14"/>
-      <c r="BI60" s="14"/>
-      <c r="BJ60" s="14"/>
-      <c r="BK60" s="14"/>
-      <c r="BL60" s="14"/>
-      <c r="BM60" s="14"/>
-      <c r="BN60" s="14"/>
-      <c r="BO60" s="14"/>
-      <c r="BP60" s="14"/>
-      <c r="BQ60" s="14"/>
-      <c r="BR60" s="14"/>
-      <c r="BS60" s="34"/>
-    </row>
-    <row r="61" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="35"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
-      <c r="W61" s="43"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="14"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="14"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="14"/>
-      <c r="AI61" s="14"/>
-      <c r="AJ61" s="14"/>
-      <c r="AK61" s="14"/>
-      <c r="AL61" s="14"/>
-      <c r="AM61" s="14"/>
-      <c r="AN61" s="14"/>
-      <c r="AO61" s="14"/>
-      <c r="AP61" s="14"/>
-      <c r="AQ61" s="14"/>
-      <c r="AR61" s="14"/>
-      <c r="AS61" s="14"/>
-      <c r="AT61" s="14"/>
-      <c r="AU61" s="14"/>
-      <c r="AV61" s="14"/>
-      <c r="AW61" s="14"/>
-      <c r="AX61" s="14"/>
-      <c r="AY61" s="14"/>
-      <c r="AZ61" s="14"/>
-      <c r="BA61" s="14"/>
-      <c r="BB61" s="14"/>
-      <c r="BC61" s="14"/>
-      <c r="BD61" s="14"/>
-      <c r="BE61" s="14"/>
-      <c r="BF61" s="14"/>
-      <c r="BG61" s="14"/>
-      <c r="BH61" s="14"/>
-      <c r="BI61" s="14"/>
-      <c r="BJ61" s="14"/>
-      <c r="BK61" s="14"/>
-      <c r="BL61" s="14"/>
-      <c r="BM61" s="14"/>
-      <c r="BN61" s="14"/>
-      <c r="BO61" s="14"/>
-      <c r="BP61" s="14"/>
-      <c r="BQ61" s="14"/>
-      <c r="BR61" s="14"/>
-      <c r="BS61" s="34"/>
-    </row>
-    <row r="62" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="35"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="77"/>
+      <c r="F60" s="47">
+        <v>44135</v>
+      </c>
+      <c r="G60" s="48">
+        <v>44135</v>
+      </c>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="49"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="49"/>
+      <c r="X60" s="49"/>
+      <c r="Y60" s="49"/>
+      <c r="Z60" s="49"/>
+      <c r="AA60" s="49"/>
+      <c r="AB60" s="49"/>
+      <c r="AC60" s="49"/>
+      <c r="AD60" s="49"/>
+      <c r="AE60" s="49"/>
+      <c r="AF60" s="49"/>
+      <c r="AG60" s="49"/>
+      <c r="AH60" s="49"/>
+      <c r="AI60" s="49"/>
+      <c r="AJ60" s="49"/>
+      <c r="AK60" s="49"/>
+      <c r="AL60" s="49"/>
+      <c r="AM60" s="49"/>
+      <c r="AN60" s="49"/>
+      <c r="AO60" s="49"/>
+      <c r="AP60" s="49"/>
+      <c r="AQ60" s="49"/>
+      <c r="AR60" s="49"/>
+      <c r="AS60" s="49"/>
+      <c r="AT60" s="49"/>
+      <c r="AU60" s="49"/>
+      <c r="AV60" s="49"/>
+      <c r="AW60" s="49"/>
+      <c r="AX60" s="49"/>
+      <c r="AY60" s="49"/>
+      <c r="AZ60" s="49"/>
+      <c r="BA60" s="49"/>
+      <c r="BB60" s="49"/>
+      <c r="BC60" s="49"/>
+      <c r="BD60" s="49"/>
+      <c r="BE60" s="49"/>
+      <c r="BF60" s="49"/>
+      <c r="BG60" s="49"/>
+      <c r="BH60" s="49"/>
+      <c r="BI60" s="49"/>
+      <c r="BJ60" s="49"/>
+      <c r="BK60" s="49"/>
+      <c r="BL60" s="49"/>
+      <c r="BM60" s="49"/>
+      <c r="BN60" s="49"/>
+      <c r="BO60" s="49"/>
+      <c r="BP60" s="49"/>
+      <c r="BQ60" s="49"/>
+      <c r="BR60" s="49"/>
+      <c r="BS60" s="50"/>
+    </row>
+    <row r="61" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A61" s="23"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="77"/>
+      <c r="F61" s="47">
+        <v>44135</v>
+      </c>
+      <c r="G61" s="48">
+        <v>44135</v>
+      </c>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="49"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="49"/>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="49"/>
+      <c r="AG61" s="49"/>
+      <c r="AH61" s="49"/>
+      <c r="AI61" s="49"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="49"/>
+      <c r="AL61" s="49"/>
+      <c r="AM61" s="49"/>
+      <c r="AN61" s="49"/>
+      <c r="AO61" s="49"/>
+      <c r="AP61" s="49"/>
+      <c r="AQ61" s="49"/>
+      <c r="AR61" s="49"/>
+      <c r="AS61" s="49"/>
+      <c r="AT61" s="49"/>
+      <c r="AU61" s="49"/>
+      <c r="AV61" s="49"/>
+      <c r="AW61" s="49"/>
+      <c r="AX61" s="49"/>
+      <c r="AY61" s="49"/>
+      <c r="AZ61" s="49"/>
+      <c r="BA61" s="49"/>
+      <c r="BB61" s="49"/>
+      <c r="BC61" s="49"/>
+      <c r="BD61" s="49"/>
+      <c r="BE61" s="49"/>
+      <c r="BF61" s="49"/>
+      <c r="BG61" s="49"/>
+      <c r="BH61" s="49"/>
+      <c r="BI61" s="49"/>
+      <c r="BJ61" s="49"/>
+      <c r="BK61" s="49"/>
+      <c r="BL61" s="49"/>
+      <c r="BM61" s="49"/>
+      <c r="BN61" s="49"/>
+      <c r="BO61" s="49"/>
+      <c r="BP61" s="49"/>
+      <c r="BQ61" s="49"/>
+      <c r="BR61" s="49"/>
+      <c r="BS61" s="50"/>
+    </row>
+    <row r="62" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A62" s="23"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="15">
-        <v>44094</v>
-      </c>
-      <c r="G62" s="16">
-        <v>44094</v>
-      </c>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43"/>
-      <c r="W62" s="43"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="14"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="14"/>
-      <c r="AC62" s="14"/>
-      <c r="AD62" s="14"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
-      <c r="AI62" s="14"/>
-      <c r="AJ62" s="14"/>
-      <c r="AK62" s="14"/>
-      <c r="AL62" s="14"/>
-      <c r="AM62" s="14"/>
-      <c r="AN62" s="14"/>
-      <c r="AO62" s="14"/>
-      <c r="AP62" s="14"/>
-      <c r="AQ62" s="14"/>
-      <c r="AR62" s="14"/>
-      <c r="AS62" s="14"/>
-      <c r="AT62" s="14"/>
-      <c r="AU62" s="14"/>
-      <c r="AV62" s="14"/>
-      <c r="AW62" s="14"/>
-      <c r="AX62" s="14"/>
-      <c r="AY62" s="14"/>
-      <c r="AZ62" s="14"/>
-      <c r="BA62" s="14"/>
-      <c r="BB62" s="14"/>
-      <c r="BC62" s="14"/>
-      <c r="BD62" s="14"/>
-      <c r="BE62" s="14"/>
-      <c r="BF62" s="14"/>
-      <c r="BG62" s="14"/>
-      <c r="BH62" s="14"/>
-      <c r="BI62" s="14"/>
-      <c r="BJ62" s="14"/>
-      <c r="BK62" s="14"/>
-      <c r="BL62" s="14"/>
-      <c r="BM62" s="14"/>
-      <c r="BN62" s="14"/>
-      <c r="BO62" s="14"/>
-      <c r="BP62" s="14"/>
-      <c r="BQ62" s="14"/>
-      <c r="BR62" s="14"/>
-      <c r="BS62" s="34"/>
-    </row>
-    <row r="63" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="35"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
-      <c r="W63" s="43"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="14"/>
-      <c r="AA63" s="14"/>
-      <c r="AB63" s="14"/>
-      <c r="AC63" s="14"/>
-      <c r="AD63" s="14"/>
-      <c r="AE63" s="14"/>
-      <c r="AF63" s="14"/>
-      <c r="AG63" s="14"/>
-      <c r="AH63" s="14"/>
-      <c r="AI63" s="14"/>
-      <c r="AJ63" s="14"/>
-      <c r="AK63" s="14"/>
-      <c r="AL63" s="14"/>
-      <c r="AM63" s="14"/>
-      <c r="AN63" s="14"/>
-      <c r="AO63" s="14"/>
-      <c r="AP63" s="14"/>
-      <c r="AQ63" s="14"/>
-      <c r="AR63" s="14"/>
-      <c r="AS63" s="14"/>
-      <c r="AT63" s="14"/>
-      <c r="AU63" s="14"/>
-      <c r="AV63" s="14"/>
-      <c r="AW63" s="14"/>
-      <c r="AX63" s="14"/>
-      <c r="AY63" s="14"/>
-      <c r="AZ63" s="14"/>
-      <c r="BA63" s="14"/>
-      <c r="BB63" s="14"/>
-      <c r="BC63" s="14"/>
-      <c r="BD63" s="14"/>
-      <c r="BE63" s="14"/>
-      <c r="BF63" s="14"/>
-      <c r="BG63" s="14"/>
-      <c r="BH63" s="14"/>
-      <c r="BI63" s="14"/>
-      <c r="BJ63" s="14"/>
-      <c r="BK63" s="14"/>
-      <c r="BL63" s="14"/>
-      <c r="BM63" s="14"/>
-      <c r="BN63" s="14"/>
-      <c r="BO63" s="14"/>
-      <c r="BP63" s="14"/>
-      <c r="BQ63" s="14"/>
-      <c r="BR63" s="14"/>
-      <c r="BS63" s="34"/>
-    </row>
-    <row r="64" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="35"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="77"/>
+      <c r="F62" s="47">
+        <v>44135</v>
+      </c>
+      <c r="G62" s="48">
+        <v>44135</v>
+      </c>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="49"/>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="49"/>
+      <c r="Z62" s="49"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="49"/>
+      <c r="AC62" s="49"/>
+      <c r="AD62" s="49"/>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="49"/>
+      <c r="AH62" s="49"/>
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="49"/>
+      <c r="AL62" s="49"/>
+      <c r="AM62" s="49"/>
+      <c r="AN62" s="49"/>
+      <c r="AO62" s="49"/>
+      <c r="AP62" s="49"/>
+      <c r="AQ62" s="49"/>
+      <c r="AR62" s="49"/>
+      <c r="AS62" s="49"/>
+      <c r="AT62" s="49"/>
+      <c r="AU62" s="49"/>
+      <c r="AV62" s="49"/>
+      <c r="AW62" s="49"/>
+      <c r="AX62" s="49"/>
+      <c r="AY62" s="49"/>
+      <c r="AZ62" s="49"/>
+      <c r="BA62" s="49"/>
+      <c r="BB62" s="49"/>
+      <c r="BC62" s="49"/>
+      <c r="BD62" s="49"/>
+      <c r="BE62" s="49"/>
+      <c r="BF62" s="49"/>
+      <c r="BG62" s="49"/>
+      <c r="BH62" s="49"/>
+      <c r="BI62" s="49"/>
+      <c r="BJ62" s="49"/>
+      <c r="BK62" s="49"/>
+      <c r="BL62" s="49"/>
+      <c r="BM62" s="49"/>
+      <c r="BN62" s="49"/>
+      <c r="BO62" s="49"/>
+      <c r="BP62" s="49"/>
+      <c r="BQ62" s="49"/>
+      <c r="BR62" s="49"/>
+      <c r="BS62" s="50"/>
+    </row>
+    <row r="63" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A63" s="23"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="77"/>
+      <c r="F63" s="47">
+        <v>44136</v>
+      </c>
+      <c r="G63" s="48">
+        <v>44136</v>
+      </c>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="49"/>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="49"/>
+      <c r="AG63" s="49"/>
+      <c r="AH63" s="49"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="49"/>
+      <c r="AK63" s="49"/>
+      <c r="AL63" s="49"/>
+      <c r="AM63" s="49"/>
+      <c r="AN63" s="49"/>
+      <c r="AO63" s="49"/>
+      <c r="AP63" s="49"/>
+      <c r="AQ63" s="49"/>
+      <c r="AR63" s="49"/>
+      <c r="AS63" s="49"/>
+      <c r="AT63" s="49"/>
+      <c r="AU63" s="49"/>
+      <c r="AV63" s="49"/>
+      <c r="AW63" s="49"/>
+      <c r="AX63" s="49"/>
+      <c r="AY63" s="49"/>
+      <c r="AZ63" s="49"/>
+      <c r="BA63" s="49"/>
+      <c r="BB63" s="49"/>
+      <c r="BC63" s="49"/>
+      <c r="BD63" s="49"/>
+      <c r="BE63" s="49"/>
+      <c r="BF63" s="49"/>
+      <c r="BG63" s="49"/>
+      <c r="BH63" s="49"/>
+      <c r="BI63" s="49"/>
+      <c r="BJ63" s="49"/>
+      <c r="BK63" s="49"/>
+      <c r="BL63" s="49"/>
+      <c r="BM63" s="49"/>
+      <c r="BN63" s="49"/>
+      <c r="BO63" s="49"/>
+      <c r="BP63" s="49"/>
+      <c r="BQ63" s="49"/>
+      <c r="BR63" s="49"/>
+      <c r="BS63" s="50"/>
+    </row>
+    <row r="64" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A64" s="23"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="65">
-        <v>7</v>
-      </c>
-      <c r="F64" s="15">
-        <v>44095</v>
-      </c>
-      <c r="G64" s="16">
-        <v>44096</v>
-      </c>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="14"/>
-      <c r="AA64" s="14"/>
-      <c r="AB64" s="14"/>
-      <c r="AC64" s="14"/>
-      <c r="AD64" s="14"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="14"/>
-      <c r="AI64" s="14"/>
-      <c r="AJ64" s="14"/>
-      <c r="AK64" s="14"/>
-      <c r="AL64" s="14"/>
-      <c r="AM64" s="14"/>
-      <c r="AN64" s="14"/>
-      <c r="AO64" s="14"/>
-      <c r="AP64" s="14"/>
-      <c r="AQ64" s="14"/>
-      <c r="AR64" s="14"/>
-      <c r="AS64" s="14"/>
-      <c r="AT64" s="14"/>
-      <c r="AU64" s="14"/>
-      <c r="AV64" s="14"/>
-      <c r="AW64" s="14"/>
-      <c r="AX64" s="14"/>
-      <c r="AY64" s="14"/>
-      <c r="AZ64" s="14"/>
-      <c r="BA64" s="14"/>
-      <c r="BB64" s="14"/>
-      <c r="BC64" s="14"/>
-      <c r="BD64" s="14"/>
-      <c r="BE64" s="14"/>
-      <c r="BF64" s="14"/>
-      <c r="BG64" s="14"/>
-      <c r="BH64" s="14"/>
-      <c r="BI64" s="14"/>
-      <c r="BJ64" s="14"/>
-      <c r="BK64" s="14"/>
-      <c r="BL64" s="14"/>
-      <c r="BM64" s="14"/>
-      <c r="BN64" s="14"/>
-      <c r="BO64" s="14"/>
-      <c r="BP64" s="14"/>
-      <c r="BQ64" s="14"/>
-      <c r="BR64" s="14"/>
-      <c r="BS64" s="34"/>
-    </row>
-    <row r="65" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="35"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="77"/>
+      <c r="F64" s="47">
+        <v>44136</v>
+      </c>
+      <c r="G64" s="47">
+        <v>44136</v>
+      </c>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="49"/>
+      <c r="W64" s="49"/>
+      <c r="X64" s="49"/>
+      <c r="Y64" s="49"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="49"/>
+      <c r="AD64" s="49"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="49"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="49"/>
+      <c r="AI64" s="49"/>
+      <c r="AJ64" s="49"/>
+      <c r="AK64" s="49"/>
+      <c r="AL64" s="49"/>
+      <c r="AM64" s="49"/>
+      <c r="AN64" s="49"/>
+      <c r="AO64" s="49"/>
+      <c r="AP64" s="49"/>
+      <c r="AQ64" s="49"/>
+      <c r="AR64" s="49"/>
+      <c r="AS64" s="49"/>
+      <c r="AT64" s="49"/>
+      <c r="AU64" s="49"/>
+      <c r="AV64" s="49"/>
+      <c r="AW64" s="49"/>
+      <c r="AX64" s="49"/>
+      <c r="AY64" s="49"/>
+      <c r="AZ64" s="49"/>
+      <c r="BA64" s="49"/>
+      <c r="BB64" s="49"/>
+      <c r="BC64" s="49"/>
+      <c r="BD64" s="49"/>
+      <c r="BE64" s="49"/>
+      <c r="BF64" s="49"/>
+      <c r="BG64" s="49"/>
+      <c r="BH64" s="49"/>
+      <c r="BI64" s="49"/>
+      <c r="BJ64" s="49"/>
+      <c r="BK64" s="49"/>
+      <c r="BL64" s="49"/>
+      <c r="BM64" s="49"/>
+      <c r="BN64" s="49"/>
+      <c r="BO64" s="49"/>
+      <c r="BP64" s="49"/>
+      <c r="BQ64" s="49"/>
+      <c r="BR64" s="49"/>
+      <c r="BS64" s="50"/>
+    </row>
+    <row r="65" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A65" s="23"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="65">
-        <v>1</v>
-      </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="14"/>
-      <c r="Z65" s="14"/>
-      <c r="AA65" s="14"/>
-      <c r="AB65" s="14"/>
-      <c r="AC65" s="14"/>
-      <c r="AD65" s="14"/>
-      <c r="AE65" s="14"/>
-      <c r="AF65" s="14"/>
-      <c r="AG65" s="14"/>
-      <c r="AH65" s="14"/>
-      <c r="AI65" s="14"/>
-      <c r="AJ65" s="14"/>
-      <c r="AK65" s="14"/>
-      <c r="AL65" s="14"/>
-      <c r="AM65" s="14"/>
-      <c r="AN65" s="14"/>
-      <c r="AO65" s="14"/>
-      <c r="AP65" s="14"/>
-      <c r="AQ65" s="14"/>
-      <c r="AR65" s="14"/>
-      <c r="AS65" s="14"/>
-      <c r="AT65" s="14"/>
-      <c r="AU65" s="14"/>
-      <c r="AV65" s="14"/>
-      <c r="AW65" s="14"/>
-      <c r="AX65" s="14"/>
-      <c r="AY65" s="14"/>
-      <c r="AZ65" s="14"/>
-      <c r="BA65" s="14"/>
-      <c r="BB65" s="14"/>
-      <c r="BC65" s="14"/>
-      <c r="BD65" s="14"/>
-      <c r="BE65" s="14"/>
-      <c r="BF65" s="14"/>
-      <c r="BG65" s="14"/>
-      <c r="BH65" s="14"/>
-      <c r="BI65" s="14"/>
-      <c r="BJ65" s="14"/>
-      <c r="BK65" s="14"/>
-      <c r="BL65" s="14"/>
-      <c r="BM65" s="14"/>
-      <c r="BN65" s="14"/>
-      <c r="BO65" s="14"/>
-      <c r="BP65" s="14"/>
-      <c r="BQ65" s="14"/>
-      <c r="BR65" s="14"/>
-      <c r="BS65" s="34"/>
-    </row>
-    <row r="66" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="35"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="77"/>
+      <c r="F65" s="47">
+        <v>44137</v>
+      </c>
+      <c r="G65" s="48">
+        <v>44139</v>
+      </c>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="49"/>
+      <c r="V65" s="49"/>
+      <c r="W65" s="49"/>
+      <c r="X65" s="49"/>
+      <c r="Y65" s="49"/>
+      <c r="Z65" s="49"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="49"/>
+      <c r="AD65" s="49"/>
+      <c r="AE65" s="49"/>
+      <c r="AF65" s="49"/>
+      <c r="AG65" s="49"/>
+      <c r="AH65" s="49"/>
+      <c r="AI65" s="49"/>
+      <c r="AJ65" s="49"/>
+      <c r="AK65" s="49"/>
+      <c r="AL65" s="49"/>
+      <c r="AM65" s="49"/>
+      <c r="AN65" s="49"/>
+      <c r="AO65" s="49"/>
+      <c r="AP65" s="49"/>
+      <c r="AQ65" s="49"/>
+      <c r="AR65" s="49"/>
+      <c r="AS65" s="49"/>
+      <c r="AT65" s="49"/>
+      <c r="AU65" s="49"/>
+      <c r="AV65" s="49"/>
+      <c r="AW65" s="49"/>
+      <c r="AX65" s="49"/>
+      <c r="AY65" s="49"/>
+      <c r="AZ65" s="49"/>
+      <c r="BA65" s="49"/>
+      <c r="BB65" s="49"/>
+      <c r="BC65" s="49"/>
+      <c r="BD65" s="49"/>
+      <c r="BE65" s="49"/>
+      <c r="BF65" s="49"/>
+      <c r="BG65" s="49"/>
+      <c r="BH65" s="49"/>
+      <c r="BI65" s="49"/>
+      <c r="BJ65" s="49"/>
+      <c r="BK65" s="49"/>
+      <c r="BL65" s="49"/>
+      <c r="BM65" s="49"/>
+      <c r="BN65" s="49"/>
+      <c r="BO65" s="49"/>
+      <c r="BP65" s="49"/>
+      <c r="BQ65" s="49"/>
+      <c r="BR65" s="49"/>
+      <c r="BS65" s="50"/>
+    </row>
+    <row r="66" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A66" s="23"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="65">
-        <v>2</v>
-      </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="14"/>
-      <c r="Y66" s="14"/>
-      <c r="Z66" s="14"/>
-      <c r="AA66" s="14"/>
-      <c r="AB66" s="14"/>
-      <c r="AC66" s="14"/>
-      <c r="AD66" s="14"/>
-      <c r="AE66" s="14"/>
-      <c r="AF66" s="14"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="14"/>
-      <c r="AI66" s="14"/>
-      <c r="AJ66" s="14"/>
-      <c r="AK66" s="14"/>
-      <c r="AL66" s="14"/>
-      <c r="AM66" s="14"/>
-      <c r="AN66" s="14"/>
-      <c r="AO66" s="14"/>
-      <c r="AP66" s="14"/>
-      <c r="AQ66" s="14"/>
-      <c r="AR66" s="14"/>
-      <c r="AS66" s="14"/>
-      <c r="AT66" s="14"/>
-      <c r="AU66" s="14"/>
-      <c r="AV66" s="14"/>
-      <c r="AW66" s="14"/>
-      <c r="AX66" s="14"/>
-      <c r="AY66" s="14"/>
-      <c r="AZ66" s="14"/>
-      <c r="BA66" s="14"/>
-      <c r="BB66" s="14"/>
-      <c r="BC66" s="14"/>
-      <c r="BD66" s="14"/>
-      <c r="BE66" s="14"/>
-      <c r="BF66" s="14"/>
-      <c r="BG66" s="14"/>
-      <c r="BH66" s="14"/>
-      <c r="BI66" s="14"/>
-      <c r="BJ66" s="14"/>
-      <c r="BK66" s="14"/>
-      <c r="BL66" s="14"/>
-      <c r="BM66" s="14"/>
-      <c r="BN66" s="14"/>
-      <c r="BO66" s="14"/>
-      <c r="BP66" s="14"/>
-      <c r="BQ66" s="14"/>
-      <c r="BR66" s="14"/>
-      <c r="BS66" s="34"/>
-    </row>
-    <row r="67" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="35"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="77"/>
+      <c r="F66" s="47">
+        <v>44140</v>
+      </c>
+      <c r="G66" s="48">
+        <v>44141</v>
+      </c>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="49"/>
+      <c r="W66" s="49"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="49"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="49"/>
+      <c r="AC66" s="49"/>
+      <c r="AD66" s="49"/>
+      <c r="AE66" s="49"/>
+      <c r="AF66" s="49"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="49"/>
+      <c r="AI66" s="49"/>
+      <c r="AJ66" s="49"/>
+      <c r="AK66" s="49"/>
+      <c r="AL66" s="49"/>
+      <c r="AM66" s="49"/>
+      <c r="AN66" s="49"/>
+      <c r="AO66" s="49"/>
+      <c r="AP66" s="49"/>
+      <c r="AQ66" s="49"/>
+      <c r="AR66" s="49"/>
+      <c r="AS66" s="49"/>
+      <c r="AT66" s="49"/>
+      <c r="AU66" s="49"/>
+      <c r="AV66" s="49"/>
+      <c r="AW66" s="49"/>
+      <c r="AX66" s="49"/>
+      <c r="AY66" s="49"/>
+      <c r="AZ66" s="49"/>
+      <c r="BA66" s="49"/>
+      <c r="BB66" s="49"/>
+      <c r="BC66" s="49"/>
+      <c r="BD66" s="49"/>
+      <c r="BE66" s="49"/>
+      <c r="BF66" s="49"/>
+      <c r="BG66" s="49"/>
+      <c r="BH66" s="49"/>
+      <c r="BI66" s="49"/>
+      <c r="BJ66" s="49"/>
+      <c r="BK66" s="49"/>
+      <c r="BL66" s="49"/>
+      <c r="BM66" s="49"/>
+      <c r="BN66" s="49"/>
+      <c r="BO66" s="49"/>
+      <c r="BP66" s="49"/>
+      <c r="BQ66" s="49"/>
+      <c r="BR66" s="49"/>
+      <c r="BS66" s="50"/>
+    </row>
+    <row r="67" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A67" s="23"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="54"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="15">
-        <v>44096</v>
-      </c>
-      <c r="G67" s="16">
-        <v>44099</v>
-      </c>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="43"/>
-      <c r="W67" s="43"/>
-      <c r="X67" s="66"/>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="14"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="14"/>
-      <c r="AC67" s="14"/>
-      <c r="AD67" s="14"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
-      <c r="AI67" s="14"/>
-      <c r="AJ67" s="14"/>
-      <c r="AK67" s="14"/>
-      <c r="AL67" s="14"/>
-      <c r="AM67" s="14"/>
-      <c r="AN67" s="14"/>
-      <c r="AO67" s="14"/>
-      <c r="AP67" s="14"/>
-      <c r="AQ67" s="14"/>
-      <c r="AR67" s="14"/>
-      <c r="AS67" s="14"/>
-      <c r="AT67" s="14"/>
-      <c r="AU67" s="14"/>
-      <c r="AV67" s="14"/>
-      <c r="AW67" s="14"/>
-      <c r="AX67" s="14"/>
-      <c r="AY67" s="14"/>
-      <c r="AZ67" s="14"/>
-      <c r="BA67" s="14"/>
-      <c r="BB67" s="14"/>
-      <c r="BC67" s="14"/>
-      <c r="BD67" s="14"/>
-      <c r="BE67" s="14"/>
-      <c r="BF67" s="14"/>
-      <c r="BG67" s="14"/>
-      <c r="BH67" s="14"/>
-      <c r="BI67" s="14"/>
-      <c r="BJ67" s="14"/>
-      <c r="BK67" s="14"/>
-      <c r="BL67" s="14"/>
-      <c r="BM67" s="14"/>
-      <c r="BN67" s="14"/>
-      <c r="BO67" s="14"/>
-      <c r="BP67" s="14"/>
-      <c r="BQ67" s="14"/>
-      <c r="BR67" s="14"/>
-      <c r="BS67" s="34"/>
-    </row>
-    <row r="68" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="35"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="77"/>
+      <c r="F67" s="47">
+        <v>44142</v>
+      </c>
+      <c r="G67" s="48">
+        <v>44142</v>
+      </c>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="49"/>
+      <c r="W67" s="49"/>
+      <c r="X67" s="49"/>
+      <c r="Y67" s="49"/>
+      <c r="Z67" s="49"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="49"/>
+      <c r="AC67" s="49"/>
+      <c r="AD67" s="49"/>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="49"/>
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="49"/>
+      <c r="AI67" s="49"/>
+      <c r="AJ67" s="49"/>
+      <c r="AK67" s="49"/>
+      <c r="AL67" s="49"/>
+      <c r="AM67" s="49"/>
+      <c r="AN67" s="49"/>
+      <c r="AO67" s="49"/>
+      <c r="AP67" s="49"/>
+      <c r="AQ67" s="49"/>
+      <c r="AR67" s="49"/>
+      <c r="AS67" s="49"/>
+      <c r="AT67" s="49"/>
+      <c r="AU67" s="49"/>
+      <c r="AV67" s="49"/>
+      <c r="AW67" s="49"/>
+      <c r="AX67" s="49"/>
+      <c r="AY67" s="49"/>
+      <c r="AZ67" s="49"/>
+      <c r="BA67" s="49"/>
+      <c r="BB67" s="49"/>
+      <c r="BC67" s="49"/>
+      <c r="BD67" s="49"/>
+      <c r="BE67" s="49"/>
+      <c r="BF67" s="49"/>
+      <c r="BG67" s="49"/>
+      <c r="BH67" s="49"/>
+      <c r="BI67" s="49"/>
+      <c r="BJ67" s="49"/>
+      <c r="BK67" s="49"/>
+      <c r="BL67" s="49"/>
+      <c r="BM67" s="49"/>
+      <c r="BN67" s="49"/>
+      <c r="BO67" s="49"/>
+      <c r="BP67" s="49"/>
+      <c r="BQ67" s="49"/>
+      <c r="BR67" s="49"/>
+      <c r="BS67" s="50"/>
+    </row>
+    <row r="68" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A68" s="23"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="65">
-        <v>5</v>
-      </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="Y68" s="14"/>
-      <c r="Z68" s="14"/>
-      <c r="AA68" s="14"/>
-      <c r="AB68" s="14"/>
-      <c r="AC68" s="14"/>
-      <c r="AD68" s="14"/>
-      <c r="AE68" s="14"/>
-      <c r="AF68" s="14"/>
-      <c r="AG68" s="14"/>
-      <c r="AH68" s="14"/>
-      <c r="AI68" s="14"/>
-      <c r="AJ68" s="14"/>
-      <c r="AK68" s="14"/>
-      <c r="AL68" s="14"/>
-      <c r="AM68" s="14"/>
-      <c r="AN68" s="14"/>
-      <c r="AO68" s="14"/>
-      <c r="AP68" s="14"/>
-      <c r="AQ68" s="14"/>
-      <c r="AR68" s="14"/>
-      <c r="AS68" s="14"/>
-      <c r="AT68" s="14"/>
-      <c r="AU68" s="14"/>
-      <c r="AV68" s="14"/>
-      <c r="AW68" s="14"/>
-      <c r="AX68" s="14"/>
-      <c r="AY68" s="14"/>
-      <c r="AZ68" s="14"/>
-      <c r="BA68" s="14"/>
-      <c r="BB68" s="14"/>
-      <c r="BC68" s="14"/>
-      <c r="BD68" s="14"/>
-      <c r="BE68" s="14"/>
-      <c r="BF68" s="14"/>
-      <c r="BG68" s="14"/>
-      <c r="BH68" s="14"/>
-      <c r="BI68" s="14"/>
-      <c r="BJ68" s="14"/>
-      <c r="BK68" s="14"/>
-      <c r="BL68" s="14"/>
-      <c r="BM68" s="14"/>
-      <c r="BN68" s="14"/>
-      <c r="BO68" s="14"/>
-      <c r="BP68" s="14"/>
-      <c r="BQ68" s="14"/>
-      <c r="BR68" s="14"/>
-      <c r="BS68" s="34"/>
-    </row>
-    <row r="69" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="35"/>
+      <c r="C68" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="55"/>
+      <c r="E68" s="73">
+        <v>8</v>
+      </c>
+      <c r="F68" s="47">
+        <v>44143</v>
+      </c>
+      <c r="G68" s="48">
+        <v>44143</v>
+      </c>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="49"/>
+      <c r="V68" s="49"/>
+      <c r="W68" s="49"/>
+      <c r="X68" s="49"/>
+      <c r="Y68" s="49"/>
+      <c r="Z68" s="49"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
+      <c r="AD68" s="49"/>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="49"/>
+      <c r="AI68" s="49"/>
+      <c r="AJ68" s="49"/>
+      <c r="AK68" s="49"/>
+      <c r="AL68" s="49"/>
+      <c r="AM68" s="49"/>
+      <c r="AN68" s="49"/>
+      <c r="AO68" s="49"/>
+      <c r="AP68" s="49"/>
+      <c r="AQ68" s="49"/>
+      <c r="AR68" s="49"/>
+      <c r="AS68" s="49"/>
+      <c r="AT68" s="49"/>
+      <c r="AU68" s="49"/>
+      <c r="AV68" s="49"/>
+      <c r="AW68" s="49"/>
+      <c r="AX68" s="49"/>
+      <c r="AY68" s="49"/>
+      <c r="AZ68" s="49"/>
+      <c r="BA68" s="49"/>
+      <c r="BB68" s="49"/>
+      <c r="BC68" s="49"/>
+      <c r="BD68" s="49"/>
+      <c r="BE68" s="49"/>
+      <c r="BF68" s="49"/>
+      <c r="BG68" s="49"/>
+      <c r="BH68" s="49"/>
+      <c r="BI68" s="49"/>
+      <c r="BJ68" s="49"/>
+      <c r="BK68" s="49"/>
+      <c r="BL68" s="49"/>
+      <c r="BM68" s="49"/>
+      <c r="BN68" s="49"/>
+      <c r="BO68" s="49"/>
+      <c r="BP68" s="49"/>
+      <c r="BQ68" s="49"/>
+      <c r="BR68" s="49"/>
+      <c r="BS68" s="50"/>
+    </row>
+    <row r="69" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A69" s="23"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="65">
-        <v>1</v>
-      </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="14"/>
-      <c r="Z69" s="14"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="14"/>
-      <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-      <c r="AG69" s="14"/>
-      <c r="AH69" s="14"/>
-      <c r="AI69" s="14"/>
-      <c r="AJ69" s="14"/>
-      <c r="AK69" s="14"/>
-      <c r="AL69" s="14"/>
-      <c r="AM69" s="14"/>
-      <c r="AN69" s="14"/>
-      <c r="AO69" s="14"/>
-      <c r="AP69" s="14"/>
-      <c r="AQ69" s="14"/>
-      <c r="AR69" s="14"/>
-      <c r="AS69" s="14"/>
-      <c r="AT69" s="14"/>
-      <c r="AU69" s="14"/>
-      <c r="AV69" s="14"/>
-      <c r="AW69" s="14"/>
-      <c r="AX69" s="14"/>
-      <c r="AY69" s="14"/>
-      <c r="AZ69" s="14"/>
-      <c r="BA69" s="14"/>
-      <c r="BB69" s="14"/>
-      <c r="BC69" s="14"/>
-      <c r="BD69" s="14"/>
-      <c r="BE69" s="14"/>
-      <c r="BF69" s="14"/>
-      <c r="BG69" s="14"/>
-      <c r="BH69" s="14"/>
-      <c r="BI69" s="14"/>
-      <c r="BJ69" s="14"/>
-      <c r="BK69" s="14"/>
-      <c r="BL69" s="14"/>
-      <c r="BM69" s="14"/>
-      <c r="BN69" s="14"/>
-      <c r="BO69" s="14"/>
-      <c r="BP69" s="14"/>
-      <c r="BQ69" s="14"/>
-      <c r="BR69" s="14"/>
-      <c r="BS69" s="34"/>
-    </row>
-    <row r="70" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="35"/>
+      <c r="C69" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="56"/>
+      <c r="E69" s="73">
+        <v>4</v>
+      </c>
+      <c r="F69" s="47">
+        <v>44143</v>
+      </c>
+      <c r="G69" s="48">
+        <v>44144</v>
+      </c>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="49"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="49"/>
+      <c r="AL69" s="49"/>
+      <c r="AM69" s="49"/>
+      <c r="AN69" s="49"/>
+      <c r="AO69" s="49"/>
+      <c r="AP69" s="49"/>
+      <c r="AQ69" s="49"/>
+      <c r="AR69" s="49"/>
+      <c r="AS69" s="49"/>
+      <c r="AT69" s="49"/>
+      <c r="AU69" s="49"/>
+      <c r="AV69" s="49"/>
+      <c r="AW69" s="49"/>
+      <c r="AX69" s="49"/>
+      <c r="AY69" s="49"/>
+      <c r="AZ69" s="49"/>
+      <c r="BA69" s="49"/>
+      <c r="BB69" s="49"/>
+      <c r="BC69" s="49"/>
+      <c r="BD69" s="49"/>
+      <c r="BE69" s="49"/>
+      <c r="BF69" s="49"/>
+      <c r="BG69" s="49"/>
+      <c r="BH69" s="49"/>
+      <c r="BI69" s="49"/>
+      <c r="BJ69" s="49"/>
+      <c r="BK69" s="49"/>
+      <c r="BL69" s="49"/>
+      <c r="BM69" s="49"/>
+      <c r="BN69" s="49"/>
+      <c r="BO69" s="49"/>
+      <c r="BP69" s="49"/>
+      <c r="BQ69" s="49"/>
+      <c r="BR69" s="49"/>
+      <c r="BS69" s="50"/>
+    </row>
+    <row r="70" spans="1:71" ht="15" x14ac:dyDescent="0.45">
+      <c r="A70" s="23"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E70" s="65">
-        <v>3</v>
-      </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="14"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="14"/>
-      <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="14"/>
-      <c r="AI70" s="14"/>
-      <c r="AJ70" s="14"/>
-      <c r="AK70" s="14"/>
-      <c r="AL70" s="14"/>
-      <c r="AM70" s="14"/>
-      <c r="AN70" s="14"/>
-      <c r="AO70" s="14"/>
-      <c r="AP70" s="14"/>
-      <c r="AQ70" s="14"/>
-      <c r="AR70" s="14"/>
-      <c r="AS70" s="14"/>
-      <c r="AT70" s="14"/>
-      <c r="AU70" s="14"/>
-      <c r="AV70" s="14"/>
-      <c r="AW70" s="14"/>
-      <c r="AX70" s="14"/>
-      <c r="AY70" s="14"/>
-      <c r="AZ70" s="14"/>
-      <c r="BA70" s="14"/>
-      <c r="BB70" s="14"/>
-      <c r="BC70" s="14"/>
-      <c r="BD70" s="14"/>
-      <c r="BE70" s="14"/>
-      <c r="BF70" s="14"/>
-      <c r="BG70" s="14"/>
-      <c r="BH70" s="14"/>
-      <c r="BI70" s="14"/>
-      <c r="BJ70" s="14"/>
-      <c r="BK70" s="14"/>
-      <c r="BL70" s="14"/>
-      <c r="BM70" s="14"/>
-      <c r="BN70" s="14"/>
-      <c r="BO70" s="14"/>
-      <c r="BP70" s="14"/>
-      <c r="BQ70" s="14"/>
-      <c r="BR70" s="14"/>
-      <c r="BS70" s="34"/>
+      <c r="C70" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="56"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="47">
+        <v>44144</v>
+      </c>
+      <c r="G70" s="48">
+        <v>44144</v>
+      </c>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="49"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="49"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="49"/>
+      <c r="AI70" s="49"/>
+      <c r="AJ70" s="49"/>
+      <c r="AK70" s="49"/>
+      <c r="AL70" s="49"/>
+      <c r="AM70" s="49"/>
+      <c r="AN70" s="49"/>
+      <c r="AO70" s="49"/>
+      <c r="AP70" s="49"/>
+      <c r="AQ70" s="49"/>
+      <c r="AR70" s="49"/>
+      <c r="AS70" s="49"/>
+      <c r="AT70" s="49"/>
+      <c r="AU70" s="49"/>
+      <c r="AV70" s="49"/>
+      <c r="AW70" s="49"/>
+      <c r="AX70" s="49"/>
+      <c r="AY70" s="49"/>
+      <c r="AZ70" s="49"/>
+      <c r="BA70" s="49"/>
+      <c r="BB70" s="49"/>
+      <c r="BC70" s="49"/>
+      <c r="BD70" s="49"/>
+      <c r="BE70" s="49"/>
+      <c r="BF70" s="49"/>
+      <c r="BG70" s="49"/>
+      <c r="BH70" s="49"/>
+      <c r="BI70" s="49"/>
+      <c r="BJ70" s="49"/>
+      <c r="BK70" s="49"/>
+      <c r="BL70" s="49"/>
+      <c r="BM70" s="49"/>
+      <c r="BN70" s="49"/>
+      <c r="BO70" s="49"/>
+      <c r="BP70" s="49"/>
+      <c r="BQ70" s="49"/>
+      <c r="BR70" s="49"/>
+      <c r="BS70" s="50"/>
     </row>
     <row r="71" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="35"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="15">
-        <v>44097</v>
-      </c>
-      <c r="G71" s="16">
-        <v>44098</v>
-      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
       <c r="H71" s="43"/>
       <c r="I71" s="43"/>
       <c r="J71" s="43"/>
@@ -8510,8 +8982,8 @@
       <c r="S71" s="43"/>
       <c r="T71" s="43"/>
       <c r="U71" s="43"/>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
       <c r="X71" s="14"/>
       <c r="Y71" s="14"/>
       <c r="Z71" s="14"/>
@@ -8564,15 +9036,19 @@
     <row r="72" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="35"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="65">
-        <v>2</v>
-      </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="16"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="15">
+        <v>44093</v>
+      </c>
+      <c r="G72" s="16">
+        <v>44093</v>
+      </c>
       <c r="H72" s="43"/>
       <c r="I72" s="43"/>
       <c r="J72" s="43"/>
@@ -8583,7 +9059,7 @@
       <c r="O72" s="43"/>
       <c r="P72" s="43"/>
       <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
+      <c r="R72" s="66"/>
       <c r="S72" s="43"/>
       <c r="T72" s="43"/>
       <c r="U72" s="43"/>
@@ -8640,14 +9116,12 @@
     </row>
     <row r="73" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="35"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="65">
-        <v>6</v>
-      </c>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="38"/>
+      <c r="E73" s="24"/>
       <c r="F73" s="15"/>
       <c r="G73" s="16"/>
       <c r="H73" s="43"/>
@@ -8718,15 +9192,17 @@
     <row r="74" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="35"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="65">
-        <v>3</v>
-      </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="16"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="15">
+        <v>44094</v>
+      </c>
+      <c r="G74" s="16">
+        <v>44094</v>
+      </c>
       <c r="H74" s="43"/>
       <c r="I74" s="43"/>
       <c r="J74" s="43"/>
@@ -8738,7 +9214,7 @@
       <c r="P74" s="43"/>
       <c r="Q74" s="43"/>
       <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
+      <c r="S74" s="66"/>
       <c r="T74" s="43"/>
       <c r="U74" s="43"/>
       <c r="V74" s="43"/>
@@ -8794,14 +9270,12 @@
     </row>
     <row r="75" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="35"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="65">
-        <v>2</v>
-      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="15"/>
       <c r="G75" s="16"/>
       <c r="H75" s="43"/>
@@ -8872,15 +9346,19 @@
     <row r="76" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="35"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="16"/>
+      <c r="C76" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="52"/>
+      <c r="E76" s="65">
+        <v>7</v>
+      </c>
+      <c r="F76" s="15">
+        <v>44095</v>
+      </c>
+      <c r="G76" s="16">
+        <v>44096</v>
+      </c>
       <c r="H76" s="43"/>
       <c r="I76" s="43"/>
       <c r="J76" s="43"/>
@@ -8893,8 +9371,8 @@
       <c r="Q76" s="43"/>
       <c r="R76" s="43"/>
       <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
+      <c r="T76" s="66"/>
+      <c r="U76" s="66"/>
       <c r="V76" s="43"/>
       <c r="W76" s="43"/>
       <c r="X76" s="14"/>
@@ -8947,14 +9425,14 @@
       <c r="BS76" s="34"/>
     </row>
     <row r="77" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="59"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="71" t="s">
-        <v>65</v>
+      <c r="C77" s="12"/>
+      <c r="D77" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="E77" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="16"/>
@@ -9024,16 +9502,16 @@
       <c r="BS77" s="34"/>
     </row>
     <row r="78" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="59"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="15">
-        <v>44098</v>
-      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="65">
+        <v>2</v>
+      </c>
+      <c r="F78" s="15"/>
       <c r="G78" s="16"/>
       <c r="H78" s="43"/>
       <c r="I78" s="43"/>
@@ -9051,10 +9529,10 @@
       <c r="U78" s="43"/>
       <c r="V78" s="43"/>
       <c r="W78" s="43"/>
-      <c r="X78" s="66"/>
-      <c r="Y78" s="66"/>
-      <c r="Z78" s="66"/>
-      <c r="AA78" s="66"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="14"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="14"/>
       <c r="AB78" s="14"/>
       <c r="AC78" s="14"/>
       <c r="AD78" s="14"/>
@@ -9101,17 +9579,19 @@
       <c r="BS78" s="34"/>
     </row>
     <row r="79" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="59"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="65">
-        <v>2</v>
-      </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="16"/>
+      <c r="C79" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="15">
+        <v>44096</v>
+      </c>
+      <c r="G79" s="16">
+        <v>44099</v>
+      </c>
       <c r="H79" s="43"/>
       <c r="I79" s="43"/>
       <c r="J79" s="43"/>
@@ -9125,10 +9605,10 @@
       <c r="R79" s="43"/>
       <c r="S79" s="43"/>
       <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
+      <c r="U79" s="66"/>
       <c r="V79" s="43"/>
       <c r="W79" s="43"/>
-      <c r="X79" s="14"/>
+      <c r="X79" s="66"/>
       <c r="Y79" s="14"/>
       <c r="Z79" s="14"/>
       <c r="AA79" s="14"/>
@@ -9178,14 +9658,14 @@
       <c r="BS79" s="34"/>
     </row>
     <row r="80" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="59"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="71" t="s">
-        <v>71</v>
+      <c r="C80" s="44"/>
+      <c r="D80" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="E80" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="16"/>
@@ -9205,7 +9685,6 @@
       <c r="U80" s="43"/>
       <c r="V80" s="43"/>
       <c r="W80" s="43"/>
-      <c r="X80" s="14"/>
       <c r="Y80" s="14"/>
       <c r="Z80" s="14"/>
       <c r="AA80" s="14"/>
@@ -9255,13 +9734,15 @@
       <c r="BS80" s="34"/>
     </row>
     <row r="81" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="59"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" s="65"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="65">
+        <v>1</v>
+      </c>
       <c r="F81" s="15"/>
       <c r="G81" s="16"/>
       <c r="H81" s="43"/>
@@ -9330,14 +9811,14 @@
       <c r="BS81" s="34"/>
     </row>
     <row r="82" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="59"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="71" t="s">
-        <v>70</v>
+      <c r="C82" s="44"/>
+      <c r="D82" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="E82" s="65">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="16"/>
@@ -9407,17 +9888,19 @@
       <c r="BS82" s="34"/>
     </row>
     <row r="83" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="59"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" s="65">
-        <v>1</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="16"/>
+      <c r="C83" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="56"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="15">
+        <v>44097</v>
+      </c>
+      <c r="G83" s="16">
+        <v>44098</v>
+      </c>
       <c r="H83" s="43"/>
       <c r="I83" s="43"/>
       <c r="J83" s="43"/>
@@ -9432,8 +9915,8 @@
       <c r="S83" s="43"/>
       <c r="T83" s="43"/>
       <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
+      <c r="V83" s="66"/>
+      <c r="W83" s="66"/>
       <c r="X83" s="14"/>
       <c r="Y83" s="14"/>
       <c r="Z83" s="14"/>
@@ -9484,14 +9967,14 @@
       <c r="BS83" s="34"/>
     </row>
     <row r="84" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="59"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="67"/>
+      <c r="C84" s="44"/>
       <c r="D84" s="45" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E84" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="16"/>
@@ -9561,14 +10044,14 @@
       <c r="BS84" s="34"/>
     </row>
     <row r="85" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="59"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="67"/>
+      <c r="C85" s="44"/>
       <c r="D85" s="45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E85" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="16"/>
@@ -9638,14 +10121,14 @@
       <c r="BS85" s="34"/>
     </row>
     <row r="86" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="59"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="67"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="45" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E86" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="16"/>
@@ -9715,14 +10198,14 @@
       <c r="BS86" s="34"/>
     </row>
     <row r="87" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="59"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="67"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="45" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E87" s="65">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="16"/>
@@ -9792,14 +10275,14 @@
       <c r="BS87" s="34"/>
     </row>
     <row r="88" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="59"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="E88" s="65">
-        <v>2</v>
+      <c r="C88" s="44"/>
+      <c r="D88" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="65" t="s">
+        <v>64</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="16"/>
@@ -9871,11 +10354,13 @@
     <row r="89" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="59"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="65"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="65">
+        <v>2</v>
+      </c>
       <c r="F89" s="15"/>
       <c r="G89" s="16"/>
       <c r="H89" s="43"/>
@@ -9946,14 +10431,14 @@
     <row r="90" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="59"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" s="65">
-        <v>0.25</v>
-      </c>
-      <c r="F90" s="15"/>
+      <c r="C90" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="56"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="15">
+        <v>44098</v>
+      </c>
       <c r="G90" s="16"/>
       <c r="H90" s="43"/>
       <c r="I90" s="43"/>
@@ -9971,10 +10456,10 @@
       <c r="U90" s="43"/>
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="14"/>
-      <c r="Z90" s="14"/>
-      <c r="AA90" s="14"/>
+      <c r="X90" s="66"/>
+      <c r="Y90" s="66"/>
+      <c r="Z90" s="66"/>
+      <c r="AA90" s="66"/>
       <c r="AB90" s="14"/>
       <c r="AC90" s="14"/>
       <c r="AD90" s="14"/>
@@ -10024,11 +10509,11 @@
       <c r="A91" s="59"/>
       <c r="B91" s="12"/>
       <c r="C91" s="67"/>
-      <c r="D91" s="45" t="s">
-        <v>47</v>
+      <c r="D91" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="E91" s="65">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="16"/>
@@ -10099,18 +10584,16 @@
     </row>
     <row r="92" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="59"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="56"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="15">
-        <v>44102</v>
-      </c>
-      <c r="G92" s="16">
-        <v>44102</v>
-      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="65">
+        <v>2</v>
+      </c>
+      <c r="F92" s="15"/>
+      <c r="G92" s="16"/>
       <c r="H92" s="43"/>
       <c r="I92" s="43"/>
       <c r="J92" s="43"/>
@@ -10129,7 +10612,9 @@
       <c r="W92" s="43"/>
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
-      <c r="AA92" s="66"/>
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
       <c r="AC92" s="14"/>
       <c r="AD92" s="14"/>
       <c r="AE92" s="14"/>
@@ -10176,14 +10661,12 @@
     </row>
     <row r="93" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="59"/>
-      <c r="B93" s="69"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="67"/>
-      <c r="D93" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E93" s="65">
-        <v>3</v>
-      </c>
+      <c r="D93" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="65"/>
       <c r="F93" s="15"/>
       <c r="G93" s="16"/>
       <c r="H93" s="43"/>
@@ -10253,12 +10736,14 @@
     </row>
     <row r="94" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="59"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E94" s="65"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E94" s="65">
+        <v>2.5</v>
+      </c>
       <c r="F94" s="15"/>
       <c r="G94" s="16"/>
       <c r="H94" s="43"/>
@@ -10328,12 +10813,14 @@
     </row>
     <row r="95" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="59"/>
-      <c r="B95" s="69"/>
+      <c r="B95" s="12"/>
       <c r="C95" s="67"/>
-      <c r="D95" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E95" s="65"/>
+      <c r="D95" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="65">
+        <v>1</v>
+      </c>
       <c r="F95" s="15"/>
       <c r="G95" s="16"/>
       <c r="H95" s="43"/>
@@ -10402,14 +10889,14 @@
       <c r="BS95" s="34"/>
     </row>
     <row r="96" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="60"/>
-      <c r="B96" s="69"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="67"/>
-      <c r="D96" s="68" t="s">
-        <v>46</v>
+      <c r="D96" s="45" t="s">
+        <v>41</v>
       </c>
       <c r="E96" s="65">
-        <v>0.25</v>
+        <v>5</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="16"/>
@@ -10479,21 +10966,17 @@
       <c r="BS96" s="34"/>
     </row>
     <row r="97" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="60"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F97" s="15">
-        <v>44117</v>
-      </c>
-      <c r="G97" s="16">
-        <v>44119</v>
-      </c>
+      <c r="A97" s="59"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="65">
+        <v>1</v>
+      </c>
+      <c r="F97" s="15"/>
+      <c r="G97" s="16"/>
       <c r="H97" s="43"/>
       <c r="I97" s="43"/>
       <c r="J97" s="43"/>
@@ -10528,12 +11011,12 @@
       <c r="AM97" s="14"/>
       <c r="AN97" s="14"/>
       <c r="AO97" s="14"/>
-      <c r="AP97" s="66"/>
-      <c r="AQ97" s="66"/>
-      <c r="AR97" s="66"/>
-      <c r="AS97" s="43"/>
-      <c r="AT97" s="43"/>
-      <c r="AU97" s="43"/>
+      <c r="AP97" s="14"/>
+      <c r="AQ97" s="14"/>
+      <c r="AR97" s="14"/>
+      <c r="AS97" s="14"/>
+      <c r="AT97" s="14"/>
+      <c r="AU97" s="14"/>
       <c r="AV97" s="14"/>
       <c r="AW97" s="14"/>
       <c r="AX97" s="14"/>
@@ -10560,13 +11043,15 @@
       <c r="BS97" s="34"/>
     </row>
     <row r="98" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="60"/>
-      <c r="B98" s="63"/>
-      <c r="C98" s="44"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E98" s="65"/>
+        <v>44</v>
+      </c>
+      <c r="E98" s="65">
+        <v>1</v>
+      </c>
       <c r="F98" s="15"/>
       <c r="G98" s="16"/>
       <c r="H98" s="43"/>
@@ -10635,11 +11120,11 @@
       <c r="BS98" s="34"/>
     </row>
     <row r="99" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="60"/>
-      <c r="B99" s="70"/>
-      <c r="C99" s="44"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="67"/>
       <c r="D99" s="45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E99" s="65">
         <v>10</v>
@@ -10713,12 +11198,14 @@
     </row>
     <row r="100" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="59"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" s="65"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E100" s="65">
+        <v>2</v>
+      </c>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
       <c r="H100" s="43"/>
@@ -10787,21 +11274,15 @@
       <c r="BS100" s="34"/>
     </row>
     <row r="101" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="61"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D101" s="56"/>
-      <c r="E101" s="65">
-        <v>11</v>
-      </c>
-      <c r="F101" s="15">
-        <v>44120</v>
-      </c>
-      <c r="G101" s="16">
-        <v>44122</v>
-      </c>
+      <c r="A101" s="59"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="65"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="16"/>
       <c r="H101" s="43"/>
       <c r="I101" s="43"/>
       <c r="J101" s="43"/>
@@ -10836,12 +11317,12 @@
       <c r="AM101" s="14"/>
       <c r="AN101" s="14"/>
       <c r="AO101" s="14"/>
-      <c r="AP101" s="43"/>
-      <c r="AQ101" s="43"/>
-      <c r="AR101" s="43"/>
-      <c r="AS101" s="66"/>
-      <c r="AT101" s="66"/>
-      <c r="AU101" s="66"/>
+      <c r="AP101" s="14"/>
+      <c r="AQ101" s="14"/>
+      <c r="AR101" s="14"/>
+      <c r="AS101" s="14"/>
+      <c r="AT101" s="14"/>
+      <c r="AU101" s="14"/>
       <c r="AV101" s="14"/>
       <c r="AW101" s="14"/>
       <c r="AX101" s="14"/>
@@ -10868,14 +11349,14 @@
       <c r="BS101" s="34"/>
     </row>
     <row r="102" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="60"/>
-      <c r="B102" s="62"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="67"/>
-      <c r="D102" s="68" t="s">
-        <v>55</v>
+      <c r="D102" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="E102" s="65">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="16"/>
@@ -10945,14 +11426,14 @@
       <c r="BS102" s="34"/>
     </row>
     <row r="103" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="60"/>
-      <c r="B103" s="62"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="67"/>
-      <c r="D103" s="68" t="s">
-        <v>56</v>
+      <c r="D103" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="E103" s="65">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="16"/>
@@ -11022,17 +11503,19 @@
       <c r="BS103" s="34"/>
     </row>
     <row r="104" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="60"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="62"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="F104" s="15"/>
-      <c r="G104" s="16"/>
+      <c r="C104" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="56"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="15">
+        <v>44102</v>
+      </c>
+      <c r="G104" s="16">
+        <v>44102</v>
+      </c>
       <c r="H104" s="43"/>
       <c r="I104" s="43"/>
       <c r="J104" s="43"/>
@@ -11051,9 +11534,7 @@
       <c r="W104" s="43"/>
       <c r="X104" s="14"/>
       <c r="Y104" s="14"/>
-      <c r="Z104" s="14"/>
-      <c r="AA104" s="14"/>
-      <c r="AB104" s="14"/>
+      <c r="AA104" s="66"/>
       <c r="AC104" s="14"/>
       <c r="AD104" s="14"/>
       <c r="AE104" s="14"/>
@@ -11100,20 +11581,16 @@
     </row>
     <row r="105" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="59"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" s="56"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="E105" s="65">
-        <v>49</v>
-      </c>
-      <c r="F105" s="15">
-        <v>44103</v>
-      </c>
-      <c r="G105" s="16">
-        <v>44116</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F105" s="15"/>
+      <c r="G105" s="16"/>
       <c r="H105" s="43"/>
       <c r="I105" s="43"/>
       <c r="J105" s="43"/>
@@ -11134,20 +11611,20 @@
       <c r="Y105" s="14"/>
       <c r="Z105" s="14"/>
       <c r="AA105" s="14"/>
-      <c r="AB105" s="66"/>
-      <c r="AC105" s="66"/>
-      <c r="AD105" s="66"/>
-      <c r="AE105" s="66"/>
-      <c r="AF105" s="66"/>
-      <c r="AG105" s="66"/>
-      <c r="AH105" s="66"/>
-      <c r="AI105" s="66"/>
-      <c r="AJ105" s="66"/>
-      <c r="AK105" s="66"/>
-      <c r="AL105" s="66"/>
-      <c r="AM105" s="66"/>
-      <c r="AN105" s="66"/>
-      <c r="AO105" s="66"/>
+      <c r="AB105" s="14"/>
+      <c r="AC105" s="14"/>
+      <c r="AD105" s="14"/>
+      <c r="AE105" s="14"/>
+      <c r="AF105" s="14"/>
+      <c r="AG105" s="14"/>
+      <c r="AH105" s="14"/>
+      <c r="AI105" s="14"/>
+      <c r="AJ105" s="14"/>
+      <c r="AK105" s="14"/>
+      <c r="AL105" s="14"/>
+      <c r="AM105" s="14"/>
+      <c r="AN105" s="14"/>
+      <c r="AO105" s="14"/>
       <c r="AP105" s="14"/>
       <c r="AQ105" s="14"/>
       <c r="AR105" s="14"/>
@@ -11181,14 +11658,12 @@
     </row>
     <row r="106" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="59"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" s="65">
-        <v>10</v>
-      </c>
+      <c r="B106" s="69"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="65"/>
       <c r="F106" s="15"/>
       <c r="G106" s="16"/>
       <c r="H106" s="43"/>
@@ -11258,14 +11733,12 @@
     </row>
     <row r="107" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="59"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="E107" s="65">
-        <v>20</v>
-      </c>
+      <c r="B107" s="69"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E107" s="65"/>
       <c r="F107" s="15"/>
       <c r="G107" s="16"/>
       <c r="H107" s="43"/>
@@ -11334,14 +11807,14 @@
       <c r="BS107" s="34"/>
     </row>
     <row r="108" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="59"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="71" t="s">
-        <v>73</v>
+      <c r="A108" s="60"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="68" t="s">
+        <v>46</v>
       </c>
       <c r="E108" s="65">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="16"/>
@@ -11411,17 +11884,21 @@
       <c r="BS108" s="34"/>
     </row>
     <row r="109" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="59"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="E109" s="65">
-        <v>3</v>
-      </c>
-      <c r="F109" s="15"/>
-      <c r="G109" s="16"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="56"/>
+      <c r="E109" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" s="15">
+        <v>44117</v>
+      </c>
+      <c r="G109" s="16">
+        <v>44119</v>
+      </c>
       <c r="H109" s="43"/>
       <c r="I109" s="43"/>
       <c r="J109" s="43"/>
@@ -11456,12 +11933,12 @@
       <c r="AM109" s="14"/>
       <c r="AN109" s="14"/>
       <c r="AO109" s="14"/>
-      <c r="AP109" s="14"/>
-      <c r="AQ109" s="14"/>
-      <c r="AR109" s="14"/>
-      <c r="AS109" s="14"/>
-      <c r="AT109" s="14"/>
-      <c r="AU109" s="14"/>
+      <c r="AP109" s="66"/>
+      <c r="AQ109" s="66"/>
+      <c r="AR109" s="66"/>
+      <c r="AS109" s="43"/>
+      <c r="AT109" s="43"/>
+      <c r="AU109" s="43"/>
       <c r="AV109" s="14"/>
       <c r="AW109" s="14"/>
       <c r="AX109" s="14"/>
@@ -11488,15 +11965,13 @@
       <c r="BS109" s="34"/>
     </row>
     <row r="110" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="59"/>
-      <c r="B110" s="12"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="44"/>
       <c r="D110" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E110" s="65">
-        <v>10</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E110" s="65"/>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
       <c r="H110" s="43"/>
@@ -11565,14 +12040,14 @@
       <c r="BS110" s="34"/>
     </row>
     <row r="111" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="59"/>
-      <c r="B111" s="12"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="70"/>
       <c r="C111" s="44"/>
       <c r="D111" s="45" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E111" s="65">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="16"/>
@@ -11643,14 +12118,12 @@
     </row>
     <row r="112" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="59"/>
-      <c r="B112" s="12"/>
+      <c r="B112" s="70"/>
       <c r="C112" s="44"/>
       <c r="D112" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E112" s="65">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E112" s="65"/>
       <c r="F112" s="15"/>
       <c r="G112" s="16"/>
       <c r="H112" s="43"/>
@@ -11719,20 +12192,20 @@
       <c r="BS112" s="34"/>
     </row>
     <row r="113" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="59"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="62"/>
       <c r="C113" s="55" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D113" s="56"/>
       <c r="E113" s="65">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="F113" s="15">
-        <v>44123</v>
+        <v>44120</v>
       </c>
       <c r="G113" s="16">
-        <v>44125</v>
+        <v>44122</v>
       </c>
       <c r="H113" s="43"/>
       <c r="I113" s="43"/>
@@ -11768,15 +12241,15 @@
       <c r="AM113" s="14"/>
       <c r="AN113" s="14"/>
       <c r="AO113" s="14"/>
-      <c r="AP113" s="14"/>
-      <c r="AQ113" s="14"/>
-      <c r="AR113" s="14"/>
-      <c r="AS113" s="14"/>
-      <c r="AT113" s="14"/>
-      <c r="AU113" s="14"/>
-      <c r="AV113" s="66"/>
-      <c r="AW113" s="66"/>
-      <c r="AX113" s="66"/>
+      <c r="AP113" s="43"/>
+      <c r="AQ113" s="43"/>
+      <c r="AR113" s="43"/>
+      <c r="AS113" s="66"/>
+      <c r="AT113" s="66"/>
+      <c r="AU113" s="66"/>
+      <c r="AV113" s="14"/>
+      <c r="AW113" s="14"/>
+      <c r="AX113" s="14"/>
       <c r="AY113" s="14"/>
       <c r="AZ113" s="14"/>
       <c r="BA113" s="14"/>
@@ -11800,13 +12273,15 @@
       <c r="BS113" s="34"/>
     </row>
     <row r="114" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="59"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="60"/>
+      <c r="B114" s="62"/>
       <c r="C114" s="67"/>
       <c r="D114" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E114" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="E114" s="65">
+        <v>9</v>
+      </c>
       <c r="F114" s="15"/>
       <c r="G114" s="16"/>
       <c r="H114" s="43"/>
@@ -11875,13 +12350,15 @@
       <c r="BS114" s="34"/>
     </row>
     <row r="115" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="59"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="60"/>
+      <c r="B115" s="62"/>
       <c r="C115" s="67"/>
       <c r="D115" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="E115" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="E115" s="65">
+        <v>0.5</v>
+      </c>
       <c r="F115" s="15"/>
       <c r="G115" s="16"/>
       <c r="H115" s="43"/>
@@ -11950,14 +12427,14 @@
       <c r="BS115" s="34"/>
     </row>
     <row r="116" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="59"/>
-      <c r="B116" s="12"/>
+      <c r="A116" s="60"/>
+      <c r="B116" s="62"/>
       <c r="C116" s="67"/>
-      <c r="D116" s="71" t="s">
-        <v>77</v>
+      <c r="D116" s="68" t="s">
+        <v>46</v>
       </c>
       <c r="E116" s="65">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="16"/>
@@ -12029,15 +12506,19 @@
     <row r="117" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="59"/>
       <c r="B117" s="12"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="71" t="s">
-        <v>75</v>
-      </c>
+      <c r="C117" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="56"/>
       <c r="E117" s="65">
-        <v>3</v>
-      </c>
-      <c r="F117" s="15"/>
-      <c r="G117" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="F117" s="15">
+        <v>44103</v>
+      </c>
+      <c r="G117" s="16">
+        <v>44116</v>
+      </c>
       <c r="H117" s="43"/>
       <c r="I117" s="43"/>
       <c r="J117" s="43"/>
@@ -12058,20 +12539,20 @@
       <c r="Y117" s="14"/>
       <c r="Z117" s="14"/>
       <c r="AA117" s="14"/>
-      <c r="AB117" s="14"/>
-      <c r="AC117" s="14"/>
-      <c r="AD117" s="14"/>
-      <c r="AE117" s="14"/>
-      <c r="AF117" s="14"/>
-      <c r="AG117" s="14"/>
-      <c r="AH117" s="14"/>
-      <c r="AI117" s="14"/>
-      <c r="AJ117" s="14"/>
-      <c r="AK117" s="14"/>
-      <c r="AL117" s="14"/>
-      <c r="AM117" s="14"/>
-      <c r="AN117" s="14"/>
-      <c r="AO117" s="14"/>
+      <c r="AB117" s="66"/>
+      <c r="AC117" s="66"/>
+      <c r="AD117" s="66"/>
+      <c r="AE117" s="66"/>
+      <c r="AF117" s="66"/>
+      <c r="AG117" s="66"/>
+      <c r="AH117" s="66"/>
+      <c r="AI117" s="66"/>
+      <c r="AJ117" s="66"/>
+      <c r="AK117" s="66"/>
+      <c r="AL117" s="66"/>
+      <c r="AM117" s="66"/>
+      <c r="AN117" s="66"/>
+      <c r="AO117" s="66"/>
       <c r="AP117" s="14"/>
       <c r="AQ117" s="14"/>
       <c r="AR117" s="14"/>
@@ -12106,12 +12587,12 @@
     <row r="118" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="59"/>
       <c r="B118" s="12"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="68" t="s">
-        <v>60</v>
+      <c r="C118" s="44"/>
+      <c r="D118" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="E118" s="65">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="16"/>
@@ -12181,14 +12662,14 @@
       <c r="BS118" s="34"/>
     </row>
     <row r="119" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="35"/>
+      <c r="A119" s="59"/>
       <c r="B119" s="12"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="68" t="s">
-        <v>62</v>
+      <c r="C119" s="44"/>
+      <c r="D119" s="71" t="s">
+        <v>79</v>
       </c>
       <c r="E119" s="65">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="16"/>
@@ -12258,14 +12739,14 @@
       <c r="BS119" s="34"/>
     </row>
     <row r="120" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="35"/>
+      <c r="A120" s="59"/>
       <c r="B120" s="12"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="68" t="s">
-        <v>63</v>
+      <c r="C120" s="44"/>
+      <c r="D120" s="71" t="s">
+        <v>73</v>
       </c>
       <c r="E120" s="65">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="16"/>
@@ -12335,14 +12816,14 @@
       <c r="BS120" s="34"/>
     </row>
     <row r="121" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="35"/>
+      <c r="A121" s="59"/>
       <c r="B121" s="12"/>
       <c r="C121" s="44"/>
-      <c r="D121" s="45" t="s">
-        <v>29</v>
+      <c r="D121" s="71" t="s">
+        <v>78</v>
       </c>
       <c r="E121" s="65">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="16"/>
@@ -12412,21 +12893,17 @@
       <c r="BS121" s="34"/>
     </row>
     <row r="122" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="35"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="12"/>
-      <c r="C122" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D122" s="56"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="E122" s="65">
         <v>10</v>
       </c>
-      <c r="F122" s="15">
-        <v>44126</v>
-      </c>
-      <c r="G122" s="16">
-        <v>44128</v>
-      </c>
+      <c r="F122" s="15"/>
+      <c r="G122" s="16"/>
       <c r="H122" s="43"/>
       <c r="I122" s="43"/>
       <c r="J122" s="43"/>
@@ -12470,9 +12947,9 @@
       <c r="AV122" s="14"/>
       <c r="AW122" s="14"/>
       <c r="AX122" s="14"/>
-      <c r="AY122" s="66"/>
-      <c r="AZ122" s="66"/>
-      <c r="BA122" s="66"/>
+      <c r="AY122" s="14"/>
+      <c r="AZ122" s="14"/>
+      <c r="BA122" s="14"/>
       <c r="BB122" s="14"/>
       <c r="BC122" s="14"/>
       <c r="BD122" s="14"/>
@@ -12493,21 +12970,17 @@
       <c r="BS122" s="34"/>
     </row>
     <row r="123" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="35"/>
+      <c r="A123" s="59"/>
       <c r="B123" s="12"/>
-      <c r="C123" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D123" s="56"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="45" t="s">
+        <v>59</v>
+      </c>
       <c r="E123" s="65">
-        <v>10</v>
-      </c>
-      <c r="F123" s="15">
-        <v>44129</v>
-      </c>
-      <c r="G123" s="16">
-        <v>44130</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F123" s="15"/>
+      <c r="G123" s="16"/>
       <c r="H123" s="43"/>
       <c r="I123" s="43"/>
       <c r="J123" s="43"/>
@@ -12554,8 +13027,8 @@
       <c r="AY123" s="14"/>
       <c r="AZ123" s="14"/>
       <c r="BA123" s="14"/>
-      <c r="BB123" s="66"/>
-      <c r="BC123" s="66"/>
+      <c r="BB123" s="14"/>
+      <c r="BC123" s="14"/>
       <c r="BD123" s="14"/>
       <c r="BE123" s="14"/>
       <c r="BF123" s="14"/>
@@ -12574,13 +13047,15 @@
       <c r="BS123" s="34"/>
     </row>
     <row r="124" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="35"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="12"/>
-      <c r="C124" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" s="56"/>
-      <c r="E124" s="65"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E124" s="65">
+        <v>3</v>
+      </c>
       <c r="F124" s="15"/>
       <c r="G124" s="16"/>
       <c r="H124" s="43"/>
@@ -12649,15 +13124,21 @@
       <c r="BS124" s="34"/>
     </row>
     <row r="125" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="35"/>
+      <c r="A125" s="59"/>
       <c r="B125" s="12"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E125" s="65"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="16"/>
+      <c r="C125" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="56"/>
+      <c r="E125" s="65">
+        <v>10.5</v>
+      </c>
+      <c r="F125" s="15">
+        <v>44123</v>
+      </c>
+      <c r="G125" s="16">
+        <v>44125</v>
+      </c>
       <c r="H125" s="43"/>
       <c r="I125" s="43"/>
       <c r="J125" s="43"/>
@@ -12698,9 +13179,9 @@
       <c r="AS125" s="14"/>
       <c r="AT125" s="14"/>
       <c r="AU125" s="14"/>
-      <c r="AV125" s="14"/>
-      <c r="AW125" s="14"/>
-      <c r="AX125" s="14"/>
+      <c r="AV125" s="66"/>
+      <c r="AW125" s="66"/>
+      <c r="AX125" s="66"/>
       <c r="AY125" s="14"/>
       <c r="AZ125" s="14"/>
       <c r="BA125" s="14"/>
@@ -12724,11 +13205,11 @@
       <c r="BS125" s="34"/>
     </row>
     <row r="126" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="35"/>
+      <c r="A126" s="59"/>
       <c r="B126" s="12"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="45" t="s">
-        <v>29</v>
+      <c r="C126" s="67"/>
+      <c r="D126" s="68" t="s">
+        <v>58</v>
       </c>
       <c r="E126" s="65"/>
       <c r="F126" s="15"/>
@@ -12799,12 +13280,12 @@
       <c r="BS126" s="34"/>
     </row>
     <row r="127" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="35"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="12"/>
-      <c r="C127" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="56"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="68" t="s">
+        <v>61</v>
+      </c>
       <c r="E127" s="65"/>
       <c r="F127" s="15"/>
       <c r="G127" s="16"/>
@@ -12874,13 +13355,15 @@
       <c r="BS127" s="34"/>
     </row>
     <row r="128" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="36"/>
+      <c r="A128" s="59"/>
       <c r="B128" s="12"/>
-      <c r="C128" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D128" s="56"/>
-      <c r="E128" s="65"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" s="65">
+        <v>3</v>
+      </c>
       <c r="F128" s="15"/>
       <c r="G128" s="16"/>
       <c r="H128" s="43"/>
@@ -12948,11 +13431,1887 @@
       <c r="BR128" s="14"/>
       <c r="BS128" s="34"/>
     </row>
-    <row r="130" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C130" s="72" t="s">
+    <row r="129" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="59"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" s="65">
+        <v>3</v>
+      </c>
+      <c r="F129" s="15"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="43"/>
+      <c r="O129" s="43"/>
+      <c r="P129" s="43"/>
+      <c r="Q129" s="43"/>
+      <c r="R129" s="43"/>
+      <c r="S129" s="43"/>
+      <c r="T129" s="43"/>
+      <c r="U129" s="43"/>
+      <c r="V129" s="43"/>
+      <c r="W129" s="43"/>
+      <c r="X129" s="14"/>
+      <c r="Y129" s="14"/>
+      <c r="Z129" s="14"/>
+      <c r="AA129" s="14"/>
+      <c r="AB129" s="14"/>
+      <c r="AC129" s="14"/>
+      <c r="AD129" s="14"/>
+      <c r="AE129" s="14"/>
+      <c r="AF129" s="14"/>
+      <c r="AG129" s="14"/>
+      <c r="AH129" s="14"/>
+      <c r="AI129" s="14"/>
+      <c r="AJ129" s="14"/>
+      <c r="AK129" s="14"/>
+      <c r="AL129" s="14"/>
+      <c r="AM129" s="14"/>
+      <c r="AN129" s="14"/>
+      <c r="AO129" s="14"/>
+      <c r="AP129" s="14"/>
+      <c r="AQ129" s="14"/>
+      <c r="AR129" s="14"/>
+      <c r="AS129" s="14"/>
+      <c r="AT129" s="14"/>
+      <c r="AU129" s="14"/>
+      <c r="AV129" s="14"/>
+      <c r="AW129" s="14"/>
+      <c r="AX129" s="14"/>
+      <c r="AY129" s="14"/>
+      <c r="AZ129" s="14"/>
+      <c r="BA129" s="14"/>
+      <c r="BB129" s="14"/>
+      <c r="BC129" s="14"/>
+      <c r="BD129" s="14"/>
+      <c r="BE129" s="14"/>
+      <c r="BF129" s="14"/>
+      <c r="BG129" s="14"/>
+      <c r="BH129" s="14"/>
+      <c r="BI129" s="14"/>
+      <c r="BJ129" s="14"/>
+      <c r="BK129" s="14"/>
+      <c r="BL129" s="14"/>
+      <c r="BM129" s="14"/>
+      <c r="BN129" s="14"/>
+      <c r="BO129" s="14"/>
+      <c r="BP129" s="14"/>
+      <c r="BQ129" s="14"/>
+      <c r="BR129" s="14"/>
+      <c r="BS129" s="34"/>
+    </row>
+    <row r="130" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="59"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E130" s="65">
+        <v>3</v>
+      </c>
+      <c r="F130" s="15"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="43"/>
+      <c r="I130" s="43"/>
+      <c r="J130" s="43"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="43"/>
+      <c r="M130" s="43"/>
+      <c r="N130" s="43"/>
+      <c r="O130" s="43"/>
+      <c r="P130" s="43"/>
+      <c r="Q130" s="43"/>
+      <c r="R130" s="43"/>
+      <c r="S130" s="43"/>
+      <c r="T130" s="43"/>
+      <c r="U130" s="43"/>
+      <c r="V130" s="43"/>
+      <c r="W130" s="43"/>
+      <c r="X130" s="14"/>
+      <c r="Y130" s="14"/>
+      <c r="Z130" s="14"/>
+      <c r="AA130" s="14"/>
+      <c r="AB130" s="14"/>
+      <c r="AC130" s="14"/>
+      <c r="AD130" s="14"/>
+      <c r="AE130" s="14"/>
+      <c r="AF130" s="14"/>
+      <c r="AG130" s="14"/>
+      <c r="AH130" s="14"/>
+      <c r="AI130" s="14"/>
+      <c r="AJ130" s="14"/>
+      <c r="AK130" s="14"/>
+      <c r="AL130" s="14"/>
+      <c r="AM130" s="14"/>
+      <c r="AN130" s="14"/>
+      <c r="AO130" s="14"/>
+      <c r="AP130" s="14"/>
+      <c r="AQ130" s="14"/>
+      <c r="AR130" s="14"/>
+      <c r="AS130" s="14"/>
+      <c r="AT130" s="14"/>
+      <c r="AU130" s="14"/>
+      <c r="AV130" s="14"/>
+      <c r="AW130" s="14"/>
+      <c r="AX130" s="14"/>
+      <c r="AY130" s="14"/>
+      <c r="AZ130" s="14"/>
+      <c r="BA130" s="14"/>
+      <c r="BB130" s="14"/>
+      <c r="BC130" s="14"/>
+      <c r="BD130" s="14"/>
+      <c r="BE130" s="14"/>
+      <c r="BF130" s="14"/>
+      <c r="BG130" s="14"/>
+      <c r="BH130" s="14"/>
+      <c r="BI130" s="14"/>
+      <c r="BJ130" s="14"/>
+      <c r="BK130" s="14"/>
+      <c r="BL130" s="14"/>
+      <c r="BM130" s="14"/>
+      <c r="BN130" s="14"/>
+      <c r="BO130" s="14"/>
+      <c r="BP130" s="14"/>
+      <c r="BQ130" s="14"/>
+      <c r="BR130" s="14"/>
+      <c r="BS130" s="34"/>
+    </row>
+    <row r="131" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="35"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E131" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="F131" s="15"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="43"/>
+      <c r="I131" s="43"/>
+      <c r="J131" s="43"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="43"/>
+      <c r="M131" s="43"/>
+      <c r="N131" s="43"/>
+      <c r="O131" s="43"/>
+      <c r="P131" s="43"/>
+      <c r="Q131" s="43"/>
+      <c r="R131" s="43"/>
+      <c r="S131" s="43"/>
+      <c r="T131" s="43"/>
+      <c r="U131" s="43"/>
+      <c r="V131" s="43"/>
+      <c r="W131" s="43"/>
+      <c r="X131" s="14"/>
+      <c r="Y131" s="14"/>
+      <c r="Z131" s="14"/>
+      <c r="AA131" s="14"/>
+      <c r="AB131" s="14"/>
+      <c r="AC131" s="14"/>
+      <c r="AD131" s="14"/>
+      <c r="AE131" s="14"/>
+      <c r="AF131" s="14"/>
+      <c r="AG131" s="14"/>
+      <c r="AH131" s="14"/>
+      <c r="AI131" s="14"/>
+      <c r="AJ131" s="14"/>
+      <c r="AK131" s="14"/>
+      <c r="AL131" s="14"/>
+      <c r="AM131" s="14"/>
+      <c r="AN131" s="14"/>
+      <c r="AO131" s="14"/>
+      <c r="AP131" s="14"/>
+      <c r="AQ131" s="14"/>
+      <c r="AR131" s="14"/>
+      <c r="AS131" s="14"/>
+      <c r="AT131" s="14"/>
+      <c r="AU131" s="14"/>
+      <c r="AV131" s="14"/>
+      <c r="AW131" s="14"/>
+      <c r="AX131" s="14"/>
+      <c r="AY131" s="14"/>
+      <c r="AZ131" s="14"/>
+      <c r="BA131" s="14"/>
+      <c r="BB131" s="14"/>
+      <c r="BC131" s="14"/>
+      <c r="BD131" s="14"/>
+      <c r="BE131" s="14"/>
+      <c r="BF131" s="14"/>
+      <c r="BG131" s="14"/>
+      <c r="BH131" s="14"/>
+      <c r="BI131" s="14"/>
+      <c r="BJ131" s="14"/>
+      <c r="BK131" s="14"/>
+      <c r="BL131" s="14"/>
+      <c r="BM131" s="14"/>
+      <c r="BN131" s="14"/>
+      <c r="BO131" s="14"/>
+      <c r="BP131" s="14"/>
+      <c r="BQ131" s="14"/>
+      <c r="BR131" s="14"/>
+      <c r="BS131" s="34"/>
+    </row>
+    <row r="132" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="35"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="F132" s="15"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="43"/>
+      <c r="N132" s="43"/>
+      <c r="O132" s="43"/>
+      <c r="P132" s="43"/>
+      <c r="Q132" s="43"/>
+      <c r="R132" s="43"/>
+      <c r="S132" s="43"/>
+      <c r="T132" s="43"/>
+      <c r="U132" s="43"/>
+      <c r="V132" s="43"/>
+      <c r="W132" s="43"/>
+      <c r="X132" s="14"/>
+      <c r="Y132" s="14"/>
+      <c r="Z132" s="14"/>
+      <c r="AA132" s="14"/>
+      <c r="AB132" s="14"/>
+      <c r="AC132" s="14"/>
+      <c r="AD132" s="14"/>
+      <c r="AE132" s="14"/>
+      <c r="AF132" s="14"/>
+      <c r="AG132" s="14"/>
+      <c r="AH132" s="14"/>
+      <c r="AI132" s="14"/>
+      <c r="AJ132" s="14"/>
+      <c r="AK132" s="14"/>
+      <c r="AL132" s="14"/>
+      <c r="AM132" s="14"/>
+      <c r="AN132" s="14"/>
+      <c r="AO132" s="14"/>
+      <c r="AP132" s="14"/>
+      <c r="AQ132" s="14"/>
+      <c r="AR132" s="14"/>
+      <c r="AS132" s="14"/>
+      <c r="AT132" s="14"/>
+      <c r="AU132" s="14"/>
+      <c r="AV132" s="14"/>
+      <c r="AW132" s="14"/>
+      <c r="AX132" s="14"/>
+      <c r="AY132" s="14"/>
+      <c r="AZ132" s="14"/>
+      <c r="BA132" s="14"/>
+      <c r="BB132" s="14"/>
+      <c r="BC132" s="14"/>
+      <c r="BD132" s="14"/>
+      <c r="BE132" s="14"/>
+      <c r="BF132" s="14"/>
+      <c r="BG132" s="14"/>
+      <c r="BH132" s="14"/>
+      <c r="BI132" s="14"/>
+      <c r="BJ132" s="14"/>
+      <c r="BK132" s="14"/>
+      <c r="BL132" s="14"/>
+      <c r="BM132" s="14"/>
+      <c r="BN132" s="14"/>
+      <c r="BO132" s="14"/>
+      <c r="BP132" s="14"/>
+      <c r="BQ132" s="14"/>
+      <c r="BR132" s="14"/>
+      <c r="BS132" s="34"/>
+    </row>
+    <row r="133" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="35"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="F133" s="15"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
+      <c r="M133" s="43"/>
+      <c r="N133" s="43"/>
+      <c r="O133" s="43"/>
+      <c r="P133" s="43"/>
+      <c r="Q133" s="43"/>
+      <c r="R133" s="43"/>
+      <c r="S133" s="43"/>
+      <c r="T133" s="43"/>
+      <c r="U133" s="43"/>
+      <c r="V133" s="43"/>
+      <c r="W133" s="43"/>
+      <c r="X133" s="14"/>
+      <c r="Y133" s="14"/>
+      <c r="Z133" s="14"/>
+      <c r="AA133" s="14"/>
+      <c r="AB133" s="14"/>
+      <c r="AC133" s="14"/>
+      <c r="AD133" s="14"/>
+      <c r="AE133" s="14"/>
+      <c r="AF133" s="14"/>
+      <c r="AG133" s="14"/>
+      <c r="AH133" s="14"/>
+      <c r="AI133" s="14"/>
+      <c r="AJ133" s="14"/>
+      <c r="AK133" s="14"/>
+      <c r="AL133" s="14"/>
+      <c r="AM133" s="14"/>
+      <c r="AN133" s="14"/>
+      <c r="AO133" s="14"/>
+      <c r="AP133" s="14"/>
+      <c r="AQ133" s="14"/>
+      <c r="AR133" s="14"/>
+      <c r="AS133" s="14"/>
+      <c r="AT133" s="14"/>
+      <c r="AU133" s="14"/>
+      <c r="AV133" s="14"/>
+      <c r="AW133" s="14"/>
+      <c r="AX133" s="14"/>
+      <c r="AY133" s="14"/>
+      <c r="AZ133" s="14"/>
+      <c r="BA133" s="14"/>
+      <c r="BB133" s="14"/>
+      <c r="BC133" s="14"/>
+      <c r="BD133" s="14"/>
+      <c r="BE133" s="14"/>
+      <c r="BF133" s="14"/>
+      <c r="BG133" s="14"/>
+      <c r="BH133" s="14"/>
+      <c r="BI133" s="14"/>
+      <c r="BJ133" s="14"/>
+      <c r="BK133" s="14"/>
+      <c r="BL133" s="14"/>
+      <c r="BM133" s="14"/>
+      <c r="BN133" s="14"/>
+      <c r="BO133" s="14"/>
+      <c r="BP133" s="14"/>
+      <c r="BQ133" s="14"/>
+      <c r="BR133" s="14"/>
+      <c r="BS133" s="34"/>
+    </row>
+    <row r="134" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="35"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" s="56"/>
+      <c r="E134" s="65">
+        <v>10</v>
+      </c>
+      <c r="F134" s="15">
+        <v>44126</v>
+      </c>
+      <c r="G134" s="16">
+        <v>44128</v>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="43"/>
+      <c r="J134" s="43"/>
+      <c r="K134" s="43"/>
+      <c r="L134" s="43"/>
+      <c r="M134" s="43"/>
+      <c r="N134" s="43"/>
+      <c r="O134" s="43"/>
+      <c r="P134" s="43"/>
+      <c r="Q134" s="43"/>
+      <c r="R134" s="43"/>
+      <c r="S134" s="43"/>
+      <c r="T134" s="43"/>
+      <c r="U134" s="43"/>
+      <c r="V134" s="43"/>
+      <c r="W134" s="43"/>
+      <c r="X134" s="14"/>
+      <c r="Y134" s="14"/>
+      <c r="Z134" s="14"/>
+      <c r="AA134" s="14"/>
+      <c r="AB134" s="14"/>
+      <c r="AC134" s="14"/>
+      <c r="AD134" s="14"/>
+      <c r="AE134" s="14"/>
+      <c r="AF134" s="14"/>
+      <c r="AG134" s="14"/>
+      <c r="AH134" s="14"/>
+      <c r="AI134" s="14"/>
+      <c r="AJ134" s="14"/>
+      <c r="AK134" s="14"/>
+      <c r="AL134" s="14"/>
+      <c r="AM134" s="14"/>
+      <c r="AN134" s="14"/>
+      <c r="AO134" s="14"/>
+      <c r="AP134" s="14"/>
+      <c r="AQ134" s="14"/>
+      <c r="AR134" s="14"/>
+      <c r="AS134" s="14"/>
+      <c r="AT134" s="14"/>
+      <c r="AU134" s="14"/>
+      <c r="AV134" s="14"/>
+      <c r="AW134" s="14"/>
+      <c r="AX134" s="14"/>
+      <c r="AY134" s="66"/>
+      <c r="AZ134" s="66"/>
+      <c r="BA134" s="66"/>
+      <c r="BB134" s="14"/>
+      <c r="BC134" s="14"/>
+      <c r="BD134" s="14"/>
+      <c r="BE134" s="14"/>
+      <c r="BF134" s="14"/>
+      <c r="BG134" s="14"/>
+      <c r="BH134" s="14"/>
+      <c r="BI134" s="14"/>
+      <c r="BJ134" s="14"/>
+      <c r="BK134" s="14"/>
+      <c r="BL134" s="14"/>
+      <c r="BM134" s="14"/>
+      <c r="BN134" s="14"/>
+      <c r="BO134" s="14"/>
+      <c r="BP134" s="14"/>
+      <c r="BQ134" s="14"/>
+      <c r="BR134" s="14"/>
+      <c r="BS134" s="34"/>
+    </row>
+    <row r="135" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="35"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="56"/>
+      <c r="E135" s="65">
+        <v>10</v>
+      </c>
+      <c r="F135" s="15">
+        <v>44129</v>
+      </c>
+      <c r="G135" s="16">
+        <v>44130</v>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="43"/>
+      <c r="J135" s="43"/>
+      <c r="K135" s="43"/>
+      <c r="L135" s="43"/>
+      <c r="M135" s="43"/>
+      <c r="N135" s="43"/>
+      <c r="O135" s="43"/>
+      <c r="P135" s="43"/>
+      <c r="Q135" s="43"/>
+      <c r="R135" s="43"/>
+      <c r="S135" s="43"/>
+      <c r="T135" s="43"/>
+      <c r="U135" s="43"/>
+      <c r="V135" s="43"/>
+      <c r="W135" s="43"/>
+      <c r="X135" s="14"/>
+      <c r="Y135" s="14"/>
+      <c r="Z135" s="14"/>
+      <c r="AA135" s="14"/>
+      <c r="AB135" s="14"/>
+      <c r="AC135" s="14"/>
+      <c r="AD135" s="14"/>
+      <c r="AE135" s="14"/>
+      <c r="AF135" s="14"/>
+      <c r="AG135" s="14"/>
+      <c r="AH135" s="14"/>
+      <c r="AI135" s="14"/>
+      <c r="AJ135" s="14"/>
+      <c r="AK135" s="14"/>
+      <c r="AL135" s="14"/>
+      <c r="AM135" s="14"/>
+      <c r="AN135" s="14"/>
+      <c r="AO135" s="14"/>
+      <c r="AP135" s="14"/>
+      <c r="AQ135" s="14"/>
+      <c r="AR135" s="14"/>
+      <c r="AS135" s="14"/>
+      <c r="AT135" s="14"/>
+      <c r="AU135" s="14"/>
+      <c r="AV135" s="14"/>
+      <c r="AW135" s="14"/>
+      <c r="AX135" s="14"/>
+      <c r="AY135" s="14"/>
+      <c r="AZ135" s="14"/>
+      <c r="BA135" s="14"/>
+      <c r="BB135" s="66"/>
+      <c r="BC135" s="66"/>
+      <c r="BD135" s="14"/>
+      <c r="BE135" s="14"/>
+      <c r="BF135" s="14"/>
+      <c r="BG135" s="14"/>
+      <c r="BH135" s="14"/>
+      <c r="BI135" s="14"/>
+      <c r="BJ135" s="14"/>
+      <c r="BK135" s="14"/>
+      <c r="BL135" s="14"/>
+      <c r="BM135" s="14"/>
+      <c r="BN135" s="14"/>
+      <c r="BO135" s="14"/>
+      <c r="BP135" s="14"/>
+      <c r="BQ135" s="14"/>
+      <c r="BR135" s="14"/>
+      <c r="BS135" s="34"/>
+    </row>
+    <row r="136" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="35"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="56"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="43"/>
+      <c r="J136" s="43"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="43"/>
+      <c r="M136" s="43"/>
+      <c r="N136" s="43"/>
+      <c r="O136" s="43"/>
+      <c r="P136" s="43"/>
+      <c r="Q136" s="43"/>
+      <c r="R136" s="43"/>
+      <c r="S136" s="43"/>
+      <c r="T136" s="43"/>
+      <c r="U136" s="43"/>
+      <c r="V136" s="43"/>
+      <c r="W136" s="43"/>
+      <c r="X136" s="14"/>
+      <c r="Y136" s="14"/>
+      <c r="Z136" s="14"/>
+      <c r="AA136" s="14"/>
+      <c r="AB136" s="14"/>
+      <c r="AC136" s="14"/>
+      <c r="AD136" s="14"/>
+      <c r="AE136" s="14"/>
+      <c r="AF136" s="14"/>
+      <c r="AG136" s="14"/>
+      <c r="AH136" s="14"/>
+      <c r="AI136" s="14"/>
+      <c r="AJ136" s="14"/>
+      <c r="AK136" s="14"/>
+      <c r="AL136" s="14"/>
+      <c r="AM136" s="14"/>
+      <c r="AN136" s="14"/>
+      <c r="AO136" s="14"/>
+      <c r="AP136" s="14"/>
+      <c r="AQ136" s="14"/>
+      <c r="AR136" s="14"/>
+      <c r="AS136" s="14"/>
+      <c r="AT136" s="14"/>
+      <c r="AU136" s="14"/>
+      <c r="AV136" s="14"/>
+      <c r="AW136" s="14"/>
+      <c r="AX136" s="14"/>
+      <c r="AY136" s="14"/>
+      <c r="AZ136" s="14"/>
+      <c r="BA136" s="14"/>
+      <c r="BB136" s="14"/>
+      <c r="BC136" s="14"/>
+      <c r="BD136" s="14"/>
+      <c r="BE136" s="14"/>
+      <c r="BF136" s="14"/>
+      <c r="BG136" s="14"/>
+      <c r="BH136" s="14"/>
+      <c r="BI136" s="14"/>
+      <c r="BJ136" s="14"/>
+      <c r="BK136" s="14"/>
+      <c r="BL136" s="14"/>
+      <c r="BM136" s="14"/>
+      <c r="BN136" s="14"/>
+      <c r="BO136" s="14"/>
+      <c r="BP136" s="14"/>
+      <c r="BQ136" s="14"/>
+      <c r="BR136" s="14"/>
+      <c r="BS136" s="34"/>
+    </row>
+    <row r="137" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="35"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137" s="65"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="43"/>
+      <c r="I137" s="43"/>
+      <c r="J137" s="43"/>
+      <c r="K137" s="43"/>
+      <c r="L137" s="43"/>
+      <c r="M137" s="43"/>
+      <c r="N137" s="43"/>
+      <c r="O137" s="43"/>
+      <c r="P137" s="43"/>
+      <c r="Q137" s="43"/>
+      <c r="R137" s="43"/>
+      <c r="S137" s="43"/>
+      <c r="T137" s="43"/>
+      <c r="U137" s="43"/>
+      <c r="V137" s="43"/>
+      <c r="W137" s="43"/>
+      <c r="X137" s="14"/>
+      <c r="Y137" s="14"/>
+      <c r="Z137" s="14"/>
+      <c r="AA137" s="14"/>
+      <c r="AB137" s="14"/>
+      <c r="AC137" s="14"/>
+      <c r="AD137" s="14"/>
+      <c r="AE137" s="14"/>
+      <c r="AF137" s="14"/>
+      <c r="AG137" s="14"/>
+      <c r="AH137" s="14"/>
+      <c r="AI137" s="14"/>
+      <c r="AJ137" s="14"/>
+      <c r="AK137" s="14"/>
+      <c r="AL137" s="14"/>
+      <c r="AM137" s="14"/>
+      <c r="AN137" s="14"/>
+      <c r="AO137" s="14"/>
+      <c r="AP137" s="14"/>
+      <c r="AQ137" s="14"/>
+      <c r="AR137" s="14"/>
+      <c r="AS137" s="14"/>
+      <c r="AT137" s="14"/>
+      <c r="AU137" s="14"/>
+      <c r="AV137" s="14"/>
+      <c r="AW137" s="14"/>
+      <c r="AX137" s="14"/>
+      <c r="AY137" s="14"/>
+      <c r="AZ137" s="14"/>
+      <c r="BA137" s="14"/>
+      <c r="BB137" s="14"/>
+      <c r="BC137" s="14"/>
+      <c r="BD137" s="14"/>
+      <c r="BE137" s="14"/>
+      <c r="BF137" s="14"/>
+      <c r="BG137" s="14"/>
+      <c r="BH137" s="14"/>
+      <c r="BI137" s="14"/>
+      <c r="BJ137" s="14"/>
+      <c r="BK137" s="14"/>
+      <c r="BL137" s="14"/>
+      <c r="BM137" s="14"/>
+      <c r="BN137" s="14"/>
+      <c r="BO137" s="14"/>
+      <c r="BP137" s="14"/>
+      <c r="BQ137" s="14"/>
+      <c r="BR137" s="14"/>
+      <c r="BS137" s="34"/>
+    </row>
+    <row r="138" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="35"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="65"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="43"/>
+      <c r="M138" s="43"/>
+      <c r="N138" s="43"/>
+      <c r="O138" s="43"/>
+      <c r="P138" s="43"/>
+      <c r="Q138" s="43"/>
+      <c r="R138" s="43"/>
+      <c r="S138" s="43"/>
+      <c r="T138" s="43"/>
+      <c r="U138" s="43"/>
+      <c r="V138" s="43"/>
+      <c r="W138" s="43"/>
+      <c r="X138" s="14"/>
+      <c r="Y138" s="14"/>
+      <c r="Z138" s="14"/>
+      <c r="AA138" s="14"/>
+      <c r="AB138" s="14"/>
+      <c r="AC138" s="14"/>
+      <c r="AD138" s="14"/>
+      <c r="AE138" s="14"/>
+      <c r="AF138" s="14"/>
+      <c r="AG138" s="14"/>
+      <c r="AH138" s="14"/>
+      <c r="AI138" s="14"/>
+      <c r="AJ138" s="14"/>
+      <c r="AK138" s="14"/>
+      <c r="AL138" s="14"/>
+      <c r="AM138" s="14"/>
+      <c r="AN138" s="14"/>
+      <c r="AO138" s="14"/>
+      <c r="AP138" s="14"/>
+      <c r="AQ138" s="14"/>
+      <c r="AR138" s="14"/>
+      <c r="AS138" s="14"/>
+      <c r="AT138" s="14"/>
+      <c r="AU138" s="14"/>
+      <c r="AV138" s="14"/>
+      <c r="AW138" s="14"/>
+      <c r="AX138" s="14"/>
+      <c r="AY138" s="14"/>
+      <c r="AZ138" s="14"/>
+      <c r="BA138" s="14"/>
+      <c r="BB138" s="14"/>
+      <c r="BC138" s="14"/>
+      <c r="BD138" s="14"/>
+      <c r="BE138" s="14"/>
+      <c r="BF138" s="14"/>
+      <c r="BG138" s="14"/>
+      <c r="BH138" s="14"/>
+      <c r="BI138" s="14"/>
+      <c r="BJ138" s="14"/>
+      <c r="BK138" s="14"/>
+      <c r="BL138" s="14"/>
+      <c r="BM138" s="14"/>
+      <c r="BN138" s="14"/>
+      <c r="BO138" s="14"/>
+      <c r="BP138" s="14"/>
+      <c r="BQ138" s="14"/>
+      <c r="BR138" s="14"/>
+      <c r="BS138" s="34"/>
+    </row>
+    <row r="139" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="35"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D139" s="55"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="43"/>
+      <c r="J139" s="43"/>
+      <c r="K139" s="43"/>
+      <c r="L139" s="43"/>
+      <c r="M139" s="43"/>
+      <c r="N139" s="43"/>
+      <c r="O139" s="43"/>
+      <c r="P139" s="43"/>
+      <c r="Q139" s="43"/>
+      <c r="R139" s="43"/>
+      <c r="S139" s="43"/>
+      <c r="T139" s="43"/>
+      <c r="U139" s="43"/>
+      <c r="V139" s="43"/>
+      <c r="W139" s="43"/>
+      <c r="X139" s="14"/>
+      <c r="Y139" s="14"/>
+      <c r="Z139" s="14"/>
+      <c r="AA139" s="14"/>
+      <c r="AB139" s="14"/>
+      <c r="AC139" s="14"/>
+      <c r="AD139" s="14"/>
+      <c r="AE139" s="14"/>
+      <c r="AF139" s="14"/>
+      <c r="AG139" s="14"/>
+      <c r="AH139" s="14"/>
+      <c r="AI139" s="14"/>
+      <c r="AJ139" s="14"/>
+      <c r="AK139" s="14"/>
+      <c r="AL139" s="14"/>
+      <c r="AM139" s="14"/>
+      <c r="AN139" s="14"/>
+      <c r="AO139" s="14"/>
+      <c r="AP139" s="14"/>
+      <c r="AQ139" s="14"/>
+      <c r="AR139" s="14"/>
+      <c r="AS139" s="14"/>
+      <c r="AT139" s="14"/>
+      <c r="AU139" s="14"/>
+      <c r="AV139" s="14"/>
+      <c r="AW139" s="14"/>
+      <c r="AX139" s="14"/>
+      <c r="AY139" s="14"/>
+      <c r="AZ139" s="14"/>
+      <c r="BA139" s="14"/>
+      <c r="BB139" s="14"/>
+      <c r="BC139" s="14"/>
+      <c r="BD139" s="14"/>
+      <c r="BE139" s="14"/>
+      <c r="BF139" s="14"/>
+      <c r="BG139" s="14"/>
+      <c r="BH139" s="14"/>
+      <c r="BI139" s="14"/>
+      <c r="BJ139" s="14"/>
+      <c r="BK139" s="14"/>
+      <c r="BL139" s="14"/>
+      <c r="BM139" s="14"/>
+      <c r="BN139" s="14"/>
+      <c r="BO139" s="14"/>
+      <c r="BP139" s="14"/>
+      <c r="BQ139" s="14"/>
+      <c r="BR139" s="14"/>
+      <c r="BS139" s="34"/>
+    </row>
+    <row r="140" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="35"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E140" s="65">
+        <v>2</v>
+      </c>
+      <c r="F140" s="74">
+        <v>44134</v>
+      </c>
+      <c r="G140" s="16">
+        <v>44134</v>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="43"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="43"/>
+      <c r="M140" s="43"/>
+      <c r="N140" s="43"/>
+      <c r="O140" s="43"/>
+      <c r="P140" s="43"/>
+      <c r="Q140" s="43"/>
+      <c r="R140" s="43"/>
+      <c r="S140" s="43"/>
+      <c r="T140" s="43"/>
+      <c r="U140" s="43"/>
+      <c r="V140" s="43"/>
+      <c r="W140" s="43"/>
+      <c r="X140" s="14"/>
+      <c r="Y140" s="14"/>
+      <c r="Z140" s="14"/>
+      <c r="AA140" s="14"/>
+      <c r="AB140" s="14"/>
+      <c r="AC140" s="14"/>
+      <c r="AD140" s="14"/>
+      <c r="AE140" s="14"/>
+      <c r="AF140" s="14"/>
+      <c r="AG140" s="14"/>
+      <c r="AH140" s="14"/>
+      <c r="AI140" s="14"/>
+      <c r="AJ140" s="14"/>
+      <c r="AK140" s="14"/>
+      <c r="AL140" s="14"/>
+      <c r="AM140" s="14"/>
+      <c r="AN140" s="14"/>
+      <c r="AO140" s="14"/>
+      <c r="AP140" s="14"/>
+      <c r="AQ140" s="14"/>
+      <c r="AR140" s="14"/>
+      <c r="AS140" s="14"/>
+      <c r="AT140" s="14"/>
+      <c r="AU140" s="14"/>
+      <c r="AV140" s="14"/>
+      <c r="AW140" s="14"/>
+      <c r="AX140" s="14"/>
+      <c r="AY140" s="14"/>
+      <c r="AZ140" s="14"/>
+      <c r="BA140" s="14"/>
+      <c r="BB140" s="14"/>
+      <c r="BC140" s="14"/>
+      <c r="BD140" s="14"/>
+      <c r="BE140" s="14"/>
+      <c r="BF140" s="14"/>
+      <c r="BG140" s="66"/>
+      <c r="BH140" s="14"/>
+      <c r="BI140" s="14"/>
+      <c r="BJ140" s="14"/>
+      <c r="BK140" s="14"/>
+      <c r="BL140" s="14"/>
+      <c r="BM140" s="14"/>
+      <c r="BN140" s="14"/>
+      <c r="BO140" s="14"/>
+      <c r="BP140" s="14"/>
+      <c r="BQ140" s="14"/>
+      <c r="BR140" s="14"/>
+      <c r="BS140" s="34"/>
+    </row>
+    <row r="141" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="35"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141" s="65"/>
+      <c r="F141" s="74"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="43"/>
+      <c r="K141" s="43"/>
+      <c r="L141" s="43"/>
+      <c r="M141" s="43"/>
+      <c r="N141" s="43"/>
+      <c r="O141" s="43"/>
+      <c r="P141" s="43"/>
+      <c r="Q141" s="43"/>
+      <c r="R141" s="43"/>
+      <c r="S141" s="43"/>
+      <c r="T141" s="43"/>
+      <c r="U141" s="43"/>
+      <c r="V141" s="43"/>
+      <c r="W141" s="43"/>
+      <c r="X141" s="14"/>
+      <c r="Y141" s="14"/>
+      <c r="Z141" s="14"/>
+      <c r="AA141" s="14"/>
+      <c r="AB141" s="14"/>
+      <c r="AC141" s="14"/>
+      <c r="AD141" s="14"/>
+      <c r="AE141" s="14"/>
+      <c r="AF141" s="14"/>
+      <c r="AG141" s="14"/>
+      <c r="AH141" s="14"/>
+      <c r="AI141" s="14"/>
+      <c r="AJ141" s="14"/>
+      <c r="AK141" s="14"/>
+      <c r="AL141" s="14"/>
+      <c r="AM141" s="14"/>
+      <c r="AN141" s="14"/>
+      <c r="AO141" s="14"/>
+      <c r="AP141" s="14"/>
+      <c r="AQ141" s="14"/>
+      <c r="AR141" s="14"/>
+      <c r="AS141" s="14"/>
+      <c r="AT141" s="14"/>
+      <c r="AU141" s="14"/>
+      <c r="AV141" s="14"/>
+      <c r="AW141" s="14"/>
+      <c r="AX141" s="14"/>
+      <c r="AY141" s="14"/>
+      <c r="AZ141" s="14"/>
+      <c r="BA141" s="14"/>
+      <c r="BB141" s="14"/>
+      <c r="BC141" s="14"/>
+      <c r="BD141" s="14"/>
+      <c r="BE141" s="14"/>
+      <c r="BF141" s="14"/>
+      <c r="BG141" s="14"/>
+      <c r="BH141" s="14"/>
+      <c r="BI141" s="14"/>
+      <c r="BJ141" s="14"/>
+      <c r="BK141" s="14"/>
+      <c r="BL141" s="14"/>
+      <c r="BM141" s="14"/>
+      <c r="BN141" s="14"/>
+      <c r="BO141" s="14"/>
+      <c r="BP141" s="14"/>
+      <c r="BQ141" s="14"/>
+      <c r="BR141" s="14"/>
+      <c r="BS141" s="34"/>
+    </row>
+    <row r="142" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="35"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E142" s="65">
+        <v>1</v>
+      </c>
+      <c r="F142" s="74">
+        <v>44135</v>
+      </c>
+      <c r="G142" s="16">
+        <v>44135</v>
+      </c>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="43"/>
+      <c r="M142" s="43"/>
+      <c r="N142" s="43"/>
+      <c r="O142" s="43"/>
+      <c r="P142" s="43"/>
+      <c r="Q142" s="43"/>
+      <c r="R142" s="43"/>
+      <c r="S142" s="43"/>
+      <c r="T142" s="43"/>
+      <c r="U142" s="43"/>
+      <c r="V142" s="43"/>
+      <c r="W142" s="43"/>
+      <c r="X142" s="14"/>
+      <c r="Y142" s="14"/>
+      <c r="Z142" s="14"/>
+      <c r="AA142" s="14"/>
+      <c r="AB142" s="14"/>
+      <c r="AC142" s="14"/>
+      <c r="AD142" s="14"/>
+      <c r="AE142" s="14"/>
+      <c r="AF142" s="14"/>
+      <c r="AG142" s="14"/>
+      <c r="AH142" s="14"/>
+      <c r="AI142" s="14"/>
+      <c r="AJ142" s="14"/>
+      <c r="AK142" s="14"/>
+      <c r="AL142" s="14"/>
+      <c r="AM142" s="14"/>
+      <c r="AN142" s="14"/>
+      <c r="AO142" s="14"/>
+      <c r="AP142" s="14"/>
+      <c r="AQ142" s="14"/>
+      <c r="AR142" s="14"/>
+      <c r="AS142" s="14"/>
+      <c r="AT142" s="14"/>
+      <c r="AU142" s="14"/>
+      <c r="AV142" s="14"/>
+      <c r="AW142" s="14"/>
+      <c r="AX142" s="14"/>
+      <c r="AY142" s="14"/>
+      <c r="AZ142" s="14"/>
+      <c r="BA142" s="14"/>
+      <c r="BB142" s="14"/>
+      <c r="BC142" s="14"/>
+      <c r="BD142" s="14"/>
+      <c r="BE142" s="14"/>
+      <c r="BF142" s="14"/>
+      <c r="BG142" s="14"/>
+      <c r="BH142" s="66"/>
+      <c r="BI142" s="14"/>
+      <c r="BJ142" s="14"/>
+      <c r="BK142" s="14"/>
+      <c r="BL142" s="14"/>
+      <c r="BM142" s="14"/>
+      <c r="BN142" s="14"/>
+      <c r="BO142" s="14"/>
+      <c r="BP142" s="14"/>
+      <c r="BQ142" s="14"/>
+      <c r="BR142" s="14"/>
+      <c r="BS142" s="34"/>
+    </row>
+    <row r="143" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="35"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E143" s="65">
+        <v>2</v>
+      </c>
+      <c r="F143" s="74">
+        <v>44135</v>
+      </c>
+      <c r="G143" s="16">
+        <v>44135</v>
+      </c>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="43"/>
+      <c r="K143" s="43"/>
+      <c r="L143" s="43"/>
+      <c r="M143" s="43"/>
+      <c r="N143" s="43"/>
+      <c r="O143" s="43"/>
+      <c r="P143" s="43"/>
+      <c r="Q143" s="43"/>
+      <c r="R143" s="43"/>
+      <c r="S143" s="43"/>
+      <c r="T143" s="43"/>
+      <c r="U143" s="43"/>
+      <c r="V143" s="43"/>
+      <c r="W143" s="43"/>
+      <c r="X143" s="14"/>
+      <c r="Y143" s="14"/>
+      <c r="Z143" s="14"/>
+      <c r="AA143" s="14"/>
+      <c r="AB143" s="14"/>
+      <c r="AC143" s="14"/>
+      <c r="AD143" s="14"/>
+      <c r="AE143" s="14"/>
+      <c r="AF143" s="14"/>
+      <c r="AG143" s="14"/>
+      <c r="AH143" s="14"/>
+      <c r="AI143" s="14"/>
+      <c r="AJ143" s="14"/>
+      <c r="AK143" s="14"/>
+      <c r="AL143" s="14"/>
+      <c r="AM143" s="14"/>
+      <c r="AN143" s="14"/>
+      <c r="AO143" s="14"/>
+      <c r="AP143" s="14"/>
+      <c r="AQ143" s="14"/>
+      <c r="AR143" s="14"/>
+      <c r="AS143" s="14"/>
+      <c r="AT143" s="14"/>
+      <c r="AU143" s="14"/>
+      <c r="AV143" s="14"/>
+      <c r="AW143" s="14"/>
+      <c r="AX143" s="14"/>
+      <c r="AY143" s="14"/>
+      <c r="AZ143" s="14"/>
+      <c r="BA143" s="14"/>
+      <c r="BB143" s="14"/>
+      <c r="BC143" s="14"/>
+      <c r="BD143" s="14"/>
+      <c r="BE143" s="14"/>
+      <c r="BF143" s="14"/>
+      <c r="BG143" s="14"/>
+      <c r="BH143" s="66"/>
+      <c r="BI143" s="14"/>
+      <c r="BJ143" s="14"/>
+      <c r="BK143" s="14"/>
+      <c r="BL143" s="14"/>
+      <c r="BM143" s="14"/>
+      <c r="BN143" s="14"/>
+      <c r="BO143" s="14"/>
+      <c r="BP143" s="14"/>
+      <c r="BQ143" s="14"/>
+      <c r="BR143" s="14"/>
+      <c r="BS143" s="34"/>
+    </row>
+    <row r="144" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="35"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="65">
+        <v>2</v>
+      </c>
+      <c r="F144" s="74">
+        <v>44135</v>
+      </c>
+      <c r="G144" s="16">
+        <v>44135</v>
+      </c>
+      <c r="H144" s="43"/>
+      <c r="I144" s="43"/>
+      <c r="J144" s="43"/>
+      <c r="K144" s="43"/>
+      <c r="L144" s="43"/>
+      <c r="M144" s="43"/>
+      <c r="N144" s="43"/>
+      <c r="O144" s="43"/>
+      <c r="P144" s="43"/>
+      <c r="Q144" s="43"/>
+      <c r="R144" s="43"/>
+      <c r="S144" s="43"/>
+      <c r="T144" s="43"/>
+      <c r="U144" s="43"/>
+      <c r="V144" s="43"/>
+      <c r="W144" s="43"/>
+      <c r="X144" s="14"/>
+      <c r="Y144" s="14"/>
+      <c r="Z144" s="14"/>
+      <c r="AA144" s="14"/>
+      <c r="AB144" s="14"/>
+      <c r="AC144" s="14"/>
+      <c r="AD144" s="14"/>
+      <c r="AE144" s="14"/>
+      <c r="AF144" s="14"/>
+      <c r="AG144" s="14"/>
+      <c r="AH144" s="14"/>
+      <c r="AI144" s="14"/>
+      <c r="AJ144" s="14"/>
+      <c r="AK144" s="14"/>
+      <c r="AL144" s="14"/>
+      <c r="AM144" s="14"/>
+      <c r="AN144" s="14"/>
+      <c r="AO144" s="14"/>
+      <c r="AP144" s="14"/>
+      <c r="AQ144" s="14"/>
+      <c r="AR144" s="14"/>
+      <c r="AS144" s="14"/>
+      <c r="AT144" s="14"/>
+      <c r="AU144" s="14"/>
+      <c r="AV144" s="14"/>
+      <c r="AW144" s="14"/>
+      <c r="AX144" s="14"/>
+      <c r="AY144" s="14"/>
+      <c r="AZ144" s="14"/>
+      <c r="BA144" s="14"/>
+      <c r="BB144" s="14"/>
+      <c r="BC144" s="14"/>
+      <c r="BD144" s="14"/>
+      <c r="BE144" s="14"/>
+      <c r="BF144" s="14"/>
+      <c r="BG144" s="14"/>
+      <c r="BH144" s="66"/>
+      <c r="BI144" s="14"/>
+      <c r="BJ144" s="14"/>
+      <c r="BK144" s="14"/>
+      <c r="BL144" s="14"/>
+      <c r="BM144" s="14"/>
+      <c r="BN144" s="14"/>
+      <c r="BO144" s="14"/>
+      <c r="BP144" s="14"/>
+      <c r="BQ144" s="14"/>
+      <c r="BR144" s="14"/>
+      <c r="BS144" s="34"/>
+    </row>
+    <row r="145" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="35"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E145" s="65">
+        <v>3</v>
+      </c>
+      <c r="F145" s="74">
+        <v>44136</v>
+      </c>
+      <c r="G145" s="16">
+        <v>44136</v>
+      </c>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="43"/>
+      <c r="K145" s="43"/>
+      <c r="L145" s="43"/>
+      <c r="M145" s="43"/>
+      <c r="N145" s="43"/>
+      <c r="O145" s="43"/>
+      <c r="P145" s="43"/>
+      <c r="Q145" s="43"/>
+      <c r="R145" s="43"/>
+      <c r="S145" s="43"/>
+      <c r="T145" s="43"/>
+      <c r="U145" s="43"/>
+      <c r="V145" s="43"/>
+      <c r="W145" s="43"/>
+      <c r="X145" s="14"/>
+      <c r="Y145" s="14"/>
+      <c r="Z145" s="14"/>
+      <c r="AA145" s="14"/>
+      <c r="AB145" s="14"/>
+      <c r="AC145" s="14"/>
+      <c r="AD145" s="14"/>
+      <c r="AE145" s="14"/>
+      <c r="AF145" s="14"/>
+      <c r="AG145" s="14"/>
+      <c r="AH145" s="14"/>
+      <c r="AI145" s="14"/>
+      <c r="AJ145" s="14"/>
+      <c r="AK145" s="14"/>
+      <c r="AL145" s="14"/>
+      <c r="AM145" s="14"/>
+      <c r="AN145" s="14"/>
+      <c r="AO145" s="14"/>
+      <c r="AP145" s="14"/>
+      <c r="AQ145" s="14"/>
+      <c r="AR145" s="14"/>
+      <c r="AS145" s="14"/>
+      <c r="AT145" s="14"/>
+      <c r="AU145" s="14"/>
+      <c r="AV145" s="14"/>
+      <c r="AW145" s="14"/>
+      <c r="AX145" s="14"/>
+      <c r="AY145" s="14"/>
+      <c r="AZ145" s="14"/>
+      <c r="BA145" s="14"/>
+      <c r="BB145" s="14"/>
+      <c r="BC145" s="14"/>
+      <c r="BD145" s="14"/>
+      <c r="BE145" s="14"/>
+      <c r="BF145" s="14"/>
+      <c r="BG145" s="14"/>
+      <c r="BH145" s="14"/>
+      <c r="BI145" s="66"/>
+      <c r="BJ145" s="14"/>
+      <c r="BK145" s="14"/>
+      <c r="BL145" s="14"/>
+      <c r="BM145" s="14"/>
+      <c r="BN145" s="14"/>
+      <c r="BO145" s="14"/>
+      <c r="BP145" s="14"/>
+      <c r="BQ145" s="14"/>
+      <c r="BR145" s="14"/>
+      <c r="BS145" s="34"/>
+    </row>
+    <row r="146" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="35"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E146" s="65">
+        <v>1</v>
+      </c>
+      <c r="F146" s="74">
+        <v>44136</v>
+      </c>
+      <c r="G146" s="16">
+        <v>44136</v>
+      </c>
+      <c r="H146" s="43"/>
+      <c r="I146" s="43"/>
+      <c r="J146" s="43"/>
+      <c r="K146" s="43"/>
+      <c r="L146" s="43"/>
+      <c r="M146" s="43"/>
+      <c r="N146" s="43"/>
+      <c r="O146" s="43"/>
+      <c r="P146" s="43"/>
+      <c r="Q146" s="43"/>
+      <c r="R146" s="43"/>
+      <c r="S146" s="43"/>
+      <c r="T146" s="43"/>
+      <c r="U146" s="43"/>
+      <c r="V146" s="43"/>
+      <c r="W146" s="43"/>
+      <c r="X146" s="14"/>
+      <c r="Y146" s="14"/>
+      <c r="Z146" s="14"/>
+      <c r="AA146" s="14"/>
+      <c r="AB146" s="14"/>
+      <c r="AC146" s="14"/>
+      <c r="AD146" s="14"/>
+      <c r="AE146" s="14"/>
+      <c r="AF146" s="14"/>
+      <c r="AG146" s="14"/>
+      <c r="AH146" s="14"/>
+      <c r="AI146" s="14"/>
+      <c r="AJ146" s="14"/>
+      <c r="AK146" s="14"/>
+      <c r="AL146" s="14"/>
+      <c r="AM146" s="14"/>
+      <c r="AN146" s="14"/>
+      <c r="AO146" s="14"/>
+      <c r="AP146" s="14"/>
+      <c r="AQ146" s="14"/>
+      <c r="AR146" s="14"/>
+      <c r="AS146" s="14"/>
+      <c r="AT146" s="14"/>
+      <c r="AU146" s="14"/>
+      <c r="AV146" s="14"/>
+      <c r="AW146" s="14"/>
+      <c r="AX146" s="14"/>
+      <c r="AY146" s="14"/>
+      <c r="AZ146" s="14"/>
+      <c r="BA146" s="14"/>
+      <c r="BB146" s="14"/>
+      <c r="BC146" s="14"/>
+      <c r="BD146" s="14"/>
+      <c r="BE146" s="14"/>
+      <c r="BF146" s="14"/>
+      <c r="BG146" s="14"/>
+      <c r="BH146" s="14"/>
+      <c r="BI146" s="66"/>
+      <c r="BJ146" s="14"/>
+      <c r="BK146" s="14"/>
+      <c r="BL146" s="14"/>
+      <c r="BM146" s="14"/>
+      <c r="BN146" s="14"/>
+      <c r="BO146" s="14"/>
+      <c r="BP146" s="14"/>
+      <c r="BQ146" s="14"/>
+      <c r="BR146" s="14"/>
+      <c r="BS146" s="34"/>
+    </row>
+    <row r="147" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="35"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E147" s="65">
+        <v>15</v>
+      </c>
+      <c r="F147" s="74">
+        <v>44137</v>
+      </c>
+      <c r="G147" s="16">
+        <v>44140</v>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="43"/>
+      <c r="K147" s="43"/>
+      <c r="L147" s="43"/>
+      <c r="M147" s="43"/>
+      <c r="N147" s="43"/>
+      <c r="O147" s="43"/>
+      <c r="P147" s="43"/>
+      <c r="Q147" s="43"/>
+      <c r="R147" s="43"/>
+      <c r="S147" s="43"/>
+      <c r="T147" s="43"/>
+      <c r="U147" s="43"/>
+      <c r="V147" s="43"/>
+      <c r="W147" s="43"/>
+      <c r="X147" s="14"/>
+      <c r="Y147" s="14"/>
+      <c r="Z147" s="14"/>
+      <c r="AA147" s="14"/>
+      <c r="AB147" s="14"/>
+      <c r="AC147" s="14"/>
+      <c r="AD147" s="14"/>
+      <c r="AE147" s="14"/>
+      <c r="AF147" s="14"/>
+      <c r="AG147" s="14"/>
+      <c r="AH147" s="14"/>
+      <c r="AI147" s="14"/>
+      <c r="AJ147" s="14"/>
+      <c r="AK147" s="14"/>
+      <c r="AL147" s="14"/>
+      <c r="AM147" s="14"/>
+      <c r="AN147" s="14"/>
+      <c r="AO147" s="14"/>
+      <c r="AP147" s="14"/>
+      <c r="AQ147" s="14"/>
+      <c r="AR147" s="14"/>
+      <c r="AS147" s="14"/>
+      <c r="AT147" s="14"/>
+      <c r="AU147" s="14"/>
+      <c r="AV147" s="14"/>
+      <c r="AW147" s="14"/>
+      <c r="AX147" s="14"/>
+      <c r="AY147" s="14"/>
+      <c r="AZ147" s="14"/>
+      <c r="BA147" s="14"/>
+      <c r="BB147" s="14"/>
+      <c r="BC147" s="14"/>
+      <c r="BD147" s="14"/>
+      <c r="BE147" s="14"/>
+      <c r="BF147" s="14"/>
+      <c r="BG147" s="14"/>
+      <c r="BH147" s="14"/>
+      <c r="BI147" s="14"/>
+      <c r="BJ147" s="66"/>
+      <c r="BK147" s="66"/>
+      <c r="BL147" s="66"/>
+      <c r="BM147" s="66"/>
+      <c r="BN147" s="14"/>
+      <c r="BO147" s="14"/>
+      <c r="BP147" s="14"/>
+      <c r="BQ147" s="14"/>
+      <c r="BR147" s="14"/>
+      <c r="BS147" s="34"/>
+    </row>
+    <row r="148" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="35"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E148" s="65">
+        <v>1</v>
+      </c>
+      <c r="F148" s="74">
+        <v>44139</v>
+      </c>
+      <c r="G148" s="16">
+        <v>44139</v>
+      </c>
+      <c r="H148" s="43"/>
+      <c r="I148" s="43"/>
+      <c r="J148" s="43"/>
+      <c r="K148" s="43"/>
+      <c r="L148" s="43"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="43"/>
+      <c r="O148" s="43"/>
+      <c r="P148" s="43"/>
+      <c r="Q148" s="43"/>
+      <c r="R148" s="43"/>
+      <c r="S148" s="43"/>
+      <c r="T148" s="43"/>
+      <c r="U148" s="43"/>
+      <c r="V148" s="43"/>
+      <c r="W148" s="43"/>
+      <c r="X148" s="14"/>
+      <c r="Y148" s="14"/>
+      <c r="Z148" s="14"/>
+      <c r="AA148" s="14"/>
+      <c r="AB148" s="14"/>
+      <c r="AC148" s="14"/>
+      <c r="AD148" s="14"/>
+      <c r="AE148" s="14"/>
+      <c r="AF148" s="14"/>
+      <c r="AG148" s="14"/>
+      <c r="AH148" s="14"/>
+      <c r="AI148" s="14"/>
+      <c r="AJ148" s="14"/>
+      <c r="AK148" s="14"/>
+      <c r="AL148" s="14"/>
+      <c r="AM148" s="14"/>
+      <c r="AN148" s="14"/>
+      <c r="AO148" s="14"/>
+      <c r="AP148" s="14"/>
+      <c r="AQ148" s="14"/>
+      <c r="AR148" s="14"/>
+      <c r="AS148" s="14"/>
+      <c r="AT148" s="14"/>
+      <c r="AU148" s="14"/>
+      <c r="AV148" s="14"/>
+      <c r="AW148" s="14"/>
+      <c r="AX148" s="14"/>
+      <c r="AY148" s="14"/>
+      <c r="AZ148" s="14"/>
+      <c r="BA148" s="14"/>
+      <c r="BB148" s="14"/>
+      <c r="BC148" s="14"/>
+      <c r="BD148" s="14"/>
+      <c r="BE148" s="14"/>
+      <c r="BF148" s="14"/>
+      <c r="BG148" s="14"/>
+      <c r="BH148" s="14"/>
+      <c r="BI148" s="14"/>
+      <c r="BJ148" s="14"/>
+      <c r="BK148" s="14"/>
+      <c r="BL148" s="66"/>
+      <c r="BM148" s="14"/>
+      <c r="BN148" s="14"/>
+      <c r="BO148" s="14"/>
+      <c r="BP148" s="14"/>
+      <c r="BQ148" s="14"/>
+      <c r="BR148" s="14"/>
+      <c r="BS148" s="34"/>
+    </row>
+    <row r="149" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="35"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" s="65">
+        <v>2</v>
+      </c>
+      <c r="F149" s="74">
+        <v>44139</v>
+      </c>
+      <c r="G149" s="16">
+        <v>44139</v>
+      </c>
+      <c r="H149" s="43"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="43"/>
+      <c r="K149" s="43"/>
+      <c r="L149" s="43"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="43"/>
+      <c r="O149" s="43"/>
+      <c r="P149" s="43"/>
+      <c r="Q149" s="43"/>
+      <c r="R149" s="43"/>
+      <c r="S149" s="43"/>
+      <c r="T149" s="43"/>
+      <c r="U149" s="43"/>
+      <c r="V149" s="43"/>
+      <c r="W149" s="43"/>
+      <c r="X149" s="14"/>
+      <c r="Y149" s="14"/>
+      <c r="Z149" s="14"/>
+      <c r="AA149" s="14"/>
+      <c r="AB149" s="14"/>
+      <c r="AC149" s="14"/>
+      <c r="AD149" s="14"/>
+      <c r="AE149" s="14"/>
+      <c r="AF149" s="14"/>
+      <c r="AG149" s="14"/>
+      <c r="AH149" s="14"/>
+      <c r="AI149" s="14"/>
+      <c r="AJ149" s="14"/>
+      <c r="AK149" s="14"/>
+      <c r="AL149" s="14"/>
+      <c r="AM149" s="14"/>
+      <c r="AN149" s="14"/>
+      <c r="AO149" s="14"/>
+      <c r="AP149" s="14"/>
+      <c r="AQ149" s="14"/>
+      <c r="AR149" s="14"/>
+      <c r="AS149" s="14"/>
+      <c r="AT149" s="14"/>
+      <c r="AU149" s="14"/>
+      <c r="AV149" s="14"/>
+      <c r="AW149" s="14"/>
+      <c r="AX149" s="14"/>
+      <c r="AY149" s="14"/>
+      <c r="AZ149" s="14"/>
+      <c r="BA149" s="14"/>
+      <c r="BB149" s="14"/>
+      <c r="BC149" s="14"/>
+      <c r="BD149" s="14"/>
+      <c r="BE149" s="14"/>
+      <c r="BF149" s="14"/>
+      <c r="BG149" s="14"/>
+      <c r="BH149" s="14"/>
+      <c r="BI149" s="14"/>
+      <c r="BJ149" s="14"/>
+      <c r="BK149" s="14"/>
+      <c r="BL149" s="66"/>
+      <c r="BM149" s="14"/>
+      <c r="BN149" s="14"/>
+      <c r="BO149" s="14"/>
+      <c r="BP149" s="14"/>
+      <c r="BQ149" s="14"/>
+      <c r="BR149" s="14"/>
+      <c r="BS149" s="34"/>
+    </row>
+    <row r="150" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="35"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D150" s="55"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="74"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
+      <c r="K150" s="43"/>
+      <c r="L150" s="43"/>
+      <c r="M150" s="43"/>
+      <c r="N150" s="43"/>
+      <c r="O150" s="43"/>
+      <c r="P150" s="43"/>
+      <c r="Q150" s="43"/>
+      <c r="R150" s="43"/>
+      <c r="S150" s="43"/>
+      <c r="T150" s="43"/>
+      <c r="U150" s="43"/>
+      <c r="V150" s="43"/>
+      <c r="W150" s="43"/>
+      <c r="X150" s="14"/>
+      <c r="Y150" s="14"/>
+      <c r="Z150" s="14"/>
+      <c r="AA150" s="14"/>
+      <c r="AB150" s="14"/>
+      <c r="AC150" s="14"/>
+      <c r="AD150" s="14"/>
+      <c r="AE150" s="14"/>
+      <c r="AF150" s="14"/>
+      <c r="AG150" s="14"/>
+      <c r="AH150" s="14"/>
+      <c r="AI150" s="14"/>
+      <c r="AJ150" s="14"/>
+      <c r="AK150" s="14"/>
+      <c r="AL150" s="14"/>
+      <c r="AM150" s="14"/>
+      <c r="AN150" s="14"/>
+      <c r="AO150" s="14"/>
+      <c r="AP150" s="14"/>
+      <c r="AQ150" s="14"/>
+      <c r="AR150" s="14"/>
+      <c r="AS150" s="14"/>
+      <c r="AT150" s="14"/>
+      <c r="AU150" s="14"/>
+      <c r="AV150" s="14"/>
+      <c r="AW150" s="14"/>
+      <c r="AX150" s="14"/>
+      <c r="AY150" s="14"/>
+      <c r="AZ150" s="14"/>
+      <c r="BA150" s="14"/>
+      <c r="BB150" s="14"/>
+      <c r="BC150" s="14"/>
+      <c r="BD150" s="14"/>
+      <c r="BE150" s="14"/>
+      <c r="BF150" s="14"/>
+      <c r="BG150" s="14"/>
+      <c r="BH150" s="14"/>
+      <c r="BI150" s="14"/>
+      <c r="BJ150" s="14"/>
+      <c r="BK150" s="14"/>
+      <c r="BL150" s="14"/>
+      <c r="BM150" s="14"/>
+      <c r="BN150" s="14"/>
+      <c r="BO150" s="14"/>
+      <c r="BP150" s="14"/>
+      <c r="BQ150" s="14"/>
+      <c r="BR150" s="14"/>
+      <c r="BS150" s="34"/>
+    </row>
+    <row r="151" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="35"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="56"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="43"/>
+      <c r="I151" s="43"/>
+      <c r="J151" s="43"/>
+      <c r="K151" s="43"/>
+      <c r="L151" s="43"/>
+      <c r="M151" s="43"/>
+      <c r="N151" s="43"/>
+      <c r="O151" s="43"/>
+      <c r="P151" s="43"/>
+      <c r="Q151" s="43"/>
+      <c r="R151" s="43"/>
+      <c r="S151" s="43"/>
+      <c r="T151" s="43"/>
+      <c r="U151" s="43"/>
+      <c r="V151" s="43"/>
+      <c r="W151" s="43"/>
+      <c r="X151" s="14"/>
+      <c r="Y151" s="14"/>
+      <c r="Z151" s="14"/>
+      <c r="AA151" s="14"/>
+      <c r="AB151" s="14"/>
+      <c r="AC151" s="14"/>
+      <c r="AD151" s="14"/>
+      <c r="AE151" s="14"/>
+      <c r="AF151" s="14"/>
+      <c r="AG151" s="14"/>
+      <c r="AH151" s="14"/>
+      <c r="AI151" s="14"/>
+      <c r="AJ151" s="14"/>
+      <c r="AK151" s="14"/>
+      <c r="AL151" s="14"/>
+      <c r="AM151" s="14"/>
+      <c r="AN151" s="14"/>
+      <c r="AO151" s="14"/>
+      <c r="AP151" s="14"/>
+      <c r="AQ151" s="14"/>
+      <c r="AR151" s="14"/>
+      <c r="AS151" s="14"/>
+      <c r="AT151" s="14"/>
+      <c r="AU151" s="14"/>
+      <c r="AV151" s="14"/>
+      <c r="AW151" s="14"/>
+      <c r="AX151" s="14"/>
+      <c r="AY151" s="14"/>
+      <c r="AZ151" s="14"/>
+      <c r="BA151" s="14"/>
+      <c r="BB151" s="14"/>
+      <c r="BC151" s="14"/>
+      <c r="BD151" s="14"/>
+      <c r="BE151" s="14"/>
+      <c r="BF151" s="14"/>
+      <c r="BG151" s="14"/>
+      <c r="BH151" s="14"/>
+      <c r="BI151" s="14"/>
+      <c r="BJ151" s="14"/>
+      <c r="BK151" s="14"/>
+      <c r="BL151" s="14"/>
+      <c r="BM151" s="14"/>
+      <c r="BN151" s="14"/>
+      <c r="BO151" s="14"/>
+      <c r="BP151" s="14"/>
+      <c r="BQ151" s="14"/>
+      <c r="BR151" s="14"/>
+      <c r="BS151" s="34"/>
+    </row>
+    <row r="152" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="36"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" s="56"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="43"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="43"/>
+      <c r="M152" s="43"/>
+      <c r="N152" s="43"/>
+      <c r="O152" s="43"/>
+      <c r="P152" s="43"/>
+      <c r="Q152" s="43"/>
+      <c r="R152" s="43"/>
+      <c r="S152" s="43"/>
+      <c r="T152" s="43"/>
+      <c r="U152" s="43"/>
+      <c r="V152" s="43"/>
+      <c r="W152" s="43"/>
+      <c r="X152" s="14"/>
+      <c r="Y152" s="14"/>
+      <c r="Z152" s="14"/>
+      <c r="AA152" s="14"/>
+      <c r="AB152" s="14"/>
+      <c r="AC152" s="14"/>
+      <c r="AD152" s="14"/>
+      <c r="AE152" s="14"/>
+      <c r="AF152" s="14"/>
+      <c r="AG152" s="14"/>
+      <c r="AH152" s="14"/>
+      <c r="AI152" s="14"/>
+      <c r="AJ152" s="14"/>
+      <c r="AK152" s="14"/>
+      <c r="AL152" s="14"/>
+      <c r="AM152" s="14"/>
+      <c r="AN152" s="14"/>
+      <c r="AO152" s="14"/>
+      <c r="AP152" s="14"/>
+      <c r="AQ152" s="14"/>
+      <c r="AR152" s="14"/>
+      <c r="AS152" s="14"/>
+      <c r="AT152" s="14"/>
+      <c r="AU152" s="14"/>
+      <c r="AV152" s="14"/>
+      <c r="AW152" s="14"/>
+      <c r="AX152" s="14"/>
+      <c r="AY152" s="14"/>
+      <c r="AZ152" s="14"/>
+      <c r="BA152" s="14"/>
+      <c r="BB152" s="14"/>
+      <c r="BC152" s="14"/>
+      <c r="BD152" s="14"/>
+      <c r="BE152" s="14"/>
+      <c r="BF152" s="14"/>
+      <c r="BG152" s="14"/>
+      <c r="BH152" s="14"/>
+      <c r="BI152" s="14"/>
+      <c r="BJ152" s="14"/>
+      <c r="BK152" s="14"/>
+      <c r="BL152" s="14"/>
+      <c r="BM152" s="14"/>
+      <c r="BN152" s="14"/>
+      <c r="BO152" s="14"/>
+      <c r="BP152" s="14"/>
+      <c r="BQ152" s="14"/>
+      <c r="BR152" s="14"/>
+      <c r="BS152" s="34"/>
+    </row>
+    <row r="154" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C154" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D130" s="72"/>
+      <c r="D154" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12962,203 +15321,273 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="H4:BS4">
-    <cfRule type="cellIs" dxfId="62" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="155" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BS9 H93:BS96 H92:Y92 AC92:BS92 H78:Y78 AB78:BS78 H69:BS77 H68:W68 Y68:BS68 H14:BS67 H79:BS91 H105:AA105 AP105:BS105 H106:BS112 H102:BS104 H101:AO101 AV101:BS101 H98:BS100 H97:AO97 AV97:BS97 H114:BS121 H113:AU113 AY113:BS113 H124:BS128 H122:AX122 BB122:BS122 H123:BA123 BD123:BS123">
-    <cfRule type="expression" dxfId="60" priority="125" stopIfTrue="1">
+  <conditionalFormatting sqref="H5:BS9 H105:BS108 H104:Y104 AC104:BS104 H90:Y90 AB90:BS90 H81:BS89 H80:W80 Y80:BS80 H91:BS103 H117:AA117 AP117:BS117 H118:BS124 H114:BS116 H113:AO113 AV113:BS113 H110:BS112 H109:AO109 AV109:BS109 H126:BS133 H125:AU125 AY125:BS125 H136:BS139 H134:AX134 BB134:BS134 H135:BA135 BD135:BS135 H14:BS79 H141:BS141 H140:BF140 BH140:BS140 H147:BI147 H142:BG144 BI142:BS144 H145:BH146 BJ145:BS146 H150:BS152 H148:BK149 BM148:BS149 BN147:BS147">
+    <cfRule type="expression" dxfId="88" priority="145" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="151" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="153" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:BS2">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="137">
+    <cfRule type="notContainsBlanks" dxfId="84" priority="157">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:BS12">
-    <cfRule type="expression" dxfId="55" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="137" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:BS12 H10:I11 L10:BS11">
-    <cfRule type="expression" dxfId="51" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="133" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:BS13">
-    <cfRule type="expression" dxfId="47" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="129" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:BS13">
-    <cfRule type="expression" dxfId="43" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="125" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="128" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="57" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K11">
-    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="53" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA92 AA78">
-    <cfRule type="expression" dxfId="31" priority="142" stopIfTrue="1">
+  <conditionalFormatting sqref="AA104 AA90">
+    <cfRule type="expression" dxfId="59" priority="162" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="163" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="164" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="165" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z78">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="Z90">
+    <cfRule type="expression" dxfId="55" priority="45" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB105:AO105">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="AB117:AO117">
+    <cfRule type="expression" dxfId="51" priority="41" stopIfTrue="1">
       <formula>MATCH(AA$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP101:AU101">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="AP113:AU113">
+    <cfRule type="expression" dxfId="47" priority="37" stopIfTrue="1">
       <formula>MATCH(AO$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP97:AU97">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="AP109:AU109">
+    <cfRule type="expression" dxfId="43" priority="33" stopIfTrue="1">
       <formula>MATCH(AO$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV113:AX113">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="AV125:AX125">
+    <cfRule type="expression" dxfId="39" priority="29" stopIfTrue="1">
       <formula>MATCH(AU$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY122:BA122">
+  <conditionalFormatting sqref="AY134:BA134">
+    <cfRule type="expression" dxfId="35" priority="25" stopIfTrue="1">
+      <formula>MATCH(AX$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB135:BC135">
+    <cfRule type="expression" dxfId="31" priority="21" stopIfTrue="1">
+      <formula>MATCH(BA$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG140">
+    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
+      <formula>MATCH(BF$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH142:BH144">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+      <formula>MATCH(BG$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI145:BI146">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>MATCH(BH$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL148:BL149">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(AX$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(BK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -13170,9 +15599,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB123:BC123">
+  <conditionalFormatting sqref="BJ147:BM147">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(BA$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(BI$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
@@ -13231,7 +15660,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="78"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="4">
         <v>41434</v>
       </c>
@@ -13242,7 +15671,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="79"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="4">
         <v>41440</v>
       </c>
@@ -13253,7 +15682,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="79"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="4">
         <v>41441</v>
       </c>
@@ -13264,7 +15693,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="79"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="4">
         <v>41447</v>
       </c>
@@ -13275,7 +15704,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="79"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="4">
         <v>41448</v>
       </c>
@@ -13286,7 +15715,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="79"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="4">
         <v>41454</v>
       </c>
@@ -13297,7 +15726,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="79"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="4">
         <v>41455</v>
       </c>
@@ -13308,7 +15737,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="79"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="4">
         <v>41461</v>
       </c>
@@ -13319,7 +15748,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="79"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="4">
         <v>41462</v>
       </c>
@@ -13330,7 +15759,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="79"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="4">
         <v>41468</v>
       </c>
@@ -13341,7 +15770,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="79"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="4">
         <v>41469</v>
       </c>
@@ -13352,7 +15781,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="79"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="4">
         <v>41475</v>
       </c>
@@ -13363,7 +15792,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="79"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="4">
         <v>41476</v>
       </c>
@@ -13374,7 +15803,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="79"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="4">
         <v>41482</v>
       </c>
@@ -13385,7 +15814,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="79"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="4">
         <v>41483</v>
       </c>
@@ -13396,7 +15825,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="79"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="4">
         <v>41489</v>
       </c>
@@ -13407,7 +15836,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="79"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="4">
         <v>41490</v>
       </c>
@@ -13418,7 +15847,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="79"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="4">
         <v>41496</v>
       </c>
@@ -13429,7 +15858,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="79"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="4">
         <v>41497</v>
       </c>
@@ -13440,7 +15869,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="80"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="4">
         <v>41499</v>
       </c>
